--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A0D3B6-628A-3947-9973-371503394564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE479410-9A21-BD4C-977F-CFB24AB17A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2193,10 +2193,10 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE479410-9A21-BD4C-977F-CFB24AB17A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C938D738-FA22-5F46-B9EE-67114BAF4D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="585">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1754,6 +1754,27 @@
   </si>
   <si>
     <t>Undergraduate Student Assistant @ Merage</t>
+  </si>
+  <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>Bussey</t>
+  </si>
+  <si>
+    <t>kai_bussey</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Finance, Private Equity, Banking</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kai-bussey-a92008233/</t>
+  </si>
+  <si>
+    <t>kaibussey@ucidsp.com</t>
   </si>
 </sst>
 </file>
@@ -2190,13 +2211,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10:P11"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2501,13 +2522,13 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>478</v>
@@ -2516,709 +2537,707 @@
         <v>479</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>330</v>
+        <v>581</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P8" s="16" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>44404.857638888891</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>507</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>508</v>
+        <v>289</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>509</v>
+        <v>86</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>233</v>
+        <v>26</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>510</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>321</v>
+        <v>507</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>322</v>
+        <v>508</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M10" t="s">
+        <v>509</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>323</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>487</v>
+        <v>118</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>488</v>
+        <v>321</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>489</v>
+        <v>322</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
+        <v>210</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>180</v>
+        <v>488</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>438</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>439</v>
+        <v>178</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>440</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L14" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N14" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O14" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P14" s="11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>44404.652777777781</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
         <v>44397.381944444445</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N17" t="s">
         <v>260</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>568</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>569</v>
+        <v>199</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>478</v>
+        <v>166</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>571</v>
+        <v>201</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>572</v>
+        <v>303</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>576</v>
+        <v>385</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>577</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>574</v>
+      <c r="N18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
-        <v>44397.802083333336</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>568</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>569</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>570</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>571</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>292</v>
+      <c r="I19" s="13" t="s">
+        <v>572</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>308</v>
+        <v>576</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>309</v>
+        <v>577</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" t="s">
-        <v>111</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>20</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>574</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>44397.802083333336</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="J20" s="2" t="s">
-        <v>499</v>
+        <v>308</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>140</v>
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>382</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>384</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>385</v>
+        <v>499</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>386</v>
+        <v>21</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>389</v>
+        <v>16</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>511</v>
+        <v>382</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>383</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>478</v>
+        <v>329</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
@@ -3229,223 +3248,225 @@
       <c r="H22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>513</v>
+        <v>385</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>21</v>
+        <v>386</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>515</v>
+        <v>33</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>516</v>
+        <v>388</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>511</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>512</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>478</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>500</v>
+        <v>513</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N23" t="s">
-        <v>149</v>
+      <c r="N23" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E24" t="s">
-        <v>227</v>
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="J24" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>529</v>
+        <v>467</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>500</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>273</v>
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>149</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>530</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>502</v>
+        <v>269</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>478</v>
+        <v>270</v>
+      </c>
+      <c r="E25" t="s">
+        <v>227</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>46</v>
+        <v>528</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>21</v>
+        <v>473</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>272</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>329</v>
@@ -3454,1525 +3475,1571 @@
         <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="K28" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>437</v>
+        <v>472</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>406</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>408</v>
+        <v>14</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>277</v>
+        <v>433</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>412</v>
+        <v>26</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>113</v>
+        <v>406</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>407</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>118</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I31" t="s">
-        <v>195</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" t="s">
-        <v>196</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>391</v>
+        <v>192</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>222</v>
+        <v>193</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>537</v>
+        <v>21</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N32" t="s">
-        <v>395</v>
+        <v>196</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>396</v>
+        <v>197</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>543</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>390</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>391</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>300</v>
+        <v>392</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>301</v>
+        <v>394</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>537</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N33" t="s">
-        <v>148</v>
+        <v>395</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>221</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>373</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="M34" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N34" t="s">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>381</v>
+        <v>131</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>553</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>554</v>
+        <v>373</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>555</v>
+        <v>374</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>478</v>
+        <v>329</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>361</v>
+        <v>117</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>556</v>
+        <v>376</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>559</v>
+        <v>380</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" t="s">
+        <v>378</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>558</v>
+        <v>379</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>557</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>343</v>
+        <v>553</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>344</v>
+        <v>554</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>345</v>
+        <v>555</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>329</v>
+        <v>478</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N36" t="s">
-        <v>349</v>
+        <v>22</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>559</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>350</v>
+        <v>558</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>351</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>245</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>405</v>
+        <v>36</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N37" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>251</v>
+        <v>350</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="J38" s="2" t="s">
-        <v>46</v>
+        <v>317</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>135</v>
+        <v>31</v>
+      </c>
+      <c r="N38" t="s">
+        <v>249</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>453</v>
+        <v>320</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N39" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>275</v>
+      <c r="N39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>422</v>
+        <v>274</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J40" s="2" t="s">
-        <v>426</v>
+        <v>281</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L40" s="16" t="s">
-        <v>427</v>
+        <v>453</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>429</v>
+        <v>315</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>430</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>531</v>
+        <v>422</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>532</v>
+        <v>423</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>533</v>
+        <v>424</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>478</v>
+        <v>329</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>479</v>
+        <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>534</v>
+        <v>425</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>535</v>
+        <v>426</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>21</v>
+        <v>463</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>538</v>
+        <v>428</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>539</v>
+        <v>429</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>536</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>531</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>226</v>
+        <v>533</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>227</v>
+        <v>478</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>479</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>426</v>
+        <v>535</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>519</v>
+        <v>21</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>230</v>
+      <c r="N42" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>539</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>231</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>44396.994444444441</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>540</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>159</v>
+        <v>426</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>50</v>
+        <v>519</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>44396.994444444441</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>560</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>143</v>
+        <v>561</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>562</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>116</v>
+        <v>478</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>479</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>19</v>
+        <v>563</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>455</v>
+        <v>21</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>146</v>
+        <v>26</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>456</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
-        <v>364</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>365</v>
+        <v>143</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>366</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>367</v>
+        <v>145</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>369</v>
+        <v>426</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>541</v>
+        <v>311</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>542</v>
+        <v>152</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
-        <v>490</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>491</v>
+        <v>365</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>478</v>
+        <v>329</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>479</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>108</v>
+        <v>368</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>21</v>
+        <v>541</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>495</v>
+        <v>371</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>496</v>
+        <v>370</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>478</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>479</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>493</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>547</v>
+        <v>108</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>552</v>
+        <v>21</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>548</v>
+        <v>21</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>549</v>
+        <v>22</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
-        <v>333</v>
+        <v>544</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>334</v>
+        <v>545</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>335</v>
+        <v>546</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>329</v>
+        <v>478</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>337</v>
+        <v>547</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>339</v>
+        <v>548</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>342</v>
+        <v>20</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>549</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>44409.992361111108</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>72</v>
+        <v>334</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>291</v>
+        <v>337</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>21</v>
+        <v>339</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>75</v>
+        <v>342</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>160</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3">
+        <v>44409.992361111108</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>465</v>
+        <v>108</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>41</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I52" t="s">
-        <v>172</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>173</v>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>294</v>
+        <v>304</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N52" t="s">
-        <v>175</v>
-      </c>
-      <c r="O52" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="P52" s="13" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>238</v>
+      <c r="B53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="11"/>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" t="s">
+        <v>172</v>
+      </c>
       <c r="J53" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>241</v>
+        <v>173</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N53" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>244</v>
+        <v>176</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
-        <v>44397.036111111112</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>58</v>
+      <c r="B54" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>29</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>20</v>
+        <v>462</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>61</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P54" s="13" t="s">
-        <v>63</v>
+        <v>242</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
-        <v>44411.775694444441</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>77</v>
+        <v>44397.036111111112</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>29</v>
+      </c>
       <c r="J55" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="L55" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="L55" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N55" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
-        <v>213</v>
+        <v>62</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <v>44411.775694444441</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I56" t="s">
-        <v>172</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I56" s="2"/>
       <c r="J56" s="11" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>216</v>
+        <v>450</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N56" t="s">
-        <v>217</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>218</v>
+        <v>80</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" t="s">
+        <v>172</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>217</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G58" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" t="s">
-        <v>362</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
-        <v>44405.647916666669</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>362</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <v>44405.647916666669</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K59" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L59" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M59" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N59" t="s">
         <v>95</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="O59" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="P59" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P51">
-    <sortCondition ref="C4:C51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P52">
+    <sortCondition ref="C4:C52"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="N39" r:id="rId1" xr:uid="{CBF3488F-0731-4784-B778-22BEDC9A87FD}"/>
+    <hyperlink ref="N40" r:id="rId1" xr:uid="{CBF3488F-0731-4784-B778-22BEDC9A87FD}"/>
     <hyperlink ref="O6" r:id="rId2" xr:uid="{AA553A20-924A-4A7A-B3C1-6D6F29D53AB7}"/>
-    <hyperlink ref="O49" r:id="rId3" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
-    <hyperlink ref="O36" r:id="rId4" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
-    <hyperlink ref="N27" r:id="rId5" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
-    <hyperlink ref="O27" r:id="rId6" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
-    <hyperlink ref="O57" r:id="rId7" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
-    <hyperlink ref="O46" r:id="rId8" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
-    <hyperlink ref="O34" r:id="rId9" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
-    <hyperlink ref="O21" r:id="rId10" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
-    <hyperlink ref="O32" r:id="rId11" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
+    <hyperlink ref="O50" r:id="rId3" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
+    <hyperlink ref="O37" r:id="rId4" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
+    <hyperlink ref="N28" r:id="rId5" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
+    <hyperlink ref="O28" r:id="rId6" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
+    <hyperlink ref="O58" r:id="rId7" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
+    <hyperlink ref="O47" r:id="rId8" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
+    <hyperlink ref="O35" r:id="rId9" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
+    <hyperlink ref="O22" r:id="rId10" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
+    <hyperlink ref="O33" r:id="rId11" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
     <hyperlink ref="O2" r:id="rId12" xr:uid="{9EFE127E-94E1-4D1A-B4FF-56A0D7F365F6}"/>
-    <hyperlink ref="O29" r:id="rId13" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
-    <hyperlink ref="O26" r:id="rId14" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
-    <hyperlink ref="O40" r:id="rId15" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
-    <hyperlink ref="N28" r:id="rId16" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
-    <hyperlink ref="O28" r:id="rId17" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
-    <hyperlink ref="N13" r:id="rId18" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
-    <hyperlink ref="O13" r:id="rId19" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
+    <hyperlink ref="O30" r:id="rId13" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
+    <hyperlink ref="O27" r:id="rId14" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
+    <hyperlink ref="O41" r:id="rId15" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
+    <hyperlink ref="N29" r:id="rId16" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
+    <hyperlink ref="O29" r:id="rId17" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
+    <hyperlink ref="N14" r:id="rId18" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
+    <hyperlink ref="O14" r:id="rId19" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
     <hyperlink ref="O3" r:id="rId20" xr:uid="{496C672A-A2C0-964F-A09C-3F6E9E54D395}"/>
-    <hyperlink ref="O47" r:id="rId21" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
-    <hyperlink ref="O25" r:id="rId22" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
-    <hyperlink ref="N25" r:id="rId23" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
-    <hyperlink ref="O22" r:id="rId24" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
-    <hyperlink ref="N21" r:id="rId25" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
-    <hyperlink ref="O7" r:id="rId26" xr:uid="{1C6BEACD-95C4-1B42-8908-9AEE21DD5284}"/>
-    <hyperlink ref="N7" r:id="rId27" xr:uid="{DECFF68F-407D-A64C-AF9F-EA8F0545F147}"/>
-    <hyperlink ref="N41" r:id="rId28" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
-    <hyperlink ref="O41" r:id="rId29" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
-    <hyperlink ref="N48" r:id="rId30" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
-    <hyperlink ref="O48" r:id="rId31" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
-    <hyperlink ref="O35" r:id="rId32" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
-    <hyperlink ref="N35" r:id="rId33" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
-    <hyperlink ref="N44" r:id="rId34" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
-    <hyperlink ref="O44" r:id="rId35" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
-    <hyperlink ref="N18" r:id="rId36" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
-    <hyperlink ref="O18" r:id="rId37" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
+    <hyperlink ref="O48" r:id="rId21" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
+    <hyperlink ref="O26" r:id="rId22" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
+    <hyperlink ref="N26" r:id="rId23" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
+    <hyperlink ref="O23" r:id="rId24" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
+    <hyperlink ref="N22" r:id="rId25" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
+    <hyperlink ref="O8" r:id="rId26" xr:uid="{1C6BEACD-95C4-1B42-8908-9AEE21DD5284}"/>
+    <hyperlink ref="N8" r:id="rId27" xr:uid="{DECFF68F-407D-A64C-AF9F-EA8F0545F147}"/>
+    <hyperlink ref="N42" r:id="rId28" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
+    <hyperlink ref="O42" r:id="rId29" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
+    <hyperlink ref="N49" r:id="rId30" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
+    <hyperlink ref="O49" r:id="rId31" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
+    <hyperlink ref="O36" r:id="rId32" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
+    <hyperlink ref="N36" r:id="rId33" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
+    <hyperlink ref="N45" r:id="rId34" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
+    <hyperlink ref="O45" r:id="rId35" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
+    <hyperlink ref="N19" r:id="rId36" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
+    <hyperlink ref="O19" r:id="rId37" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
+    <hyperlink ref="N7" r:id="rId38" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
+    <hyperlink ref="O7" r:id="rId39" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId38"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
 </worksheet>
 </file>
--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C938D738-FA22-5F46-B9EE-67114BAF4D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBBAE34-DF74-414A-BF99-3E7D61F692D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="586">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1594,9 +1594,6 @@
     <t>Consulting, Marketing</t>
   </si>
   <si>
-    <t>180 Degrees Consulting, Sigma Chi</t>
-  </si>
-  <si>
     <t>Hello! My name is Shashank and I initiated with the Alpha Pi Class. In my free time, I enjoy producing music, lifting, and traveling. Ask me about my time at the USATF Junior Olympics during recruitment!</t>
   </si>
   <si>
@@ -1771,10 +1768,16 @@
     <t>Finance, Private Equity, Banking</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/kai-bussey-a92008233/</t>
-  </si>
-  <si>
     <t>kaibussey@ucidsp.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kai-bussey-a92008233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey my name is Kai and I initiated during the fall quarter of my first year with the Alpha Pis. During my free time, I enjoy spending time with friends, hitting the gym, or doing homework. Ask me about why Del Taco is better than Taco Bell at recruitment! </t>
+  </si>
+  <si>
+    <t>180 Degrees Consulting</t>
   </si>
 </sst>
 </file>
@@ -2214,10 +2217,10 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2522,13 +2525,13 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>478</v>
@@ -2537,13 +2540,13 @@
         <v>479</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>21</v>
@@ -2558,10 +2561,10 @@
         <v>583</v>
       </c>
       <c r="O7" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="P7" s="16" t="s">
         <v>584</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2593,19 +2596,19 @@
         <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -3084,13 +3087,13 @@
     <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>478</v>
@@ -3099,19 +3102,19 @@
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>21</v>
@@ -3120,13 +3123,13 @@
         <v>20</v>
       </c>
       <c r="N19" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="P19" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -3390,13 +3393,13 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>473</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>20</v>
@@ -3408,7 +3411,7 @@
         <v>272</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -3762,7 +3765,7 @@
         <v>394</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>20</v>
@@ -3774,7 +3777,7 @@
         <v>396</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3871,13 +3874,13 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>478</v>
@@ -3893,7 +3896,7 @@
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>21</v>
@@ -3905,13 +3908,13 @@
         <v>22</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4151,13 +4154,13 @@
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>478</v>
@@ -4166,14 +4169,14 @@
         <v>479</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>21</v>
@@ -4185,13 +4188,13 @@
         <v>20</v>
       </c>
       <c r="N42" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="O42" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="P42" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4200,7 +4203,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>226</v>
@@ -4293,13 +4296,13 @@
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>478</v>
@@ -4311,11 +4314,11 @@
         <v>330</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>21</v>
@@ -4327,13 +4330,13 @@
         <v>26</v>
       </c>
       <c r="N45" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="O45" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="O45" s="12" t="s">
+      <c r="P45" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4413,7 +4416,7 @@
         <v>369</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>22</v>
@@ -4425,7 +4428,7 @@
         <v>370</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4477,13 +4480,13 @@
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>478</v>
@@ -4499,25 +4502,25 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N49" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="P49" s="16" t="s">
         <v>550</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBBAE34-DF74-414A-BF99-3E7D61F692D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CACB1-CC68-314B-B252-D99BD8BAB75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="589">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1778,6 +1778,15 @@
   </si>
   <si>
     <t>180 Degrees Consulting</t>
+  </si>
+  <si>
+    <t>Machine Learning Researcher @ Bioverse Labs</t>
+  </si>
+  <si>
+    <t>Manifest, ITG, AI Club</t>
+  </si>
+  <si>
+    <t>Software Engineering, Finance, Quant</t>
   </si>
 </sst>
 </file>
@@ -2217,10 +2226,10 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3759,7 +3768,7 @@
         <v>393</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>222</v>
+        <v>588</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>394</v>
@@ -4321,10 +4330,10 @@
         <v>563</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>21</v>
+        <v>586</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>21</v>
+        <v>587</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>26</v>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CACB1-CC68-314B-B252-D99BD8BAB75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEBABAF-0D0B-0443-A547-EA975333EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="589">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2226,10 +2226,10 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3536,7 +3536,9 @@
       <c r="H28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J28" s="16" t="s">
         <v>471</v>
       </c>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEBABAF-0D0B-0443-A547-EA975333EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70609269-D07C-2840-9338-123A74789539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2226,10 +2226,10 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4177,7 +4177,7 @@
         <v>478</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>479</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>533</v>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70609269-D07C-2840-9338-123A74789539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9C1846-FFB7-B444-9D36-3F27EE8CCF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="590">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1787,6 +1787,9 @@
   </si>
   <si>
     <t>Software Engineering, Finance, Quant</t>
+  </si>
+  <si>
+    <t>Software Developer Intern @ Darwins</t>
   </si>
 </sst>
 </file>
@@ -2226,10 +2229,10 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2514,7 +2517,7 @@
         <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>589</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>475</v>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9C1846-FFB7-B444-9D36-3F27EE8CCF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C49D863-BED0-4941-801E-C77F27FEC298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="506">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Zhang-Feng</t>
   </si>
   <si>
-    <t>Han</t>
-  </si>
-  <si>
     <t>4th</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Lough-Yu</t>
   </si>
   <si>
-    <t>San Gabriel, CA</t>
-  </si>
-  <si>
     <t>Business Economics</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Huang-Merchant</t>
   </si>
   <si>
-    <t>Dublin, CA</t>
-  </si>
-  <si>
     <t>Su-Hung-Green</t>
   </si>
   <si>
@@ -193,27 +184,6 @@
     <t>Chang-McGrath</t>
   </si>
   <si>
-    <t>Brennen</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <t>brennen_wong</t>
-  </si>
-  <si>
-    <t>Diamond Bar, CA</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/brennenwong/</t>
-  </si>
-  <si>
-    <t>brennenwong@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hello there! My name is Brennen Wong and I initiated in my Fall quarter of my first year here at UCI. In my free time, I enjoy exploring new places to eat with my friends and playing with my friends’ dogs. A fun fact about myself is that I have a pet turtle whose name is Turtle. Ask me about The Office or cars at recruitment!</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
@@ -271,48 +241,9 @@
     <t>Hi everyone!! My name is Jenny and I initiated the spring quarter of my first year with the Alpha Lambda class. I love getting food and drinks with my friends, driving around, and taking disposable pictures when I have the time. Feel free to ask me about anything, especially my hiking encounters and the story behind how I broke my wrist in the second grade!</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Cao</t>
   </si>
   <si>
-    <t>kevin_cao</t>
-  </si>
-  <si>
-    <t>ASUCI, MUSA, SCNO</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kevinkwcao/</t>
-  </si>
-  <si>
-    <t>kevincao@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Kevin and I initiated fall quarter of my first year! I enjoy grabbing food with friends and love to try out new boba places. Ask me about food, esports, basketball, or anything else!</t>
-  </si>
-  <si>
-    <t>Maxwell</t>
-  </si>
-  <si>
-    <t>Xu</t>
-  </si>
-  <si>
-    <t>maxwell_xu</t>
-  </si>
-  <si>
-    <t>Millbrae, CA</t>
-  </si>
-  <si>
-    <t>Product Marketing</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/maxwellxu/</t>
-  </si>
-  <si>
-    <t>maxwellxu@ucidsp.com</t>
-  </si>
-  <si>
     <t>Sean</t>
   </si>
   <si>
@@ -334,9 +265,6 @@
     <t>Hello! My name is Sean Devine and I initiated in the spring quarter of my first year here at UCI. In my free time, I enjoy any form of sport and competition. Currently, I am learning how to surf. Ask me about stocks, favorite books, and Formula 1 at recruitment!</t>
   </si>
   <si>
-    <t>Truong</t>
-  </si>
-  <si>
     <t>Westminster, CA</t>
   </si>
   <si>
@@ -349,18 +277,6 @@
     <t>Consulting, Finance</t>
   </si>
   <si>
-    <t>Yeseo</t>
-  </si>
-  <si>
-    <t>yeseo_han</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/yeseo-han/</t>
-  </si>
-  <si>
-    <t>yeseohan@ucidsp.com</t>
-  </si>
-  <si>
     <t>Nathan</t>
   </si>
   <si>
@@ -505,54 +421,18 @@
     <t>Hi! My name is Dylan, and I initiated in the spring quarter of my first year. In my free time, I enjoy playing volleyball, basketball, and Valorant. Feel free to ask me about cars, options trading, and random stuff. Looking forward to seeing you :)</t>
   </si>
   <si>
-    <t>Hello! My name is Yeseo, and I initiated in the fall quarter of my freshman year. I like to spend my free time knitting sweaters for friends and family. I’ve recently developed an interest in leather craft and shoemaking! A fun fact about me is that I used to be blonde. Ask me about making unique gifts for loved ones or starting your own business at recruitment—I can't wait to meet you!</t>
-  </si>
-  <si>
     <t>Product Design, Product Management</t>
   </si>
   <si>
-    <t>Jorina</t>
-  </si>
-  <si>
     <t>Chen</t>
   </si>
   <si>
-    <t>jorina_chen</t>
-  </si>
-  <si>
     <t>Alpha Nu</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/jorinachen</t>
-  </si>
-  <si>
-    <t>jorinachen@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello! My name is Jorina Chen and I initiated in the spring quarter of my sophomore year with the Alpha Nu class. During my free time, I am exploring new places around Irvine or getting food with friends. Ask me about design, food, or my music taste at recruitment! </t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>haley_truong</t>
-  </si>
-  <si>
     <t>Accounting</t>
   </si>
   <si>
-    <t>Accounting, Finance</t>
-  </si>
-  <si>
-    <t>Hi!! My name is Haley and I initiated in the spring of my sophomore year with the Alpha Nu class. In my free time, I enjoy swimming, reading, trying new food/boba places, and taking film photos. Feel free to ask me about my boba blog, favorite books, or anything else at recruitment!</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/haley-truong/</t>
-  </si>
-  <si>
-    <t>haleytruong@ucidsp.com</t>
-  </si>
-  <si>
     <t>Ronica</t>
   </si>
   <si>
@@ -577,21 +457,6 @@
     <t>Hey hey! I am Ronica, and I initiated with the Alpha Nu class during the spring quarter of my first year. I like to crochet, snowboard, and play video games in my free time. A fun fact about me is I am an only child :(. Ask me about my dream job of being a farmer and the best types of crops to grow during recruitment!</t>
   </si>
   <si>
-    <t>Aryan</t>
-  </si>
-  <si>
-    <t>Bajaria</t>
-  </si>
-  <si>
-    <t>aryan_bajaria</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aryanbajaria/</t>
-  </si>
-  <si>
-    <t>aryanbajaria@ucidsp.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Madeline </t>
   </si>
   <si>
@@ -604,9 +469,6 @@
     <t>San Diego, CA</t>
   </si>
   <si>
-    <t>Yorba Linda, CA</t>
-  </si>
-  <si>
     <t>Film and Media Studies</t>
   </si>
   <si>
@@ -736,27 +598,6 @@
     <t>Jacob</t>
   </si>
   <si>
-    <t>Won</t>
-  </si>
-  <si>
-    <t>jacob_won</t>
-  </si>
-  <si>
-    <t>Fullerton, CA</t>
-  </si>
-  <si>
-    <t>BCEC</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jacobwon/</t>
-  </si>
-  <si>
-    <t>jacobwon@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Jacob and I initiated in the Fall of 2022 with the Alpha Xi class. In my free time I love to workout, go snowboarding, and play sports. A fun fact about me is that I like acting. Ask me about my favorite movies or tv shows at recruitment! I’m looking forward to meeting you all.</t>
-  </si>
-  <si>
     <t>Mirsab</t>
   </si>
   <si>
@@ -844,30 +685,9 @@
     <t>https://www.linkedin.com/in/dianahuynh/</t>
   </si>
   <si>
-    <t>Maryam</t>
-  </si>
-  <si>
-    <t>maryammussa@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi everyone! My name is Maryam and I initiated in Fall of ‘22 with the Alpha Xi class. I love reading, anything film/tv, fashion, gloomy weather, and traveling! A fun fact about me is I used to have bright pink hair. Ask me for book recommendations or about the concerts I’ve been to at recruitment :)</t>
-  </si>
-  <si>
     <t>MAISS</t>
   </si>
   <si>
-    <t>Mussa</t>
-  </si>
-  <si>
-    <t>maryam_mussa</t>
-  </si>
-  <si>
-    <t>Cypress, CA</t>
-  </si>
-  <si>
-    <t>Product Management, Marketing</t>
-  </si>
-  <si>
     <t>Sociology</t>
   </si>
   <si>
@@ -886,39 +706,12 @@
     <t>Information &amp; Computer Science</t>
   </si>
   <si>
-    <t>Hello! My name is Aryan, and I initiated the spring quarter of my freshman year with the Alpha Nu class! In my free time, you will find me exploring nature, staying active at the gym, and playing soccer. A fun fact about me is that I stuck my finger in a blender when I was a kid. Ask me about Formula 1 or my passion for cars at recruitment, I look forward to meeting you!</t>
-  </si>
-  <si>
-    <t>Vice President of Technology @ MUSA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finance/Business Operations Acquisition Intern @ NASA Jet Propulsion Laboratory </t>
   </si>
   <si>
     <t>Intern @ Linda S. Congleton &amp; Associates</t>
   </si>
   <si>
-    <t>Classical Civilization</t>
-  </si>
-  <si>
-    <t>Accounting Intern @ Skyworks Inc</t>
-  </si>
-  <si>
-    <t>Beta Alpha Psi, Accounting Association Leadership Development Program, Student Assistant @ Paul Merage MBA Programs</t>
-  </si>
-  <si>
-    <t>Wealth Management, Consulting, Finance</t>
-  </si>
-  <si>
-    <t>UCI ANTrepreneur Center, Sigma Chi, Mesa Court Housing, UC-CSU ECCLPS, REA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design at UCI, CTC, STAR Group Research Assistant, Merage Research Assistant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Informatics  </t>
-  </si>
-  <si>
     <t>Hi! My name is Jake and I initiated in the fall of my freshman year with the Alpha Mu class. In my free time I enjoy surfing, swimming, playing tennis and listening to music. Ask me about my favorite comedians, or anything at recruitment!</t>
   </si>
   <si>
@@ -946,30 +739,9 @@
     <t xml:space="preserve">Latino Business Student Association , Merage Financial Service - Student Assistant, Sigma Chi Fraternity, UCI Athletics </t>
   </si>
   <si>
-    <t>Digital Marketing, Marketing Strategy</t>
-  </si>
-  <si>
-    <t>Digital Marketing &amp; Sales Strategy Intern @ SoKit Beauty</t>
-  </si>
-  <si>
-    <t>UCI ANTrepreneur Center, Eta Sigma Phi, ASUCI</t>
-  </si>
-  <si>
     <t>MUSA, Product Association</t>
   </si>
   <si>
-    <t>Business Planning Intern @ Microsoft</t>
-  </si>
-  <si>
-    <t>Product Association, MAISS</t>
-  </si>
-  <si>
-    <t>Hello! My name is Max and I initiated in Fall 2020 with the Alpha Kappa class. In my free time, I love playing music, telling stories, and overthinking. Ask me about my bucket list, favorite shows/games, or my personal projects at recruitment!</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/maryammussa/</t>
-  </si>
-  <si>
     <t>Health Informatics</t>
   </si>
   <si>
@@ -994,12 +766,6 @@
     <t>Hello! My name is Adora Chen, and I initiated during the spring of my first year with the Alpha Nu class. In my free time, I like to draw, cook, play card games with my friends, and visit fun dessert spots. A fun fact about me is that I used to have a music show for UCI's radio station. Ask me about anything at recruitment :)</t>
   </si>
   <si>
-    <t>Entrepreneurship, Consulting</t>
-  </si>
-  <si>
-    <t>Asset and Wealth Management @ J.P. Morgan Private Bank</t>
-  </si>
-  <si>
     <t>Abigail</t>
   </si>
   <si>
@@ -1381,9 +1147,6 @@
     <t>Sigma Pi Alpha, CHC</t>
   </si>
   <si>
-    <t>Consumer Insights Intern @ NBCUniversal</t>
-  </si>
-  <si>
     <t>Product Design Intern @ Anduril</t>
   </si>
   <si>
@@ -1408,15 +1171,9 @@
     <t>Full Stack Software Engineering Intern @ Cubic Transportation Systems</t>
   </si>
   <si>
-    <t>STEM Learning Labs Intern @ Alpha Omega Group</t>
-  </si>
-  <si>
     <t>Intern @ The Reserve Investments</t>
   </si>
   <si>
-    <t>Full Stack Software Engineer Intern @ SAP</t>
-  </si>
-  <si>
     <t>Entrepreneurship, Management, Recruiting</t>
   </si>
   <si>
@@ -1483,15 +1240,6 @@
     <t>https://www.linkedin.com/in/andrewashman1/</t>
   </si>
   <si>
-    <t>Informatics (HCI)</t>
-  </si>
-  <si>
-    <t>Product Design, UX Design</t>
-  </si>
-  <si>
-    <t>Product Design Intern @ Atlassian</t>
-  </si>
-  <si>
     <t>Brendon</t>
   </si>
   <si>
@@ -1786,10 +1534,10 @@
     <t>Manifest, ITG, AI Club</t>
   </si>
   <si>
-    <t>Software Engineering, Finance, Quant</t>
-  </si>
-  <si>
     <t>Software Developer Intern @ Darwins</t>
+  </si>
+  <si>
+    <t>Software Engineering, Quant</t>
   </si>
 </sst>
 </file>
@@ -2226,13 +1974,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2263,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2296,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -2305,93 +2053,93 @@
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>452</v>
+        <v>374</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>476</v>
+        <v>395</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>481</v>
+        <v>400</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>483</v>
+        <v>402</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>484</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -2399,2664 +2147,2237 @@
         <v>44404.515972222223</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>295</v>
+      <c r="J5" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>325</v>
+        <v>504</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>296</v>
+        <v>394</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>288</v>
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
-        <v>326</v>
+        <v>493</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>494</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>328</v>
+        <v>495</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>398</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>330</v>
+        <v>496</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>30</v>
+        <v>497</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>589</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>331</v>
+        <v>19</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>332</v>
+        <v>498</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>578</v>
+        <v>437</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>580</v>
+        <v>252</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="K7" s="2" t="s">
+    </row>
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="N10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>44404.652777777781</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>44397.381944444445</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="L15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>44404.857638888891</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="N15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="I16" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>44404.652777777781</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
-        <v>44397.381944444445</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>256</v>
+        <v>415</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" t="s">
-        <v>260</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>259</v>
+        <v>16</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>303</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>567</v>
+        <v>427</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>568</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>569</v>
+        <v>428</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>570</v>
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>571</v>
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>575</v>
+        <v>429</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>576</v>
+        <v>20</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
-        <v>44397.802083333336</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>181</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>21</v>
+        <v>444</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>141</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>387</v>
+      <c r="N22" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>389</v>
+        <v>421</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>511</v>
+        <v>336</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>512</v>
+        <v>338</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>478</v>
+        <v>251</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N24" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>473</v>
+      <c r="G25" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>528</v>
+        <v>356</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>529</v>
+        <v>24</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>501</v>
+        <v>328</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>502</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>503</v>
+        <v>329</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>478</v>
+        <v>251</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>472</v>
+        <v>330</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>355</v>
+        <v>225</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>357</v>
+        <v>151</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>431</v>
+        <v>313</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="G29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="N29" t="s">
+        <v>317</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>406</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>277</v>
+        <v>130</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>411</v>
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>120</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>468</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>191</v>
+        <v>469</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>192</v>
+        <v>470</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>166</v>
+        <v>397</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" t="s">
-        <v>196</v>
+      <c r="N32" s="12" t="s">
+        <v>474</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>286</v>
+        <v>473</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>390</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>588</v>
+        <v>169</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>536</v>
+        <v>269</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>542</v>
+        <v>272</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" t="s">
-        <v>378</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>381</v>
+        <v>52</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
-        <v>552</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>553</v>
+        <v>345</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>554</v>
+        <v>346</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>478</v>
+        <v>251</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="K36" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="N36" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>556</v>
+        <v>350</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>346</v>
+        <v>450</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" t="s">
-        <v>349</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="K38" s="2" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>44396.994444444441</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N38" t="s">
-        <v>249</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>151</v>
+      <c r="N39" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>299</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>274</v>
+        <v>475</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>398</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>277</v>
+        <v>503</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>275</v>
+        <v>480</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>422</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>423</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>424</v>
+        <v>116</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>425</v>
+        <v>117</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>426</v>
+        <v>348</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>427</v>
+        <v>376</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>429</v>
+        <v>30</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
-        <v>530</v>
+        <v>286</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>531</v>
+        <v>287</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>532</v>
+        <v>288</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>478</v>
+        <v>251</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K42" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>537</v>
+      <c r="N42" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>539</v>
+        <v>407</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>226</v>
+        <v>408</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>398</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>517</v>
+        <v>409</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>518</v>
+        <v>84</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>44396.994444444441</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>460</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>461</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>50</v>
+        <v>463</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
-        <v>559</v>
+        <v>255</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>560</v>
+        <v>256</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>561</v>
+        <v>257</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>478</v>
+        <v>251</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>479</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>562</v>
+        <v>28</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>586</v>
+        <v>259</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>587</v>
+        <v>261</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>564</v>
+        <v>32</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>565</v>
+        <v>263</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>44409.992361111108</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>455</v>
+        <v>229</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
-        <v>364</v>
+        <v>208</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>365</v>
+        <v>209</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>366</v>
+        <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>367</v>
+        <v>211</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>369</v>
+        <v>384</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>540</v>
+        <v>212</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="P47" s="16" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2" t="s">
-        <v>490</v>
+        <v>214</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>44411.775694444441</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>491</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>492</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>478</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>118</v>
+        <v>17</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
+      <c r="J48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>543</v>
+        <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>544</v>
+        <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>545</v>
+        <v>168</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" t="s">
+        <v>136</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" t="s">
+        <v>171</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>337</v>
+      <c r="G50" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>342</v>
+        <v>413</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>284</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>44409.992361111108</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I53" t="s">
-        <v>172</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N53" t="s">
-        <v>175</v>
-      </c>
-      <c r="O53" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="P53" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N54" t="s">
-        <v>242</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
-        <v>44397.036111111112</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N55" t="s">
-        <v>61</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P55" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
-        <v>44411.775694444441</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N56" t="s">
-        <v>80</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" t="s">
-        <v>172</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" t="s">
-        <v>217</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" t="s">
-        <v>362</v>
-      </c>
-      <c r="O58" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
-        <v>44405.647916666669</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N59" t="s">
-        <v>95</v>
-      </c>
-      <c r="O59" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P52">
-    <sortCondition ref="C4:C52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P47">
+    <sortCondition ref="C4:C47"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="N40" r:id="rId1" xr:uid="{CBF3488F-0731-4784-B778-22BEDC9A87FD}"/>
-    <hyperlink ref="O6" r:id="rId2" xr:uid="{AA553A20-924A-4A7A-B3C1-6D6F29D53AB7}"/>
-    <hyperlink ref="O50" r:id="rId3" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
-    <hyperlink ref="O37" r:id="rId4" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
-    <hyperlink ref="N28" r:id="rId5" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
-    <hyperlink ref="O28" r:id="rId6" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
-    <hyperlink ref="O58" r:id="rId7" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
-    <hyperlink ref="O47" r:id="rId8" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
-    <hyperlink ref="O35" r:id="rId9" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
-    <hyperlink ref="O22" r:id="rId10" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
-    <hyperlink ref="O33" r:id="rId11" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
-    <hyperlink ref="O2" r:id="rId12" xr:uid="{9EFE127E-94E1-4D1A-B4FF-56A0D7F365F6}"/>
-    <hyperlink ref="O30" r:id="rId13" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
-    <hyperlink ref="O27" r:id="rId14" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
-    <hyperlink ref="O41" r:id="rId15" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
-    <hyperlink ref="N29" r:id="rId16" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
-    <hyperlink ref="O29" r:id="rId17" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
-    <hyperlink ref="N14" r:id="rId18" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
-    <hyperlink ref="O14" r:id="rId19" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
-    <hyperlink ref="O3" r:id="rId20" xr:uid="{496C672A-A2C0-964F-A09C-3F6E9E54D395}"/>
-    <hyperlink ref="O48" r:id="rId21" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
-    <hyperlink ref="O26" r:id="rId22" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
-    <hyperlink ref="N26" r:id="rId23" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
-    <hyperlink ref="O23" r:id="rId24" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
-    <hyperlink ref="N22" r:id="rId25" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
-    <hyperlink ref="O8" r:id="rId26" xr:uid="{1C6BEACD-95C4-1B42-8908-9AEE21DD5284}"/>
-    <hyperlink ref="N8" r:id="rId27" xr:uid="{DECFF68F-407D-A64C-AF9F-EA8F0545F147}"/>
-    <hyperlink ref="N42" r:id="rId28" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
-    <hyperlink ref="O42" r:id="rId29" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
-    <hyperlink ref="N49" r:id="rId30" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
-    <hyperlink ref="O49" r:id="rId31" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
-    <hyperlink ref="O36" r:id="rId32" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
-    <hyperlink ref="N36" r:id="rId33" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
-    <hyperlink ref="N45" r:id="rId34" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
-    <hyperlink ref="O45" r:id="rId35" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
-    <hyperlink ref="N19" r:id="rId36" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
-    <hyperlink ref="O19" r:id="rId37" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
-    <hyperlink ref="N7" r:id="rId38" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
-    <hyperlink ref="O7" r:id="rId39" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
+    <hyperlink ref="O5" r:id="rId1" xr:uid="{AA553A20-924A-4A7A-B3C1-6D6F29D53AB7}"/>
+    <hyperlink ref="O45" r:id="rId2" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
+    <hyperlink ref="O33" r:id="rId3" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
+    <hyperlink ref="N24" r:id="rId4" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
+    <hyperlink ref="O24" r:id="rId5" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
+    <hyperlink ref="O50" r:id="rId6" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
+    <hyperlink ref="O42" r:id="rId7" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
+    <hyperlink ref="O31" r:id="rId8" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
+    <hyperlink ref="O18" r:id="rId9" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
+    <hyperlink ref="O29" r:id="rId10" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
+    <hyperlink ref="O2" r:id="rId11" xr:uid="{9EFE127E-94E1-4D1A-B4FF-56A0D7F365F6}"/>
+    <hyperlink ref="O26" r:id="rId12" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
+    <hyperlink ref="O23" r:id="rId13" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
+    <hyperlink ref="O36" r:id="rId14" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
+    <hyperlink ref="N25" r:id="rId15" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
+    <hyperlink ref="O25" r:id="rId16" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
+    <hyperlink ref="N11" r:id="rId17" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
+    <hyperlink ref="O11" r:id="rId18" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
+    <hyperlink ref="O3" r:id="rId19" xr:uid="{496C672A-A2C0-964F-A09C-3F6E9E54D395}"/>
+    <hyperlink ref="O43" r:id="rId20" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
+    <hyperlink ref="N22" r:id="rId22" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
+    <hyperlink ref="O19" r:id="rId23" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
+    <hyperlink ref="N18" r:id="rId24" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
+    <hyperlink ref="O7" r:id="rId25" xr:uid="{1C6BEACD-95C4-1B42-8908-9AEE21DD5284}"/>
+    <hyperlink ref="N7" r:id="rId26" xr:uid="{DECFF68F-407D-A64C-AF9F-EA8F0545F147}"/>
+    <hyperlink ref="N37" r:id="rId27" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
+    <hyperlink ref="O37" r:id="rId28" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
+    <hyperlink ref="N44" r:id="rId29" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
+    <hyperlink ref="O44" r:id="rId30" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
+    <hyperlink ref="O32" r:id="rId31" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
+    <hyperlink ref="N32" r:id="rId32" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
+    <hyperlink ref="N40" r:id="rId33" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
+    <hyperlink ref="O40" r:id="rId34" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
+    <hyperlink ref="N16" r:id="rId35" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
+    <hyperlink ref="O16" r:id="rId36" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
+    <hyperlink ref="N6" r:id="rId37" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
+    <hyperlink ref="O6" r:id="rId38" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>
 </worksheet>
 </file>
--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5361FEB-A47D-4E42-8638-01C9B17B70D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CECA18-6433-E047-AFBE-C4519F546FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>foresthuang@ucidsp.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two three Michelin starred restaurants (technically 3 if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
@@ -787,9 +784,6 @@
     <t>juliana_lee</t>
   </si>
   <si>
-    <t>Psychology</t>
-  </si>
-  <si>
     <t>Marketing, UI/UX Design</t>
   </si>
   <si>
@@ -1280,6 +1274,12 @@
   </si>
   <si>
     <t>Software Engineering, Quant</t>
+  </si>
+  <si>
+    <t>Psychology, Digital Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two Michelin starred restaurants (technically 3 if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1718,10 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1794,113 +1794,113 @@
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>26</v>
@@ -1909,172 +1909,172 @@
         <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="P4" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>409</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O5" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>412</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -2089,86 +2089,86 @@
         <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
@@ -2181,58 +2181,58 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>20</v>
@@ -2241,25 +2241,25 @@
         <v>19</v>
       </c>
       <c r="N11" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>57</v>
@@ -2268,14 +2268,14 @@
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>20</v>
@@ -2287,28 +2287,28 @@
         <v>16</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -2321,40 +2321,40 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N13" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
@@ -2369,7 +2369,7 @@
         <v>35</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>20</v>
@@ -2381,13 +2381,13 @@
         <v>31</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
@@ -2413,93 +2413,93 @@
         <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>67</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>51</v>
@@ -2514,83 +2514,83 @@
         <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="N18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>59</v>
@@ -2599,83 +2599,83 @@
         <v>35</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
@@ -2687,28 +2687,28 @@
         <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="L21" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -2738,19 +2738,19 @@
         <v>35</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>61</v>
@@ -2761,104 +2761,104 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I23" t="s">
-        <v>106</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="P23" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="J24" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="L24" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="P24" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
@@ -2867,48 +2867,48 @@
         <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2917,94 +2917,94 @@
         <v>58</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="L26" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>28</v>
       </c>
       <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="P26" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>51</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>32</v>
@@ -3013,84 +3013,84 @@
         <v>52</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>57</v>
@@ -3109,7 +3109,7 @@
         <v>40</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>20</v>
@@ -3118,105 +3118,105 @@
         <v>21</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N31" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3225,44 +3225,44 @@
         <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="P33" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3291,13 +3291,13 @@
         <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>44</v>
@@ -3318,114 +3318,114 @@
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N35" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>216</v>
-      </c>
       <c r="L36" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>59</v>
@@ -3444,28 +3444,28 @@
         <v>21</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
@@ -3478,138 +3478,138 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N38" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="P38" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="L39" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="N40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="O40" s="12" t="s">
+      <c r="P40" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>51</v>
@@ -3618,22 +3618,22 @@
         <v>53</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>24</v>
       </c>
       <c r="N41" t="s">
+        <v>208</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="O41" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="P41" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CECA18-6433-E047-AFBE-C4519F546FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D04B44-EAEC-9541-824C-E3C4A997E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="515">
   <si>
     <t>Timestamp</t>
   </si>
@@ -100,6 +100,9 @@
     <t>3rd</t>
   </si>
   <si>
+    <t>ASUCI</t>
+  </si>
+  <si>
     <t>Computer Science</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>Business Information Management</t>
   </si>
   <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
     <t>Liang-Lin</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>Wang-Zhu</t>
   </si>
   <si>
+    <t>Temple City, CA</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -166,15 +175,99 @@
     <t>Hey everyone! My name is Alex Pham and I initiated my fall quarter of my first year. I’m really interested in Product Management as a career. Outside of school, I’ve been surfing, reading, and hiking a lot. Ask me about some of my favorite surf spots in SoCal or how I was able to model for Hydroflask this summer :)</t>
   </si>
   <si>
+    <t>Alpha Lambda</t>
+  </si>
+  <si>
     <t>Huntington Beach, CA</t>
   </si>
   <si>
+    <t>Chang-McGrath</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
+    <t>Ayala</t>
+  </si>
+  <si>
+    <t>david_ayala</t>
+  </si>
+  <si>
+    <t>Baldwin Park, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/davidayala1/</t>
+  </si>
+  <si>
+    <t>davidayala@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey what’s up! My name is David Ayala, and I initiated in the spring quarter of my first year. When I have the time I enjoy lifting weights, playing basketball, and cooking. I’m also a sneaker collector/re-seller, my favorite shoe is the Jordan 1 “Bred”. Ask me about working out, NBA basketball, sneakers, and anything else!</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Tanzil</t>
+  </si>
+  <si>
+    <t>dylan_tanzil</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dylantanzil/</t>
+  </si>
+  <si>
+    <t>dylantanzil@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
     <t>Wu</t>
   </si>
   <si>
+    <t>jenny_wu</t>
+  </si>
+  <si>
+    <t>Castro Valley, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jennyywuu/</t>
+  </si>
+  <si>
+    <t>jennywu@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi everyone!! My name is Jenny and I initiated the spring quarter of my first year with the Alpha Lambda class. I love getting food and drinks with my friends, driving around, and taking disposable pictures when I have the time. Feel free to ask me about anything, especially my hiking encounters and the story behind how I broke my wrist in the second grade!</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Devine</t>
+  </si>
+  <si>
+    <t>sean_devine</t>
+  </si>
+  <si>
+    <t>Koenigstein im Taunus, Germany</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/devine-sean/</t>
+  </si>
+  <si>
+    <t>seandevine@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hello! My name is Sean Devine and I initiated in the spring quarter of my first year here at UCI. In my free time, I enjoy any form of sport and competition. Currently, I am learning how to surf. Ask me about stocks, favorite books, and Formula 1 at recruitment!</t>
+  </si>
+  <si>
+    <t>Westminster, CA</t>
+  </si>
+  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -223,6 +316,9 @@
     <t>foresthuang@ucidsp.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two three Michelin starred restaurants (technically 3 if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
+  </si>
+  <si>
     <t>Julia</t>
   </si>
   <si>
@@ -268,6 +364,21 @@
     <t>Hi! My name is Jason Henkel and I initiated during the fall of my first year with the Alpha Mu class. Outside of school, I love playing sports, trying new things, and exploring new areas. Ask me about my NBA predictions or favorite movies at recruitment!</t>
   </si>
   <si>
+    <t>Winnie</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>winnie_qi</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>winnieqi@ucidsp.com</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/nathan-lee1/</t>
   </si>
   <si>
@@ -283,15 +394,36 @@
     <t>https://www.linkedin.com/in/jakesmoss/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/winnie-qi21/</t>
+  </si>
+  <si>
     <t>Andrew</t>
   </si>
   <si>
+    <t>Doan</t>
+  </si>
+  <si>
+    <t>andrew_doan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/andrew-g-doan/</t>
+  </si>
+  <si>
+    <t>andrewdoan@ucidsp.com</t>
+  </si>
+  <si>
     <t>Anthropology, Digital Information Systems</t>
   </si>
   <si>
     <t>Product Management, VC</t>
   </si>
   <si>
+    <t>Hi! My name is Dylan, and I initiated in the spring quarter of my first year. In my free time, I enjoy playing volleyball, basketball, and Valorant. Feel free to ask me about cars, options trading, and random stuff. Looking forward to seeing you :)</t>
+  </si>
+  <si>
+    <t>Product Design, Product Management</t>
+  </si>
+  <si>
     <t>Chen</t>
   </si>
   <si>
@@ -346,6 +478,30 @@
     <t>madelineli@ucidsp.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Jin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fukusumi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jin_fukusumi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyogo, Japan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSA Representative, Powerlifting @ UCI </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jinfukusumi/</t>
+  </si>
+  <si>
+    <t>jinfukusumi@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! My name is Jin and I initiated in the spring of my freshman year with the Alpha Nu class. In my free time, I enjoy lifting weights and listening to music. Ask me about my favorite movies/TV shows, my life in Japan, or anything else at recruitment! </t>
+  </si>
+  <si>
     <t>Adora</t>
   </si>
   <si>
@@ -388,9 +544,18 @@
     <t xml:space="preserve">Hi my name is Evelyn Wu and I initiated my second year with the Alpha Nu’s!! I was born and raised in Sacramento, CA. During my free time, I like to go to the beach, find new food places, create Spotify playlists, and play video games. Ask me about Valorant, boba, and TV shows/movies at Recruitment, can’t wait to meet you all!! :) </t>
   </si>
   <si>
+    <t>Hey there! My name is Andrew and I initiated in Fall 2021 with the Alpha Mus. Professionally, I'm super interested in all things product, especially design! Beyond that, I love dance, art, poetry, music festivals, traveling, and good company. Looking forward to meeting you at recruitment :)</t>
+  </si>
+  <si>
     <t>Hi! My name is Julia and I initiated in the fall of my freshman year with the Alpha Mu class. Some fun facts about me are that I’m a little bit of a shopaholic and that you might see me around campus giving tours since I’m a tour guide for UCI. Ask me about my favorite flavor of Red Bull or anything at recruitment :-)</t>
   </si>
   <si>
+    <t>Software Engineering, Finance</t>
+  </si>
+  <si>
+    <t>Association for Computing Machinery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loan Servicing Intern @ Sierra Pacific Mortgage </t>
   </si>
   <si>
@@ -415,6 +580,21 @@
     <t>Hello! My name is David, and I initiated fall quarter of my freshman year with the Alpha Xi class! In my free time, you will find me hooping at the arc, listening to music or exploring Socal. A fun fact about me is that I am fluent in Spanish. Ask me about my favorite music artists and foods at recruitment, I look forward to meeting you!</t>
   </si>
   <si>
+    <t>Yoyo</t>
+  </si>
+  <si>
+    <t>yangcao@ucidsp.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yangcaoyoyo/</t>
+  </si>
+  <si>
+    <t>yoyo_cao</t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
     <t>Jacob</t>
   </si>
   <si>
@@ -466,6 +646,27 @@
     <t>https://www.linkedin.com/in/safahfaraz/</t>
   </si>
   <si>
+    <t>Ai</t>
+  </si>
+  <si>
+    <t>Toyama</t>
+  </si>
+  <si>
+    <t>ai_toyama</t>
+  </si>
+  <si>
+    <t>Shanghai, China; Millbrae, CA</t>
+  </si>
+  <si>
+    <t>Tomo No Kai</t>
+  </si>
+  <si>
+    <t>aitoyama@ucidsp.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ai-toyama/</t>
+  </si>
+  <si>
     <t>Diana</t>
   </si>
   <si>
@@ -487,6 +688,12 @@
     <t>MAISS</t>
   </si>
   <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Commit the Change, Product Association</t>
+  </si>
+  <si>
     <t>Marketing, Product Management, Public Relations</t>
   </si>
   <si>
@@ -502,6 +709,9 @@
     <t xml:space="preserve">Finance/Business Operations Acquisition Intern @ NASA Jet Propulsion Laboratory </t>
   </si>
   <si>
+    <t>Intern @ Linda S. Congleton &amp; Associates</t>
+  </si>
+  <si>
     <t>Hi! My name is Jake and I initiated in the fall of my freshman year with the Alpha Mu class. In my free time I enjoy surfing, swimming, playing tennis and listening to music. Ask me about my favorite comedians, or anything at recruitment!</t>
   </si>
   <si>
@@ -514,6 +724,24 @@
     <t>Finance, Accounting</t>
   </si>
   <si>
+    <t xml:space="preserve">Philosophy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campus Leader @ Quokka Brew </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Marketing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing &amp; Analytics Intern @ Niagara Bottling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latino Business Student Association , Merage Financial Service - Student Assistant, Sigma Chi Fraternity, UCI Athletics </t>
+  </si>
+  <si>
+    <t>MUSA, Product Association</t>
+  </si>
+  <si>
     <t>Health Informatics</t>
   </si>
   <si>
@@ -784,6 +1012,9 @@
     <t>juliana_lee</t>
   </si>
   <si>
+    <t>Psychology</t>
+  </si>
+  <si>
     <t>Marketing, UI/UX Design</t>
   </si>
   <si>
@@ -907,12 +1138,24 @@
     <t xml:space="preserve">Hi I'm Abigail! I initiated in the spring of my sophomore year with the Alpha Omicron class. In my free time, I enjoy hiking, baking, doing yoga, singing, and thrifting! Ask me about my favorite traveling adventures or anything else during recruitment! </t>
   </si>
   <si>
+    <t>HR Shared Services Intern @ Proofpoint, Inc.</t>
+  </si>
+  <si>
     <t>Communications and Advocacy Intern @ Labor Council for Latin American Advancement</t>
   </si>
   <si>
     <t>Sigma Pi Alpha, CHC</t>
   </si>
   <si>
+    <t>Product Design Intern @ Anduril</t>
+  </si>
+  <si>
+    <t>Finance Development Program (FDP) Intern @ Apple</t>
+  </si>
+  <si>
+    <t>Hi! My name is Winnie, and I initiated fall quarter of my second year with the Alpha Mu class. I love playing basketball, trying new foods, hammocking in Aldrich, thrifting, and going to concerts! Ask me about my favorite artists or anything at recruitment! Excited to meet you :))</t>
+  </si>
+  <si>
     <t>Finance Leadership Development Program @ Thermo Fisher Scientific, Student Assistant for MBA Recruitment and Administration @ The Paul Merage School of Business</t>
   </si>
   <si>
@@ -925,9 +1168,18 @@
     <t>Product Association, MUSA, FEMBA Paul Merage, Sigma Chi</t>
   </si>
   <si>
+    <t>Full Stack Software Engineering Intern @ Cubic Transportation Systems</t>
+  </si>
+  <si>
     <t>Intern @ The Reserve Investments</t>
   </si>
   <si>
+    <t>Entrepreneurship, Management, Recruiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! My name is Ai and I initiated last fall with the Alpha Xi class. I’m currently training to become a certified barista at Stereoscope! Ask me about my favorite cafes and hobbies at recruitment :) </t>
+  </si>
+  <si>
     <t>Consulting, Product Management</t>
   </si>
   <si>
@@ -1039,6 +1291,18 @@
     <t>https://www.linkedin.com/in/james-kent2004/</t>
   </si>
   <si>
+    <t>Investment Banking, Consulting</t>
+  </si>
+  <si>
+    <t>Vice President of Finance @ Delta Sigma Pi</t>
+  </si>
+  <si>
+    <t>UFA, SoF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey, I'm Yoyo from the Alpha Xi class. I'm a second-year Business Administration major, interested in IB, Consulting, and Wealth Management. During my free time, I like to work out, play golf, and read. If you don't know where to find me, I'm probably sitting at a random cafe with a book. Ask me about my boarding school life and my favorite morning routines at recruitment! </t>
+  </si>
+  <si>
     <t>Devon</t>
   </si>
   <si>
@@ -1276,10 +1540,31 @@
     <t>Software Engineering, Quant</t>
   </si>
   <si>
-    <t>Psychology, Digital Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two Michelin starred restaurants (technically 3 if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
+    <t>Maryam</t>
+  </si>
+  <si>
+    <t>Mussa</t>
+  </si>
+  <si>
+    <t>maryam_mussa</t>
+  </si>
+  <si>
+    <t>Cypress, CA</t>
+  </si>
+  <si>
+    <t>Product Management, Marketing</t>
+  </si>
+  <si>
+    <t>Consumer Insights Intern @ NBCUniversal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/maryammussa/</t>
+  </si>
+  <si>
+    <t>maryammussa@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi everyone! My name is Maryam and I initiated in Fall of ‘22 with the Alpha Xi class. I love reading, anything film/tv, fashion, gloomy weather, and traveling! A fun fact about me is I used to have bright pink hair. Ask me for book recommendations or about the concerts I’ve been to at recruitment :)</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1396,6 +1681,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1715,13 +2001,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1752,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1785,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -1794,1902 +2080,2380 @@
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>296</v>
+        <v>373</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>318</v>
+        <v>401</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
-        <v>172</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>44404.515972222223</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>27</v>
+        <v>82</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>416</v>
+        <v>237</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>294</v>
+        <v>38</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
-        <v>405</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>406</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>407</v>
+        <v>250</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>408</v>
+        <v>252</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>504</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>411</v>
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>253</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>412</v>
+        <v>254</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>349</v>
+        <v>494</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>350</v>
+        <v>495</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>176</v>
+        <v>496</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>351</v>
+        <v>497</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>354</v>
+        <v>499</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>498</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>437</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>438</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>397</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>110</v>
+        <v>398</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>169</v>
+        <v>18</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>99</v>
+      <c r="N8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>33</v>
+      <c r="G9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="M9" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>402</v>
+      <c r="N11" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>44404.652777777781</v>
+      </c>
       <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>331</v>
+        <v>176</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>44397.381944444445</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>233</v>
+      <c r="N13" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>235</v>
+        <v>129</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="13" t="s">
+        <v>487</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>355</v>
+        <v>491</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>308</v>
+        <v>492</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>152</v>
+      <c r="N16" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>489</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>334</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>335</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>16</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>336</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>198</v>
+        <v>427</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>428</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>175</v>
+        <v>397</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>306</v>
+        <v>37</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>201</v>
+        <v>20</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>279</v>
+      <c r="I20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>280</v>
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>175</v>
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>181</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P21" s="15" t="s">
+      <c r="D22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" t="s">
-        <v>106</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" t="s">
-        <v>241</v>
+      <c r="L24" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>370</v>
+        <v>278</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>353</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>159</v>
+      <c r="J25" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" t="s">
-        <v>224</v>
+      <c r="M26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>384</v>
+        <v>29</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>52</v>
+        <v>326</v>
+      </c>
+      <c r="I28" t="s">
+        <v>149</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>197</v>
+        <v>151</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>165</v>
+        <v>314</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>167</v>
+        <v>316</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>452</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>138</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="J30" s="2" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L31" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>275</v>
+      <c r="P31" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>358</v>
+        <v>468</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>359</v>
+        <v>469</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>360</v>
+        <v>470</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="K32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="15" t="s">
-        <v>263</v>
+      <c r="L32" s="16" t="s">
+        <v>391</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>363</v>
+        <v>474</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="J33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
         <v>271</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>130</v>
+      <c r="O33" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>44396.994444444441</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
+        <v>196</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>414</v>
+        <v>511</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>415</v>
+        <v>221</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>393</v>
+        <v>512</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>215</v>
+        <v>43</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>314</v>
+        <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>20</v>
+        <v>348</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="4" t="s">
-        <v>327</v>
+      <c r="N37" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>373</v>
+        <v>448</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>449</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>375</v>
+        <v>450</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>376</v>
+        <v>453</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="O39" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>44396.994444444441</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L40" s="11" t="s">
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="P42" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>44409.992361111108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>44411.775694444441</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M50" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N40" t="s">
-        <v>119</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="N50" t="s">
+        <v>171</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="M41" s="11" t="s">
+      <c r="G51" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N41" t="s">
-        <v>208</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="N51" t="s">
+        <v>284</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P39">
-    <sortCondition ref="C4:C39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P48">
+    <sortCondition ref="C4:C48"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" xr:uid="{AA553A20-924A-4A7A-B3C1-6D6F29D53AB7}"/>
-    <hyperlink ref="O39" r:id="rId2" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
-    <hyperlink ref="O28" r:id="rId3" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
-    <hyperlink ref="N19" r:id="rId4" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
-    <hyperlink ref="O19" r:id="rId5" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
-    <hyperlink ref="O41" r:id="rId6" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
-    <hyperlink ref="O36" r:id="rId7" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
-    <hyperlink ref="O26" r:id="rId8" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
-    <hyperlink ref="O13" r:id="rId9" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
-    <hyperlink ref="O24" r:id="rId10" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
+    <hyperlink ref="O5" r:id="rId1" xr:uid="{AA553A20-924A-4A7A-B3C1-6D6F29D53AB7}"/>
+    <hyperlink ref="O46" r:id="rId2" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
+    <hyperlink ref="O33" r:id="rId3" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
+    <hyperlink ref="N24" r:id="rId4" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
+    <hyperlink ref="O24" r:id="rId5" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
+    <hyperlink ref="O51" r:id="rId6" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
+    <hyperlink ref="O43" r:id="rId7" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
+    <hyperlink ref="O31" r:id="rId8" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
+    <hyperlink ref="O18" r:id="rId9" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
+    <hyperlink ref="O29" r:id="rId10" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
     <hyperlink ref="O2" r:id="rId11" xr:uid="{9EFE127E-94E1-4D1A-B4FF-56A0D7F365F6}"/>
-    <hyperlink ref="O21" r:id="rId12" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
-    <hyperlink ref="O18" r:id="rId13" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
-    <hyperlink ref="O31" r:id="rId14" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
-    <hyperlink ref="N20" r:id="rId15" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
-    <hyperlink ref="O20" r:id="rId16" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
-    <hyperlink ref="N9" r:id="rId17" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
-    <hyperlink ref="O9" r:id="rId18" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
+    <hyperlink ref="O26" r:id="rId12" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
+    <hyperlink ref="O23" r:id="rId13" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
+    <hyperlink ref="O37" r:id="rId14" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
+    <hyperlink ref="N25" r:id="rId15" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
+    <hyperlink ref="O25" r:id="rId16" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
+    <hyperlink ref="N11" r:id="rId17" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
+    <hyperlink ref="O11" r:id="rId18" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
     <hyperlink ref="O3" r:id="rId19" xr:uid="{496C672A-A2C0-964F-A09C-3F6E9E54D395}"/>
-    <hyperlink ref="O37" r:id="rId20" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
-    <hyperlink ref="O17" r:id="rId21" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
-    <hyperlink ref="N17" r:id="rId22" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
-    <hyperlink ref="O14" r:id="rId23" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
-    <hyperlink ref="N13" r:id="rId24" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
-    <hyperlink ref="O6" r:id="rId25" xr:uid="{1C6BEACD-95C4-1B42-8908-9AEE21DD5284}"/>
-    <hyperlink ref="N6" r:id="rId26" xr:uid="{DECFF68F-407D-A64C-AF9F-EA8F0545F147}"/>
-    <hyperlink ref="N32" r:id="rId27" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
-    <hyperlink ref="O32" r:id="rId28" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
-    <hyperlink ref="N38" r:id="rId29" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
-    <hyperlink ref="O38" r:id="rId30" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
-    <hyperlink ref="O27" r:id="rId31" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
-    <hyperlink ref="N27" r:id="rId32" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
-    <hyperlink ref="N35" r:id="rId33" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
-    <hyperlink ref="O35" r:id="rId34" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
-    <hyperlink ref="N11" r:id="rId35" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
-    <hyperlink ref="O11" r:id="rId36" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
-    <hyperlink ref="N5" r:id="rId37" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
-    <hyperlink ref="O5" r:id="rId38" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
+    <hyperlink ref="O44" r:id="rId20" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
+    <hyperlink ref="N22" r:id="rId22" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
+    <hyperlink ref="O19" r:id="rId23" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
+    <hyperlink ref="N18" r:id="rId24" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
+    <hyperlink ref="O7" r:id="rId25" xr:uid="{1C6BEACD-95C4-1B42-8908-9AEE21DD5284}"/>
+    <hyperlink ref="N7" r:id="rId26" xr:uid="{DECFF68F-407D-A64C-AF9F-EA8F0545F147}"/>
+    <hyperlink ref="N38" r:id="rId27" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
+    <hyperlink ref="O38" r:id="rId28" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
+    <hyperlink ref="N45" r:id="rId29" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
+    <hyperlink ref="O45" r:id="rId30" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
+    <hyperlink ref="O32" r:id="rId31" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
+    <hyperlink ref="N32" r:id="rId32" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
+    <hyperlink ref="N41" r:id="rId33" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
+    <hyperlink ref="O41" r:id="rId34" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
+    <hyperlink ref="N16" r:id="rId35" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
+    <hyperlink ref="O16" r:id="rId36" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
+    <hyperlink ref="N6" r:id="rId37" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
+    <hyperlink ref="O6" r:id="rId38" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
+    <hyperlink ref="N35" r:id="rId39" xr:uid="{4C946E4F-4EF2-8641-BEEC-E3AA62284DC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
 </worksheet>
 </file>
--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D04B44-EAEC-9541-824C-E3C4A997E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F8E62E-0C17-864C-971B-6E9D87F0CF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="507">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1330,27 +1330,6 @@
     <t>MBA Program, Antreprenuer Center, FBLA, SBA, MUSA</t>
   </si>
   <si>
-    <t>Shashank</t>
-  </si>
-  <si>
-    <t>Bypan</t>
-  </si>
-  <si>
-    <t>shashank_bypan</t>
-  </si>
-  <si>
-    <t>Consulting, Marketing</t>
-  </si>
-  <si>
-    <t>Hello! My name is Shashank and I initiated with the Alpha Pi Class. In my free time, I enjoy producing music, lifting, and traveling. Ask me about my time at the USATF Junior Olympics during recruitment!</t>
-  </si>
-  <si>
-    <t>shashankbypan@ucidsp.com</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shashankbypan/</t>
-  </si>
-  <si>
     <t>Data Analytics, Information Systems, Digital Marketing</t>
   </si>
   <si>
@@ -1523,9 +1502,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hey my name is Kai and I initiated during the fall quarter of my first year with the Alpha Pis. During my free time, I enjoy spending time with friends, hitting the gym, or doing homework. Ask me about why Del Taco is better than Taco Bell at recruitment! </t>
-  </si>
-  <si>
-    <t>180 Degrees Consulting</t>
   </si>
   <si>
     <t>Machine Learning Researcher @ Bioverse Labs</t>
@@ -2001,13 +1977,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2245,7 +2221,7 @@
         <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>394</v>
@@ -2265,13 +2241,13 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>397</v>
@@ -2280,13 +2256,13 @@
         <v>398</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>194</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
@@ -2298,113 +2274,117 @@
         <v>19</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
-        <v>436</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>437</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>438</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>252</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>439</v>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>440</v>
+        <v>19</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>424</v>
+        <v>246</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>426</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>135</v>
@@ -2413,429 +2393,427 @@
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>44404.652777777781</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>44397.381944444445</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>207</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>44404.652777777781</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
-        <v>44397.381944444445</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>207</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>206</v>
+        <v>19</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>476</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>477</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>478</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>397</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>155</v>
+        <v>479</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>234</v>
+        <v>480</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>158</v>
+      <c r="N15" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>483</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>484</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>485</v>
+        <v>110</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>397</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>486</v>
+        <v>111</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>487</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>491</v>
+        <v>415</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>492</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>489</v>
+        <v>16</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>490</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>305</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>306</v>
+        <v>428</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -2846,225 +2824,223 @@
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>307</v>
+        <v>429</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>309</v>
+        <v>32</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>432</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>427</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>428</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>397</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>20</v>
+        <v>386</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>431</v>
+      <c r="N19" t="s">
+        <v>121</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>416</v>
+        <v>436</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" t="s">
-        <v>121</v>
+        <v>19</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>215</v>
+        <v>417</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>216</v>
+        <v>418</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" t="s">
-        <v>181</v>
+        <v>419</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>219</v>
+        <v>421</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>391</v>
+        <v>339</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>337</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>251</v>
@@ -3073,1387 +3049,1341 @@
         <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="K24" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>278</v>
+        <v>356</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>356</v>
+        <v>331</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>359</v>
+        <v>30</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>221</v>
+        <v>37</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>92</v>
+      <c r="N27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>147</v>
+        <v>313</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I28" t="s">
-        <v>149</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>224</v>
+        <v>314</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>497</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>225</v>
+        <v>316</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>445</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>226</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>505</v>
+        <v>102</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>452</v>
+        <v>228</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>458</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="M30" s="16" t="s">
         <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>175</v>
+        <v>301</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>294</v>
+        <v>461</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>295</v>
+        <v>462</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>298</v>
+        <v>464</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" t="s">
-        <v>300</v>
+        <v>391</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>301</v>
+        <v>466</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>303</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>468</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>469</v>
+        <v>266</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>470</v>
+        <v>267</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>391</v>
+        <v>169</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>474</v>
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>473</v>
+        <v>272</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>472</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>273</v>
+        <v>197</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>193</v>
+        <v>499</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>202</v>
+        <v>501</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>327</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>241</v>
+        <v>502</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>242</v>
+        <v>503</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" t="s">
-        <v>196</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>21</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>198</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
-        <v>506</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>507</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>508</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>509</v>
+        <v>52</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>510</v>
+        <v>43</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>511</v>
+        <v>244</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>513</v>
+      <c r="N35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>514</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>345</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>346</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>107</v>
+      <c r="N36" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>346</v>
+        <v>441</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>347</v>
+        <v>442</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>348</v>
+        <v>443</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>446</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>448</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>340</v>
+        <v>434</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>454</v>
+      <c r="N38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>451</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>44396.994444444441</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>433</v>
+        <v>31</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J39" s="2" t="s">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>435</v>
+        <v>47</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>183</v>
+      <c r="N39" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>44396.994444444441</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>468</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>470</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>131</v>
+        <v>472</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>47</v>
+        <v>495</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>474</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>475</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>476</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>477</v>
+        <v>116</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>397</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>478</v>
+        <v>18</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>479</v>
+        <v>348</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>503</v>
+        <v>239</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>481</v>
+        <v>30</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>482</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>376</v>
+        <v>290</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>239</v>
+        <v>449</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>377</v>
+        <v>293</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>398</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>293</v>
+        <v>411</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>397</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>398</v>
+        <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>409</v>
+        <v>31</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>411</v>
+        <v>19</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="P44" s="16" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
-        <v>459</v>
+        <v>255</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>460</v>
+        <v>256</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>461</v>
+        <v>257</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>462</v>
+        <v>259</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>467</v>
+        <v>260</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>463</v>
+        <v>261</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>464</v>
+        <v>32</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="P45" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>44409.992361111108</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>260</v>
+        <v>84</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>263</v>
+        <v>64</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>44409.992361111108</v>
-      </c>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2" t="s">
-        <v>208</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>44411.775694444441</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>82</v>
+      <c r="G48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>213</v>
+      <c r="J48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
-        <v>44411.775694444441</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="I49" t="s">
+        <v>136</v>
+      </c>
       <c r="J49" s="11" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>26</v>
+        <v>178</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>70</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>71</v>
+        <v>171</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>178</v>
+        <v>82</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N50" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J51" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K51" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" t="s">
-        <v>284</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="P51" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+    <row r="51" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P48">
-    <sortCondition ref="C4:C48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P47">
+    <sortCondition ref="C4:C47"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="O5" r:id="rId1" xr:uid="{AA553A20-924A-4A7A-B3C1-6D6F29D53AB7}"/>
-    <hyperlink ref="O46" r:id="rId2" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
-    <hyperlink ref="O33" r:id="rId3" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
-    <hyperlink ref="N24" r:id="rId4" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
-    <hyperlink ref="O24" r:id="rId5" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
-    <hyperlink ref="O51" r:id="rId6" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
-    <hyperlink ref="O43" r:id="rId7" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
-    <hyperlink ref="O31" r:id="rId8" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
-    <hyperlink ref="O18" r:id="rId9" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
-    <hyperlink ref="O29" r:id="rId10" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
+    <hyperlink ref="O45" r:id="rId2" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
+    <hyperlink ref="O32" r:id="rId3" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
+    <hyperlink ref="N23" r:id="rId4" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
+    <hyperlink ref="O23" r:id="rId5" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
+    <hyperlink ref="O50" r:id="rId6" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
+    <hyperlink ref="O42" r:id="rId7" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
+    <hyperlink ref="O30" r:id="rId8" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
+    <hyperlink ref="O17" r:id="rId9" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
+    <hyperlink ref="O28" r:id="rId10" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
     <hyperlink ref="O2" r:id="rId11" xr:uid="{9EFE127E-94E1-4D1A-B4FF-56A0D7F365F6}"/>
-    <hyperlink ref="O26" r:id="rId12" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
-    <hyperlink ref="O23" r:id="rId13" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
-    <hyperlink ref="O37" r:id="rId14" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
-    <hyperlink ref="N25" r:id="rId15" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
-    <hyperlink ref="O25" r:id="rId16" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
-    <hyperlink ref="N11" r:id="rId17" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
-    <hyperlink ref="O11" r:id="rId18" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
+    <hyperlink ref="O25" r:id="rId12" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
+    <hyperlink ref="O22" r:id="rId13" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
+    <hyperlink ref="O36" r:id="rId14" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
+    <hyperlink ref="N24" r:id="rId15" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
+    <hyperlink ref="O24" r:id="rId16" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
+    <hyperlink ref="N10" r:id="rId17" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
+    <hyperlink ref="O10" r:id="rId18" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
     <hyperlink ref="O3" r:id="rId19" xr:uid="{496C672A-A2C0-964F-A09C-3F6E9E54D395}"/>
-    <hyperlink ref="O44" r:id="rId20" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
-    <hyperlink ref="O22" r:id="rId21" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
-    <hyperlink ref="N22" r:id="rId22" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
-    <hyperlink ref="O19" r:id="rId23" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
-    <hyperlink ref="N18" r:id="rId24" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
-    <hyperlink ref="O7" r:id="rId25" xr:uid="{1C6BEACD-95C4-1B42-8908-9AEE21DD5284}"/>
-    <hyperlink ref="N7" r:id="rId26" xr:uid="{DECFF68F-407D-A64C-AF9F-EA8F0545F147}"/>
-    <hyperlink ref="N38" r:id="rId27" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
-    <hyperlink ref="O38" r:id="rId28" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
-    <hyperlink ref="N45" r:id="rId29" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
-    <hyperlink ref="O45" r:id="rId30" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
-    <hyperlink ref="O32" r:id="rId31" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
-    <hyperlink ref="N32" r:id="rId32" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
-    <hyperlink ref="N41" r:id="rId33" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
-    <hyperlink ref="O41" r:id="rId34" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
-    <hyperlink ref="N16" r:id="rId35" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
-    <hyperlink ref="O16" r:id="rId36" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
-    <hyperlink ref="N6" r:id="rId37" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
-    <hyperlink ref="O6" r:id="rId38" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
-    <hyperlink ref="N35" r:id="rId39" xr:uid="{4C946E4F-4EF2-8641-BEEC-E3AA62284DC3}"/>
+    <hyperlink ref="O43" r:id="rId20" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
+    <hyperlink ref="O21" r:id="rId21" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
+    <hyperlink ref="N21" r:id="rId22" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
+    <hyperlink ref="O18" r:id="rId23" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
+    <hyperlink ref="N17" r:id="rId24" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
+    <hyperlink ref="N37" r:id="rId25" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
+    <hyperlink ref="O37" r:id="rId26" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
+    <hyperlink ref="N44" r:id="rId27" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
+    <hyperlink ref="O44" r:id="rId28" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
+    <hyperlink ref="O31" r:id="rId29" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
+    <hyperlink ref="N31" r:id="rId30" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
+    <hyperlink ref="N40" r:id="rId31" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
+    <hyperlink ref="O40" r:id="rId32" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
+    <hyperlink ref="N15" r:id="rId33" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
+    <hyperlink ref="O15" r:id="rId34" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
+    <hyperlink ref="N6" r:id="rId35" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
+    <hyperlink ref="O6" r:id="rId36" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
+    <hyperlink ref="N34" r:id="rId37" xr:uid="{4C946E4F-4EF2-8641-BEEC-E3AA62284DC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId38"/>
 </worksheet>
 </file>
--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicalin/dsp_vs_code/dspuci-website-gatsby/src/data/current_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F8E62E-0C17-864C-971B-6E9D87F0CF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591574ED-3C48-D644-85B9-B1F57C7457B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="740" windowWidth="26160" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="740" windowWidth="26140" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="524">
   <si>
     <t>Timestamp</t>
   </si>
@@ -316,9 +316,6 @@
     <t>foresthuang@ucidsp.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two three Michelin starred restaurants (technically 3 if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
@@ -1012,9 +1009,6 @@
     <t>juliana_lee</t>
   </si>
   <si>
-    <t>Psychology</t>
-  </si>
-  <si>
     <t>Marketing, UI/UX Design</t>
   </si>
   <si>
@@ -1541,6 +1535,63 @@
   </si>
   <si>
     <t>Hi everyone! My name is Maryam and I initiated in Fall of ‘22 with the Alpha Xi class. I love reading, anything film/tv, fashion, gloomy weather, and traveling! A fun fact about me is I used to have bright pink hair. Ask me for book recommendations or about the concerts I’ve been to at recruitment :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two Michelin starred restaurants (technically three if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
+  </si>
+  <si>
+    <t>Psychology, Digital Arts</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>kevin_cao</t>
+  </si>
+  <si>
+    <t>San Gabriel, CA</t>
+  </si>
+  <si>
+    <t>Vice President of Technology @ MUSA</t>
+  </si>
+  <si>
+    <t>ASUCI, MUSA, SCNO</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kevinkwcao/</t>
+  </si>
+  <si>
+    <t>kevincao@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Kevin and I initiated fall quarter of my first year! I enjoy grabbing food with friends and love to try out new boba places. Ask me about food, esports, basketball, or anything else!</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>jacob_won</t>
+  </si>
+  <si>
+    <t>Fullerton, CA</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Consulting</t>
+  </si>
+  <si>
+    <t>STEM Learning Labs Intern @ Alpha Omega Group</t>
+  </si>
+  <si>
+    <t>BCEC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jacobwon/</t>
+  </si>
+  <si>
+    <t>jacobwon@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Jacob and I initiated in the Fall of 2022 with the Alpha Xi class. In my free time I love to workout, go snowboarding, and play sports. A fun fact about me is that I like acting. Ask me about my favorite movies or tv shows at recruitment! I’m looking forward to meeting you all.</t>
   </si>
 </sst>
 </file>
@@ -1977,13 +2028,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2056,93 +2107,93 @@
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>400</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>402</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.15">
@@ -2174,13 +2225,13 @@
         <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>38</v>
@@ -2197,22 +2248,22 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
@@ -2221,599 +2272,601 @@
         <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>254</v>
-      </c>
       <c r="P5" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>488</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>490</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O6" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="P6" s="16" t="s">
-        <v>493</v>
-      </c>
     </row>
     <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>44404.857638888891</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>189</v>
+        <v>508</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>190</v>
+        <v>509</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>423</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>24</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>426</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>360</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>362</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="K11" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="O11" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="14" t="s">
+      <c r="P11" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="O10" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    </row>
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>44404.652777777781</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
         <v>44397.381944444445</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="P13" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>207</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>476</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>477</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>478</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>397</v>
+        <v>134</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>479</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>480</v>
+        <v>233</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>484</v>
+        <v>306</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>485</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>482</v>
+      <c r="N15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>474</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
+        <v>475</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="13" t="s">
+        <v>478</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>112</v>
+        <v>19</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>480</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>113</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>311</v>
+        <v>16</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>427</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -2824,1564 +2877,1655 @@
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>431</v>
+        <v>30</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>309</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>425</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>426</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>416</v>
+        <v>427</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N19" t="s">
-        <v>121</v>
+      <c r="N19" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" t="s">
-        <v>181</v>
+        <v>95</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="J20" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>437</v>
+        <v>384</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>417</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>418</v>
+        <v>215</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>397</v>
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>180</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>43</v>
+        <v>434</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>421</v>
+        <v>218</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>23</v>
+      <c r="L23" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="K24" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>359</v>
+        <v>389</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>330</v>
+        <v>14</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>221</v>
+        <v>353</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>24</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J27" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O26" s="5" t="s">
+      <c r="N27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I27" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" t="s">
-        <v>150</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>497</v>
+        <v>147</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>445</v>
+        <v>20</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>451</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>231</v>
+        <v>313</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>232</v>
+        <v>315</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>175</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="M30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>303</v>
+        <v>102</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>461</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>462</v>
+        <v>294</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>463</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>283</v>
+        <v>89</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>464</v>
+        <v>297</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>467</v>
+        <v>301</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>466</v>
+        <v>300</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>465</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>265</v>
+        <v>459</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>266</v>
+        <v>460</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" t="s">
-        <v>271</v>
+        <v>21</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>273</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N34" t="s">
+        <v>195</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="P34" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>244</v>
+        <v>501</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>107</v>
+      <c r="N35" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>230</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>347</v>
+        <v>52</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>349</v>
+        <v>243</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>351</v>
+      <c r="N36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>352</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>439</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>437</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>181</v>
+        <v>395</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>348</v>
+        <v>441</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>435</v>
+        <v>20</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>184</v>
+      <c r="N38" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>185</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>44396.994444444441</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>44396.994444444441</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>114</v>
+        <v>466</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>115</v>
+        <v>467</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>116</v>
+        <v>468</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>117</v>
+        <v>251</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>469</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>348</v>
+        <v>470</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>376</v>
+        <v>492</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>239</v>
+        <v>493</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>118</v>
+        <v>24</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>472</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
-        <v>286</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>287</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>288</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>291</v>
+        <v>346</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>449</v>
+        <v>238</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>450</v>
+        <v>123</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>408</v>
+        <v>287</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>398</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>409</v>
+        <v>288</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>396</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>407</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>455</v>
+        <v>84</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>457</v>
+        <v>21</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="P44" s="16" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>256</v>
+        <v>451</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>259</v>
+        <v>453</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>260</v>
+        <v>458</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>261</v>
+        <v>454</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>264</v>
+        <v>19</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>44409.992361111108</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>229</v>
+        <v>258</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>44409.992361111108</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
-        <v>44411.775694444441</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>66</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>18</v>
+      <c r="G48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N48" t="s">
-        <v>70</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>71</v>
+      <c r="J48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>515</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" t="s">
+        <v>521</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>44411.775694444441</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N50" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L51" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" t="s">
-        <v>136</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="L49" s="11" t="s">
+      <c r="M51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" t="s">
         <v>170</v>
       </c>
-      <c r="M49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="O51" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="P51" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="H52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
         <v>283</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="O52" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="O50" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="P52" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P47">
-    <sortCondition ref="C4:C47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P48">
+    <sortCondition ref="C4:C48"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="O5" r:id="rId1" xr:uid="{AA553A20-924A-4A7A-B3C1-6D6F29D53AB7}"/>
-    <hyperlink ref="O45" r:id="rId2" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
-    <hyperlink ref="O32" r:id="rId3" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
-    <hyperlink ref="N23" r:id="rId4" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
-    <hyperlink ref="O23" r:id="rId5" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
-    <hyperlink ref="O50" r:id="rId6" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
-    <hyperlink ref="O42" r:id="rId7" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
-    <hyperlink ref="O30" r:id="rId8" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
-    <hyperlink ref="O17" r:id="rId9" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
-    <hyperlink ref="O28" r:id="rId10" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
+    <hyperlink ref="O46" r:id="rId2" xr:uid="{9F78E4A3-9753-40AC-9C13-EFA682AF983E}"/>
+    <hyperlink ref="O33" r:id="rId3" xr:uid="{C0B53B11-AD93-46B5-9A27-594CC3A5271C}"/>
+    <hyperlink ref="N24" r:id="rId4" xr:uid="{19C35423-B41E-431E-A7D2-61DD10A2F89A}"/>
+    <hyperlink ref="O24" r:id="rId5" xr:uid="{FE29F50A-8A83-4CCD-A9E1-9EC92A26530E}"/>
+    <hyperlink ref="O52" r:id="rId6" xr:uid="{365E22B1-13F2-4C32-B64B-BC5B771A124E}"/>
+    <hyperlink ref="O43" r:id="rId7" xr:uid="{EE808F38-5A70-43A7-B847-4DFEFF8C2345}"/>
+    <hyperlink ref="O31" r:id="rId8" xr:uid="{C7957FDB-9E17-4A60-BBEB-6ACA89C74CF0}"/>
+    <hyperlink ref="O18" r:id="rId9" xr:uid="{F34024D8-C79C-4E14-91EB-C1D38E6B185F}"/>
+    <hyperlink ref="O29" r:id="rId10" xr:uid="{A8E15ABD-7D2B-4B1E-90AD-87A935FE52C9}"/>
     <hyperlink ref="O2" r:id="rId11" xr:uid="{9EFE127E-94E1-4D1A-B4FF-56A0D7F365F6}"/>
-    <hyperlink ref="O25" r:id="rId12" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
-    <hyperlink ref="O22" r:id="rId13" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
-    <hyperlink ref="O36" r:id="rId14" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
-    <hyperlink ref="N24" r:id="rId15" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
-    <hyperlink ref="O24" r:id="rId16" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
-    <hyperlink ref="N10" r:id="rId17" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
-    <hyperlink ref="O10" r:id="rId18" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
+    <hyperlink ref="O26" r:id="rId12" xr:uid="{694135F8-96D1-41DA-A6C7-782217CF8081}"/>
+    <hyperlink ref="O23" r:id="rId13" xr:uid="{4AFEC0A6-99D6-4CB4-AA7F-2747B52DE82F}"/>
+    <hyperlink ref="O37" r:id="rId14" xr:uid="{1CF56EA4-06F0-461F-9648-39BB0DCA36A3}"/>
+    <hyperlink ref="N25" r:id="rId15" xr:uid="{59E4A675-78BA-4241-9770-4D060595A68E}"/>
+    <hyperlink ref="O25" r:id="rId16" xr:uid="{3A71C51C-0184-4AC7-AFF4-DD100418FA0C}"/>
+    <hyperlink ref="N11" r:id="rId17" xr:uid="{DFD50037-4AF8-4266-B9E8-32F987D61850}"/>
+    <hyperlink ref="O11" r:id="rId18" xr:uid="{5DDFB26C-A00E-4DCD-860F-446A67100756}"/>
     <hyperlink ref="O3" r:id="rId19" xr:uid="{496C672A-A2C0-964F-A09C-3F6E9E54D395}"/>
-    <hyperlink ref="O43" r:id="rId20" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
-    <hyperlink ref="O21" r:id="rId21" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
-    <hyperlink ref="N21" r:id="rId22" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
-    <hyperlink ref="O18" r:id="rId23" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
-    <hyperlink ref="N17" r:id="rId24" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
-    <hyperlink ref="N37" r:id="rId25" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
-    <hyperlink ref="O37" r:id="rId26" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
-    <hyperlink ref="N44" r:id="rId27" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
-    <hyperlink ref="O44" r:id="rId28" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
-    <hyperlink ref="O31" r:id="rId29" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
-    <hyperlink ref="N31" r:id="rId30" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
-    <hyperlink ref="N40" r:id="rId31" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
-    <hyperlink ref="O40" r:id="rId32" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
-    <hyperlink ref="N15" r:id="rId33" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
-    <hyperlink ref="O15" r:id="rId34" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
+    <hyperlink ref="O44" r:id="rId20" xr:uid="{391E2F16-7BE2-BF45-966E-4AA8C82A3A8C}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{8B4CD950-5E03-BA4C-A31A-6D81180F5668}"/>
+    <hyperlink ref="N22" r:id="rId22" xr:uid="{906C10FB-A487-0F44-B7E6-1ED8FACC4B69}"/>
+    <hyperlink ref="O19" r:id="rId23" xr:uid="{48461CB6-4C2D-4D48-B70F-DE51109A8ABB}"/>
+    <hyperlink ref="N18" r:id="rId24" xr:uid="{3C3E3B29-6A40-184B-8F9A-2CF40AA18114}"/>
+    <hyperlink ref="N38" r:id="rId25" xr:uid="{D26BD10F-086B-144D-9C84-D24073FF3261}"/>
+    <hyperlink ref="O38" r:id="rId26" xr:uid="{4351C873-DDA0-414B-8E8F-F9278C8DB149}"/>
+    <hyperlink ref="N45" r:id="rId27" xr:uid="{8738F935-185E-D04E-8169-FBD0D688BD90}"/>
+    <hyperlink ref="O45" r:id="rId28" xr:uid="{671530BA-A262-094E-9FB1-37C29825A004}"/>
+    <hyperlink ref="O32" r:id="rId29" xr:uid="{E33637EE-2287-C745-85FF-0F0384FCFB54}"/>
+    <hyperlink ref="N32" r:id="rId30" xr:uid="{80DC692F-9332-C846-BF07-47B1F81F0D36}"/>
+    <hyperlink ref="N41" r:id="rId31" xr:uid="{95F7F419-BA04-6042-A79E-712E39587DB9}"/>
+    <hyperlink ref="O41" r:id="rId32" xr:uid="{45263989-7E51-6246-8402-12558CB9EEC1}"/>
+    <hyperlink ref="N16" r:id="rId33" xr:uid="{6A09C08A-8323-7E4A-B3BC-E58498BDEACF}"/>
+    <hyperlink ref="O16" r:id="rId34" xr:uid="{8355733E-07AE-B240-A471-81E622F1BC51}"/>
     <hyperlink ref="N6" r:id="rId35" xr:uid="{DC07D7C8-1C0A-6E44-AAC8-71BB7F8FC6E2}"/>
     <hyperlink ref="O6" r:id="rId36" xr:uid="{1BC9CAA2-DBB4-4E4C-A1BB-880A94C27EC9}"/>
-    <hyperlink ref="N34" r:id="rId37" xr:uid="{4C946E4F-4EF2-8641-BEEC-E3AA62284DC3}"/>
+    <hyperlink ref="N35" r:id="rId37" xr:uid="{4C946E4F-4EF2-8641-BEEC-E3AA62284DC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId38"/>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="490">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1040,6 +1040,42 @@
   </si>
   <si>
     <t>Hi!! My name is Aadi and I initiated in the spring of my second year with the Alpha Omicron class. In my free time I love playing basketball, football, and I biking. Along with that I love watching anime and TV shows! Ask me about how the Sacramento Kings are going to win the NBA finals this year!</t>
+  </si>
+  <si>
+    <t>Elin</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>elin_min</t>
+  </si>
+  <si>
+    <t>Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>Psychological Science</t>
+  </si>
+  <si>
+    <t>Marketing, Human Resources</t>
+  </si>
+  <si>
+    <t>Educator/Marketing Intern @ Lululemon</t>
+  </si>
+  <si>
+    <t>HRMA</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/elin-eunki-min/</t>
+  </si>
+  <si>
+    <t>elinmin@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey! My name is Elin Min, and I initiated in Fall 2021 with the Alpha Mu Class. In my free time, I enjoy playing tennis and basketball, working out, listening to EDM, and going to raves. Feel free to ask me about my life in Thailand, Canada, and Korea at recruitment!</t>
   </si>
   <si>
     <t>Mirsab</t>
@@ -1911,7 +1947,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -3497,57 +3533,57 @@
         <v>341</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="114" customFormat="1" s="1">
-      <c r="A33" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="L33" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="78" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3561,7 +3597,7 @@
         <v>356</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>35</v>
@@ -3570,461 +3606,463 @@
         <v>357</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="8"/>
+        <v>358</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="J34" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="90" customFormat="1" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="78" customFormat="1" s="1">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="15"/>
-      <c r="B36" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D36" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E36" s="12" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="90" customFormat="1" s="1">
+      <c r="A36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="15"/>
+      <c r="B37" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="M36" s="12" t="s">
+      <c r="G37" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="M37" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="N36" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="90">
-      <c r="A37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="102" customFormat="1" s="1">
+      <c r="N37" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="90">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>396</v>
+      <c r="J38" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="78" customFormat="1" s="1">
-      <c r="A39" s="10">
-        <v>45549.45347222222</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="102" customFormat="1" s="1">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>405</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>16</v>
+        <v>409</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="54" customFormat="1" s="1">
-      <c r="A40" s="7" t="s">
-        <v>16</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="78" customFormat="1" s="1">
+      <c r="A40" s="10">
+        <v>45549.45347222222</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>36</v>
+        <v>416</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="114" customFormat="1" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="54" customFormat="1" s="1">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>424</v>
+        <v>36</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="78" customFormat="1" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>296</v>
+        <v>436</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="J42" s="8" t="s">
-        <v>433</v>
+        <v>66</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75" customFormat="1" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="78" customFormat="1" s="1">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>441</v>
+        <v>296</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>101</v>
+        <v>445</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4032,47 +4070,47 @@
         <v>16</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>214</v>
+        <v>453</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>406</v>
+        <v>101</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>448</v>
+        <v>16</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>449</v>
+        <v>16</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4080,160 +4118,190 @@
         <v>16</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N45" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
-      <c r="A46" s="15"/>
-      <c r="B46" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="N46" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
+      <c r="A47" s="15"/>
+      <c r="B47" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="H46" s="12" t="s">
+      <c r="G47" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="12" t="s">
+      <c r="I47" s="13"/>
+      <c r="J47" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K46" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="L46" s="12" t="s">
+      <c r="K47" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="L47" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="M47" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="N46" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A47" s="7" t="s">
+      <c r="N47" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="B48" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="M47" s="8" t="s">
+      <c r="K48" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
+      <c r="N48" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
       <c r="A49" s="15"/>
@@ -21371,6 +21439,24 @@
       <c r="O1000" s="13"/>
       <c r="P1000" s="13"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="15.75">
+      <c r="A1001" s="15"/>
+      <c r="B1001" s="13"/>
+      <c r="C1001" s="13"/>
+      <c r="D1001" s="13"/>
+      <c r="E1001" s="13"/>
+      <c r="F1001" s="13"/>
+      <c r="G1001" s="13"/>
+      <c r="H1001" s="13"/>
+      <c r="I1001" s="13"/>
+      <c r="J1001" s="13"/>
+      <c r="K1001" s="13"/>
+      <c r="L1001" s="13"/>
+      <c r="M1001" s="13"/>
+      <c r="N1001" s="13"/>
+      <c r="O1001" s="13"/>
+      <c r="P1001" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -562,10 +562,10 @@
     <t>Laguna Hills, CA</t>
   </si>
   <si>
-    <t>Data Analytics, Information Systems, Digital Marketing</t>
-  </si>
-  <si>
-    <t>Data Analytics Intern @ General Atomics Aeronautical Systems, Inc.</t>
+    <t>Data Engineering, Product Management, Marketing</t>
+  </si>
+  <si>
+    <t>Technology Business Office Portfolio Management Intern @ CME Group</t>
   </si>
   <si>
     <t>UCI Women's Club Soccer, Sports Business Association</t>
@@ -1536,15 +1536,15 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000ff"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000ff"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1591,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1626,10 +1626,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1637,9 +1637,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1958,22 +1955,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="37.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -2810,7 +2807,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="90" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="102" customFormat="1" s="1">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="90" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="115.5" customFormat="1" s="1">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +2905,7 @@
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="90" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="88.5" customFormat="1" s="1">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2956,7 +2953,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="78" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="102" customFormat="1" s="1">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3001,7 @@
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="217.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3739,7 +3736,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="15" t="s">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="490">
   <si>
     <t>Timestamp</t>
   </si>
@@ -391,10 +391,10 @@
     <t>safah_faraz</t>
   </si>
   <si>
-    <t>Marketing, Finance</t>
-  </si>
-  <si>
-    <t>Representative @ MUSA</t>
+    <t>Finance, Accounting</t>
+  </si>
+  <si>
+    <t>Finance Analyst @ PIMCO</t>
   </si>
   <si>
     <t>MUSA</t>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>coca_ho</t>
-  </si>
-  <si>
-    <t>Finance, Accounting</t>
   </si>
   <si>
     <t>Consumer Insights Intern @ FOX Entertanment</t>
@@ -2584,25 +2581,25 @@
         <v>76</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="102" customFormat="1" s="1">
@@ -2610,13 +2607,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>135</v>
@@ -2634,25 +2631,25 @@
         <v>76</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="126" customFormat="1" s="1">
@@ -2660,13 +2657,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>111</v>
@@ -2675,34 +2672,34 @@
         <v>35</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="P15" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="90" customFormat="1" s="1">
@@ -2710,13 +2707,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>48</v>
@@ -2725,32 +2722,32 @@
         <v>35</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>113</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N16" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="P16" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -2758,13 +2755,13 @@
         <v>45551.217361111114</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>20</v>
@@ -2773,32 +2770,32 @@
         <v>21</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="O17" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="90" customFormat="1" s="1">
@@ -2806,13 +2803,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>135</v>
@@ -2821,34 +2818,34 @@
         <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="90" customFormat="1" s="1">
@@ -2856,13 +2853,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>34</v>
@@ -2871,32 +2868,32 @@
         <v>35</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="N19" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="P19" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="90" customFormat="1" s="1">
@@ -2904,13 +2901,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>20</v>
@@ -2919,32 +2916,32 @@
         <v>49</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="78" customFormat="1" s="1">
@@ -2952,13 +2949,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>20</v>
@@ -2967,10 +2964,10 @@
         <v>21</v>
       </c>
       <c r="G21" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8" t="s">
@@ -2980,31 +2977,31 @@
         <v>16</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N21" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="P21" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="217.5">
       <c r="A22" s="14"/>
       <c r="B22" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>20</v>
@@ -3020,7 +3017,7 @@
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>16</v>
@@ -3029,16 +3026,16 @@
         <v>16</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N22" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="P22" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3046,13 +3043,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>34</v>
@@ -3061,7 +3058,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>64</v>
@@ -3073,22 +3070,22 @@
         <v>66</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M23" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="P23" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="102" customFormat="1" s="1">
@@ -3096,13 +3093,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>34</v>
@@ -3111,32 +3108,32 @@
         <v>49</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N24" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="P24" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="90" customFormat="1" s="1">
@@ -3144,13 +3141,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>34</v>
@@ -3159,34 +3156,34 @@
         <v>35</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N25" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="P25" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="100.5" customFormat="1" s="1">
@@ -3194,13 +3191,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>111</v>
@@ -3209,7 +3206,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>64</v>
@@ -3218,25 +3215,25 @@
         <v>76</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="L26" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="M26" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N26" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="P26" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3244,13 +3241,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>34</v>
@@ -3259,32 +3256,32 @@
         <v>49</v>
       </c>
       <c r="G27" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="L27" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N27" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="O27" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="P27" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3292,13 +3289,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>111</v>
@@ -3307,34 +3304,34 @@
         <v>35</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="L28" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="M28" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="M28" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="P28" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>304</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -3343,10 +3340,10 @@
         <v>108</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>20</v>
@@ -3355,32 +3352,32 @@
         <v>49</v>
       </c>
       <c r="G29" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="L29" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="M29" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N29" s="13" t="s">
+      <c r="O29" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="P29" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="100.5" customFormat="1" s="1">
@@ -3388,13 +3385,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>34</v>
@@ -3403,32 +3400,32 @@
         <v>35</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="L30" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="M30" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N30" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="P30" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="87" customFormat="1" s="1">
@@ -3436,13 +3433,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>135</v>
@@ -3451,32 +3448,32 @@
         <v>49</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N31" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="O31" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="P31" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3484,13 +3481,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>34</v>
@@ -3499,34 +3496,34 @@
         <v>35</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H32" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>118</v>
       </c>
       <c r="N32" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="P32" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -3534,13 +3531,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>345</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>111</v>
@@ -3549,34 +3546,34 @@
         <v>49</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="K33" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="L33" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N33" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="O33" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="O33" s="12" t="s">
+      <c r="P33" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="141" customFormat="1" s="1">
@@ -3584,13 +3581,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>48</v>
@@ -3599,34 +3596,34 @@
         <v>35</v>
       </c>
       <c r="G34" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="K34" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="L34" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N34" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N34" s="9" t="s">
+      <c r="O34" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="P34" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="78" customFormat="1" s="1">
@@ -3634,13 +3631,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>111</v>
@@ -3649,17 +3646,17 @@
         <v>35</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>16</v>
@@ -3668,13 +3665,13 @@
         <v>80</v>
       </c>
       <c r="N35" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="O35" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="P35" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="90" customFormat="1" s="1">
@@ -3682,13 +3679,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>34</v>
@@ -3697,44 +3694,44 @@
         <v>49</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="L36" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N36" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O36" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="P36" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="14"/>
       <c r="B37" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>20</v>
@@ -3743,34 +3740,34 @@
         <v>21</v>
       </c>
       <c r="G37" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="I37" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="J37" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>390</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N37" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" s="13" t="s">
+      <c r="O37" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="P37" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>394</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="90">
@@ -3778,13 +3775,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>135</v>
@@ -3793,32 +3790,32 @@
         <v>49</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="L38" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N38" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="O38" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="P38" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="102" customFormat="1" s="1">
@@ -3826,13 +3823,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>48</v>
@@ -3841,32 +3838,32 @@
         <v>49</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K39" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="L39" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N39" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="P39" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="78" customFormat="1" s="1">
@@ -3874,13 +3871,13 @@
         <v>45549.45347222222</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>20</v>
@@ -3889,17 +3886,17 @@
         <v>49</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>418</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>16</v>
@@ -3908,13 +3905,13 @@
         <v>80</v>
       </c>
       <c r="N40" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="O40" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="P40" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="54" customFormat="1" s="1">
@@ -3922,13 +3919,13 @@
         <v>16</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>426</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>135</v>
@@ -3940,29 +3937,29 @@
         <v>36</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="L41" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N41" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="O41" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="P41" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3970,13 +3967,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>34</v>
@@ -3985,7 +3982,7 @@
         <v>49</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>51</v>
@@ -3997,22 +3994,22 @@
         <v>66</v>
       </c>
       <c r="K42" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>439</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N42" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="O42" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="P42" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="78" customFormat="1" s="1">
@@ -4020,13 +4017,13 @@
         <v>16</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>20</v>
@@ -4035,32 +4032,32 @@
         <v>21</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N43" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="O43" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="O43" s="8" t="s">
+      <c r="P43" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4068,13 +4065,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>135</v>
@@ -4083,7 +4080,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>64</v>
@@ -4102,13 +4099,13 @@
         <v>80</v>
       </c>
       <c r="N44" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="O44" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="P44" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4116,13 +4113,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>460</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>34</v>
@@ -4131,32 +4128,32 @@
         <v>35</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>38</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K45" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="L45" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="O45" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="O45" s="8" t="s">
+      <c r="P45" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>465</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4164,13 +4161,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>135</v>
@@ -4186,37 +4183,37 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="K46" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="L46" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N46" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="P46" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="14"/>
       <c r="B47" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>20</v>
@@ -4225,7 +4222,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>88</v>
@@ -4235,22 +4232,22 @@
         <v>66</v>
       </c>
       <c r="K47" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N47" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="N47" s="13" t="s">
+      <c r="O47" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="P47" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4258,13 +4255,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>34</v>
@@ -4273,32 +4270,32 @@
         <v>49</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
         <v>101</v>
       </c>
       <c r="K48" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="L48" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N48" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="O48" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="O48" s="8" t="s">
+      <c r="P48" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>490</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="491">
   <si>
     <t>Timestamp</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t xml:space="preserve">Business Economics </t>
+  </si>
+  <si>
+    <t>Sales and Marketing Intern @ Food Innovations</t>
   </si>
   <si>
     <t xml:space="preserve">Tri Delta </t>
@@ -2652,7 +2655,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="126" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="135.75" customFormat="1" s="1">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="90" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="90" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="90" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="109.5" customFormat="1" s="1">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="90" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="109.5" customFormat="1" s="1">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="78" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -2974,34 +2977,34 @@
         <v>66</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="217.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="14"/>
       <c r="B22" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>20</v>
@@ -3017,7 +3020,7 @@
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>16</v>
@@ -3029,27 +3032,27 @@
         <v>196</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="114" customFormat="1" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="122.25" customFormat="1" s="1">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>34</v>
@@ -3058,7 +3061,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>64</v>
@@ -3076,30 +3079,30 @@
         <v>207</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="102" customFormat="1" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="122.25" customFormat="1" s="1">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>34</v>
@@ -3108,46 +3111,46 @@
         <v>49</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="90" customFormat="1" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>34</v>
@@ -3156,48 +3159,48 @@
         <v>35</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="100.5" customFormat="1" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>111</v>
@@ -3206,7 +3209,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>64</v>
@@ -3215,25 +3218,25 @@
         <v>76</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>196</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3241,13 +3244,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>34</v>
@@ -3256,32 +3259,32 @@
         <v>49</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3289,13 +3292,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>111</v>
@@ -3304,34 +3307,34 @@
         <v>35</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>196</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -3340,10 +3343,10 @@
         <v>108</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>20</v>
@@ -3352,32 +3355,32 @@
         <v>49</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>196</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="100.5" customFormat="1" s="1">
@@ -3385,13 +3388,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>34</v>
@@ -3400,32 +3403,32 @@
         <v>35</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>196</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="87" customFormat="1" s="1">
@@ -3433,13 +3436,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>135</v>
@@ -3455,7 +3458,7 @@
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>16</v>
@@ -3467,13 +3470,13 @@
         <v>80</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3481,13 +3484,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>34</v>
@@ -3499,31 +3502,31 @@
         <v>235</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>118</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -3531,13 +3534,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>111</v>
@@ -3546,34 +3549,34 @@
         <v>49</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="141" customFormat="1" s="1">
@@ -3581,13 +3584,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>48</v>
@@ -3596,34 +3599,34 @@
         <v>35</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>196</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="78" customFormat="1" s="1">
@@ -3631,13 +3634,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>111</v>
@@ -3646,17 +3649,17 @@
         <v>35</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>16</v>
@@ -3665,13 +3668,13 @@
         <v>80</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="90" customFormat="1" s="1">
@@ -3679,13 +3682,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>34</v>
@@ -3694,44 +3697,44 @@
         <v>49</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="14"/>
       <c r="B37" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>20</v>
@@ -3740,34 +3743,34 @@
         <v>21</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>218</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="90">
@@ -3775,13 +3778,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>135</v>
@@ -3790,32 +3793,32 @@
         <v>49</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="102" customFormat="1" s="1">
@@ -3823,13 +3826,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>48</v>
@@ -3838,32 +3841,32 @@
         <v>49</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="78" customFormat="1" s="1">
@@ -3871,13 +3874,13 @@
         <v>45549.45347222222</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>20</v>
@@ -3886,17 +3889,17 @@
         <v>49</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>16</v>
@@ -3905,13 +3908,13 @@
         <v>80</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="54" customFormat="1" s="1">
@@ -3919,13 +3922,13 @@
         <v>16</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>135</v>
@@ -3937,29 +3940,29 @@
         <v>36</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3967,13 +3970,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>34</v>
@@ -3982,7 +3985,7 @@
         <v>49</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>51</v>
@@ -3994,22 +3997,22 @@
         <v>66</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="78" customFormat="1" s="1">
@@ -4017,13 +4020,13 @@
         <v>16</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>20</v>
@@ -4032,32 +4035,32 @@
         <v>21</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4065,13 +4068,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>135</v>
@@ -4080,7 +4083,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>64</v>
@@ -4099,13 +4102,13 @@
         <v>80</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4113,13 +4116,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>34</v>
@@ -4135,25 +4138,25 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4161,13 +4164,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>135</v>
@@ -4183,37 +4186,37 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="14"/>
       <c r="B47" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>20</v>
@@ -4222,7 +4225,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>88</v>
@@ -4232,22 +4235,22 @@
         <v>66</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>207</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4255,13 +4258,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>34</v>
@@ -4280,22 +4283,22 @@
         <v>101</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="492">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1287,130 +1287,133 @@
     <t>Computer Science, Informatics</t>
   </si>
   <si>
+    <t>Software Engineering, Product Management, Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Fullstack Engineer Intern @ FOLN</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/justin-pham-035b2b224/</t>
+  </si>
+  <si>
+    <t>justinpham@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! I'm Justin, and I am a part of the Alpha Rho Class! I love bouldering, making coffee, traveling, and Esports. Ask me about my coffee shop tier list, music, or virtually anything at recruitment. Looking forward to meeting you all!</t>
+  </si>
+  <si>
+    <t>Lohit</t>
+  </si>
+  <si>
+    <t>Potnuru</t>
+  </si>
+  <si>
+    <t>lohit_potnuru</t>
+  </si>
+  <si>
+    <t>Quantitative Economics, Computer Science</t>
+  </si>
+  <si>
+    <t>Finance, Software Engineering, PM</t>
+  </si>
+  <si>
+    <t>Machine Learning Researcher @ Bioverse Labs</t>
+  </si>
+  <si>
+    <t>Manifest, ITG, AI Club</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lohitpotnuru/</t>
+  </si>
+  <si>
+    <t>lohitpotnuru@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hello, I'm Lohit from the Alpha Pi class! I love hiking, kayaking, and eating good food. Ask me about anything tech related or my love for taco bell at recruitment.</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Sagun</t>
+  </si>
+  <si>
+    <t>melanie_sagun</t>
+  </si>
+  <si>
+    <t>Cerritos, CA</t>
+  </si>
+  <si>
+    <t>Media &amp; Content Sales Intern @ AAA</t>
+  </si>
+  <si>
+    <t>UBA, Product Association, Kababayan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/melanie-sagun/</t>
+  </si>
+  <si>
+    <t>melaniesagun@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi guys!!! My name is Melanie, and I initiated in the spring quarter of my first year with the Alpha Omicron class. In my free time, I like journaling, running, taking film and digital photos, and exploring new coffee shops! Ask me about my super specific Spotify playlists or my comfort movies at recruitment! I'm super excited to meet you all :D</t>
+  </si>
+  <si>
+    <t>Sanika</t>
+  </si>
+  <si>
+    <t>Saitawdekar</t>
+  </si>
+  <si>
+    <t>sanika_saitawdekar</t>
+  </si>
+  <si>
+    <t>Operations, Project Management</t>
+  </si>
+  <si>
+    <t>MUSA, Magic @ UCI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sanika-saitawdekar/</t>
+  </si>
+  <si>
+    <t>sanikasaitawdekar@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! My name is Sanika and I initiated in the spring of my freshman year as a part of the Alpha Rho class. I love reading, comedy, music, puzzles, and magic! Feel free to ask me about my favorite tv shows, movies, and books at recruitment :) </t>
+  </si>
+  <si>
+    <t>Brendon</t>
+  </si>
+  <si>
+    <t>Sato</t>
+  </si>
+  <si>
+    <t>brendon_sato</t>
+  </si>
+  <si>
+    <t>Honolulu, Hawaii</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brendon-sato/</t>
+  </si>
+  <si>
+    <t>brendonsato@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Aloha! My name is Brendon and I initiated during the fall quarter of my freshman year with the Alpha Pi class. In my free time, I enjoy being near the water surfing, fishing, or just cruising. You can also find me playing music. During recruitment, feel free to ask me about my love for music.</t>
+  </si>
+  <si>
+    <t>Nithin</t>
+  </si>
+  <si>
+    <t>Senthil</t>
+  </si>
+  <si>
+    <t>nithin_senthil</t>
+  </si>
+  <si>
     <t>Software Engineering, Product Management</t>
-  </si>
-  <si>
-    <t>Fullstack Engineer Intern @ FOLN</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/justin-pham-035b2b224/</t>
-  </si>
-  <si>
-    <t>justinpham@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! I'm Justin, and I am a part of the Alpha Rho Class! I love bouldering, making coffee, traveling, and Esports. Ask me about my coffee shop tier list, music, or virtually anything at recruitment. Looking forward to meeting you all!</t>
-  </si>
-  <si>
-    <t>Lohit</t>
-  </si>
-  <si>
-    <t>Potnuru</t>
-  </si>
-  <si>
-    <t>lohit_potnuru</t>
-  </si>
-  <si>
-    <t>Quantitative Economics, Computer Science</t>
-  </si>
-  <si>
-    <t>Finance, Software Engineering, PM</t>
-  </si>
-  <si>
-    <t>Machine Learning Researcher @ Bioverse Labs</t>
-  </si>
-  <si>
-    <t>Manifest, ITG, AI Club</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/lohitpotnuru/</t>
-  </si>
-  <si>
-    <t>lohitpotnuru@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hello, I'm Lohit from the Alpha Pi class! I love hiking, kayaking, and eating good food. Ask me about anything tech related or my love for taco bell at recruitment.</t>
-  </si>
-  <si>
-    <t>Melanie</t>
-  </si>
-  <si>
-    <t>Sagun</t>
-  </si>
-  <si>
-    <t>melanie_sagun</t>
-  </si>
-  <si>
-    <t>Cerritos, CA</t>
-  </si>
-  <si>
-    <t>Media &amp; Content Sales Intern @ AAA</t>
-  </si>
-  <si>
-    <t>UBA, Product Association, Kababayan</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/melanie-sagun/</t>
-  </si>
-  <si>
-    <t>melaniesagun@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi guys!!! My name is Melanie, and I initiated in the spring quarter of my first year with the Alpha Omicron class. In my free time, I like journaling, running, taking film and digital photos, and exploring new coffee shops! Ask me about my super specific Spotify playlists or my comfort movies at recruitment! I'm super excited to meet you all :D</t>
-  </si>
-  <si>
-    <t>Sanika</t>
-  </si>
-  <si>
-    <t>Saitawdekar</t>
-  </si>
-  <si>
-    <t>sanika_saitawdekar</t>
-  </si>
-  <si>
-    <t>Operations, Project Management</t>
-  </si>
-  <si>
-    <t>MUSA, Magic @ UCI</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sanika-saitawdekar/</t>
-  </si>
-  <si>
-    <t>sanikasaitawdekar@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! My name is Sanika and I initiated in the spring of my freshman year as a part of the Alpha Rho class. I love reading, comedy, music, puzzles, and magic! Feel free to ask me about my favorite tv shows, movies, and books at recruitment :) </t>
-  </si>
-  <si>
-    <t>Brendon</t>
-  </si>
-  <si>
-    <t>Sato</t>
-  </si>
-  <si>
-    <t>brendon_sato</t>
-  </si>
-  <si>
-    <t>Honolulu, Hawaii</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/brendon-sato/</t>
-  </si>
-  <si>
-    <t>brendonsato@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Aloha! My name is Brendon and I initiated during the fall quarter of my freshman year with the Alpha Pi class. In my free time, I enjoy being near the water surfing, fishing, or just cruising. You can also find me playing music. During recruitment, feel free to ask me about my love for music.</t>
-  </si>
-  <si>
-    <t>Nithin</t>
-  </si>
-  <si>
-    <t>Senthil</t>
-  </si>
-  <si>
-    <t>nithin_senthil</t>
   </si>
   <si>
     <t>SWE Intern @ LoginID</t>
@@ -4138,25 +4141,25 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4164,13 +4167,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>135</v>
@@ -4186,37 +4189,37 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="14"/>
       <c r="B47" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>20</v>
@@ -4225,7 +4228,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>88</v>
@@ -4235,7 +4238,7 @@
         <v>66</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>207</v>
@@ -4244,13 +4247,13 @@
         <v>253</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4258,13 +4261,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>34</v>
@@ -4283,22 +4286,22 @@
         <v>101</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="493">
   <si>
     <t>Timestamp</t>
   </si>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Financial Analyst Intern @ ASICS </t>
   </si>
   <si>
-    <t xml:space="preserve">UG Programs Student Assistant  </t>
+    <t>UBA, Product Association</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/ayushigupta8/</t>
@@ -1001,6 +1001,9 @@
   </si>
   <si>
     <t>Finance, Marketing</t>
+  </si>
+  <si>
+    <t>Marketing Intern @ DIYwithHelp.com</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/isaac-o-martinez/</t>
@@ -3464,7 +3467,7 @@
         <v>328</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>207</v>
@@ -3473,13 +3476,13 @@
         <v>80</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3487,13 +3490,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>34</v>
@@ -3505,31 +3508,31 @@
         <v>235</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>118</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -3537,13 +3540,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>111</v>
@@ -3552,34 +3555,34 @@
         <v>49</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="141" customFormat="1" s="1">
@@ -3587,13 +3590,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>48</v>
@@ -3602,34 +3605,34 @@
         <v>35</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>196</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="78" customFormat="1" s="1">
@@ -3637,13 +3640,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>111</v>
@@ -3652,17 +3655,17 @@
         <v>35</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>16</v>
@@ -3671,13 +3674,13 @@
         <v>80</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="90" customFormat="1" s="1">
@@ -3685,13 +3688,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>34</v>
@@ -3707,37 +3710,37 @@
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="14"/>
       <c r="B37" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>20</v>
@@ -3746,34 +3749,34 @@
         <v>21</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>218</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="90">
@@ -3781,13 +3784,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>135</v>
@@ -3796,32 +3799,32 @@
         <v>49</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="102" customFormat="1" s="1">
@@ -3829,13 +3832,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>48</v>
@@ -3844,32 +3847,32 @@
         <v>49</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="78" customFormat="1" s="1">
@@ -3877,13 +3880,13 @@
         <v>45549.45347222222</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>20</v>
@@ -3892,32 +3895,32 @@
         <v>49</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="54" customFormat="1" s="1">
@@ -3925,13 +3928,13 @@
         <v>16</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>135</v>
@@ -3943,29 +3946,29 @@
         <v>36</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="114" customFormat="1" s="1">
@@ -3973,13 +3976,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>34</v>
@@ -3988,7 +3991,7 @@
         <v>49</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>51</v>
@@ -4000,22 +4003,22 @@
         <v>66</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>80</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="78" customFormat="1" s="1">
@@ -4023,13 +4026,13 @@
         <v>16</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>20</v>
@@ -4045,25 +4048,25 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4071,13 +4074,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>135</v>
@@ -4086,7 +4089,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>64</v>
@@ -4105,13 +4108,13 @@
         <v>80</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4119,13 +4122,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>34</v>
@@ -4141,25 +4144,25 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4167,13 +4170,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>135</v>
@@ -4189,37 +4192,37 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="14"/>
       <c r="B47" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>20</v>
@@ -4228,7 +4231,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>88</v>
@@ -4238,7 +4241,7 @@
         <v>66</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>207</v>
@@ -4247,13 +4250,13 @@
         <v>253</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75" customFormat="1" s="1">
@@ -4261,13 +4264,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>34</v>
@@ -4286,22 +4289,22 @@
         <v>101</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -562,10 +562,10 @@
     <t>Laguna Hills, CA</t>
   </si>
   <si>
-    <t>Data Analytics, Information Systems, Digital Marketing</t>
-  </si>
-  <si>
-    <t>Data Analytics Intern @ General Atomics Aeronautical Systems, Inc.</t>
+    <t>Data Engineering, Product Management, Marketing</t>
+  </si>
+  <si>
+    <t>Technology Business Office Portfolio Management Intern @ CME Group</t>
   </si>
   <si>
     <t>UCI Women's Club Soccer, Sports Business Association</t>
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="128.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="127.5" customFormat="1" s="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="597">
   <si>
     <t>Timestamp</t>
   </si>
@@ -375,12 +375,15 @@
     <t>ryan_chung</t>
   </si>
   <si>
-    <t>Eastvale, CA</t>
+    <t>Sneedville, Tennessee</t>
   </si>
   <si>
     <t>Finance, Wealth Management</t>
   </si>
   <si>
+    <t>Research Analytics Intern @ PrizePicks</t>
+  </si>
+  <si>
     <t>UBA, ITG, KCM</t>
   </si>
   <si>
@@ -390,6 +393,9 @@
     <t>ryanchung@ucidsp.com</t>
   </si>
   <si>
+    <t>Hi my name is Ryan Chung and I initiated with the Alpha Sigma class. I enjoy sports, country music, and playing poker. Ask me about sports, day trading or anything else at recruitment!</t>
+  </si>
+  <si>
     <t>Thaddeus</t>
   </si>
   <si>
@@ -708,7 +714,7 @@
     <t>shreyajagannathan@ucidsp.com</t>
   </si>
   <si>
-    <t>Amelia</t>
+    <t>Hii! My name is Amelia, and I initiated in the fall quarter of my sophomore year with the Alpha Sigma Class. I enjoy thrifting, playing the piano, and exploring new food combinations. Feel free to ask me about my love for cheetos and harbor seals!</t>
   </si>
   <si>
     <t>Jukita</t>
@@ -1738,7 +1744,7 @@
     <t>jadon_song</t>
   </si>
   <si>
-    <t>Growth Marketing Intern @ FOX</t>
+    <t>Research Analytics Intern @ PrizePicks, Growth Marketing Intern @ FOX</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/jadon-song/</t>
@@ -1808,6 +1814,9 @@
   </si>
   <si>
     <t>tiffanyzhang@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hii! My name is Tiffany and I initiated in the fall quarter of my freshman year with the Alpha Sigmas. In my free time, I enjoy playing volleyball, going to the beach, and trying new food spots. Feel free to ask me about my favorite artists or hobbies!</t>
   </si>
 </sst>
 </file>
@@ -2748,23 +2757,23 @@
       <c r="J10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>16</v>
+      <c r="K10" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>91</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>16</v>
+        <v>124</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" ht="114.0" customHeight="1">
@@ -2772,13 +2781,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
@@ -2787,7 +2796,7 @@
         <v>61</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>63</v>
@@ -2796,25 +2805,25 @@
         <v>87</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -2832,49 +2841,49 @@
         <v>44397.381944444445</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -2892,13 +2901,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>60</v>
@@ -2914,25 +2923,25 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2950,49 +2959,49 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3010,29 +3019,29 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>16</v>
@@ -3041,16 +3050,16 @@
         <v>16</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -3068,13 +3077,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>46</v>
@@ -3092,25 +3101,25 @@
         <v>87</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -3128,16 +3137,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>61</v>
@@ -3152,25 +3161,25 @@
         <v>87</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -3188,49 +3197,49 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -3248,13 +3257,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>60</v>
@@ -3263,32 +3272,32 @@
         <v>47</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -3306,13 +3315,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>34</v>
@@ -3328,25 +3337,25 @@
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" ht="109.5" customHeight="1">
@@ -3354,13 +3363,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>34</v>
@@ -3388,10 +3397,10 @@
         <v>67</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>16</v>
@@ -3402,13 +3411,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>34</v>
@@ -3417,32 +3426,32 @@
         <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>91</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
@@ -3450,13 +3459,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>34</v>
@@ -3468,14 +3477,14 @@
         <v>48</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>16</v>
@@ -3484,13 +3493,13 @@
         <v>67</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" ht="122.25" customHeight="1">
@@ -3498,13 +3507,13 @@
         <v>45551.217361111114</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>20</v>
@@ -3513,32 +3522,32 @@
         <v>21</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" ht="122.25" customHeight="1">
@@ -3546,49 +3555,49 @@
         <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3606,13 +3615,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>46</v>
@@ -3621,32 +3630,32 @@
         <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="3"/>
@@ -3664,13 +3673,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>20</v>
@@ -3679,32 +3688,32 @@
         <v>61</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -3722,13 +3731,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>20</v>
@@ -3737,32 +3746,32 @@
         <v>21</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5" t="s">
         <v>78</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -3778,13 +3787,13 @@
     <row r="29" ht="114.0" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>20</v>
@@ -3800,7 +3809,7 @@
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>16</v>
@@ -3809,16 +3818,16 @@
         <v>16</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
@@ -3826,13 +3835,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>34</v>
@@ -3841,32 +3850,32 @@
         <v>35</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" ht="87.0" customHeight="1">
@@ -3874,13 +3883,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>46</v>
@@ -3889,7 +3898,7 @@
         <v>47</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>76</v>
@@ -3901,22 +3910,22 @@
         <v>78</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3934,13 +3943,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>46</v>
@@ -3949,32 +3958,32 @@
         <v>61</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3992,13 +4001,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>46</v>
@@ -4007,34 +4016,34 @@
         <v>47</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -4052,22 +4061,22 @@
         <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>76</v>
@@ -4076,25 +4085,25 @@
         <v>87</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -4112,13 +4121,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>46</v>
@@ -4127,32 +4136,32 @@
         <v>61</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -4170,49 +4179,49 @@
         <v>16</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -4228,13 +4237,13 @@
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="25"/>
       <c r="B37" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>20</v>
@@ -4243,32 +4252,32 @@
         <v>61</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="23" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" ht="90.0" customHeight="1">
@@ -4276,13 +4285,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>46</v>
@@ -4291,32 +4300,32 @@
         <v>47</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -4334,47 +4343,47 @@
         <v>16</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4392,13 +4401,13 @@
         <v>16</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>46</v>
@@ -4407,34 +4416,34 @@
         <v>47</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4452,49 +4461,49 @@
         <v>16</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>61</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" ht="114.0" customHeight="1">
@@ -4502,13 +4511,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>60</v>
@@ -4517,34 +4526,34 @@
         <v>47</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -4562,32 +4571,32 @@
         <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>16</v>
@@ -4596,13 +4605,13 @@
         <v>91</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -4620,13 +4629,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>46</v>
@@ -4635,32 +4644,32 @@
         <v>61</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -4676,13 +4685,13 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="23" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>20</v>
@@ -4691,34 +4700,34 @@
         <v>21</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>16</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4726,47 +4735,47 @@
         <v>16</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4774,13 +4783,13 @@
         <v>16</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>34</v>
@@ -4789,32 +4798,32 @@
         <v>21</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="14" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4822,13 +4831,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>60</v>
@@ -4837,32 +4846,32 @@
         <v>61</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -4880,13 +4889,13 @@
         <v>45549.45347222222</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>20</v>
@@ -4895,32 +4904,32 @@
         <v>61</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -4938,16 +4947,16 @@
         <v>16</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>21</v>
@@ -4956,29 +4965,29 @@
         <v>48</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4996,13 +5005,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>46</v>
@@ -5011,7 +5020,7 @@
         <v>61</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>63</v>
@@ -5023,22 +5032,22 @@
         <v>78</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -5056,13 +5065,13 @@
         <v>16</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>20</v>
@@ -5071,32 +5080,32 @@
         <v>21</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -5114,47 +5123,47 @@
         <v>16</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="14" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -5172,13 +5181,13 @@
         <v>16</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>46</v>
@@ -5187,32 +5196,32 @@
         <v>47</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -5230,16 +5239,16 @@
         <v>16</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>61</v>
@@ -5252,25 +5261,25 @@
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -5288,13 +5297,13 @@
         <v>16</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>34</v>
@@ -5303,34 +5312,34 @@
         <v>21</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M56" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5338,13 +5347,13 @@
         <v>16</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>20</v>
@@ -5362,23 +5371,23 @@
       <c r="J57" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K57" s="23" t="s">
-        <v>570</v>
+      <c r="K57" s="15" t="s">
+        <v>572</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O57" s="23" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5386,13 +5395,13 @@
         <v>16</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>34</v>
@@ -5401,14 +5410,14 @@
         <v>35</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>63</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>16</v>
@@ -5420,10 +5429,10 @@
         <v>67</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>16</v>
@@ -5434,13 +5443,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>46</v>
@@ -5449,34 +5458,34 @@
         <v>61</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -5494,13 +5503,13 @@
         <v>16</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>34</v>
@@ -5509,32 +5518,32 @@
         <v>35</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="16" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>16</v>
+        <v>595</v>
+      </c>
+      <c r="P60" s="20" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -714,7 +714,7 @@
     <t>shreyajagannathan@ucidsp.com</t>
   </si>
   <si>
-    <t>Hii! My name is Amelia, and I initiated in the fall quarter of my sophomore year with the Alpha Sigma Class. I enjoy thrifting, playing the piano, and exploring new food combinations. Feel free to ask me about my love for cheetos and harbor seals!</t>
+    <t>Amelia</t>
   </si>
   <si>
     <t>Jukita</t>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="596">
   <si>
     <t>Timestamp</t>
   </si>
@@ -375,13 +375,10 @@
     <t>ryan_chung</t>
   </si>
   <si>
-    <t>Sneedville, Tennessee</t>
+    <t>Eastvale, CA</t>
   </si>
   <si>
     <t>Finance, Wealth Management</t>
-  </si>
-  <si>
-    <t>Research Analytics Intern @ PrizePicks</t>
   </si>
   <si>
     <t>UBA, ITG, KCM</t>
@@ -1744,7 +1741,7 @@
     <t>jadon_song</t>
   </si>
   <si>
-    <t>Research Analytics Intern @ PrizePicks, Growth Marketing Intern @ FOX</t>
+    <t>Growth Marketing Intern @ FOX</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/jadon-song/</t>
@@ -2758,22 +2755,22 @@
         <v>120</v>
       </c>
       <c r="K10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>91</v>
       </c>
       <c r="N10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" ht="114.0" customHeight="1">
@@ -2781,13 +2778,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
@@ -2796,7 +2793,7 @@
         <v>61</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>63</v>
@@ -2805,25 +2802,25 @@
         <v>87</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -2841,49 +2838,49 @@
         <v>44397.381944444445</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -2901,13 +2898,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>60</v>
@@ -2923,25 +2920,25 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2959,49 +2956,49 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>169</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3019,29 +3016,29 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>16</v>
@@ -3050,16 +3047,16 @@
         <v>16</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -3077,13 +3074,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>46</v>
@@ -3101,25 +3098,25 @@
         <v>87</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -3137,16 +3134,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>61</v>
@@ -3161,25 +3158,25 @@
         <v>87</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -3197,49 +3194,49 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N18" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -3257,13 +3254,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>60</v>
@@ -3272,32 +3269,32 @@
         <v>47</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -3315,13 +3312,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>34</v>
@@ -3337,25 +3334,25 @@
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="M20" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="N20" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="O20" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="P20" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" ht="109.5" customHeight="1">
@@ -3363,13 +3360,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>34</v>
@@ -3397,10 +3394,10 @@
         <v>67</v>
       </c>
       <c r="N21" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>16</v>
@@ -3411,13 +3408,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>34</v>
@@ -3426,32 +3423,32 @@
         <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>91</v>
       </c>
       <c r="N22" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="P22" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
@@ -3459,13 +3456,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>34</v>
@@ -3477,14 +3474,14 @@
         <v>48</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>16</v>
@@ -3493,13 +3490,13 @@
         <v>67</v>
       </c>
       <c r="N23" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="P23" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" ht="122.25" customHeight="1">
@@ -3507,13 +3504,13 @@
         <v>45551.217361111114</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>252</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>20</v>
@@ -3522,32 +3519,32 @@
         <v>21</v>
       </c>
       <c r="G24" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>253</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="L24" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="M24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N24" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N24" s="24" t="s">
+      <c r="O24" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="P24" s="23" t="s">
         <v>259</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="25" ht="122.25" customHeight="1">
@@ -3555,49 +3552,49 @@
         <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="K25" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="20" t="s">
         <v>267</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N25" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="P25" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3615,13 +3612,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>46</v>
@@ -3630,32 +3627,32 @@
         <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="N26" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="O26" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="3"/>
@@ -3673,13 +3670,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>20</v>
@@ -3688,32 +3685,32 @@
         <v>61</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="O27" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="P27" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -3731,13 +3728,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>20</v>
@@ -3746,32 +3743,32 @@
         <v>21</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5" t="s">
         <v>78</v>
       </c>
       <c r="K28" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N28" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -3787,13 +3784,13 @@
     <row r="29" ht="114.0" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="23" t="s">
         <v>304</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>305</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>20</v>
@@ -3809,7 +3806,7 @@
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>16</v>
@@ -3818,16 +3815,16 @@
         <v>16</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N29" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="O29" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="P29" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
@@ -3835,13 +3832,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>34</v>
@@ -3850,32 +3847,32 @@
         <v>35</v>
       </c>
       <c r="G30" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N30" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="O30" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="P30" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="31" ht="87.0" customHeight="1">
@@ -3883,13 +3880,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>46</v>
@@ -3898,7 +3895,7 @@
         <v>47</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>76</v>
@@ -3910,22 +3907,22 @@
         <v>78</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M31" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="O31" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="P31" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3943,13 +3940,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>46</v>
@@ -3958,32 +3955,32 @@
         <v>61</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N32" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -4001,13 +3998,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>46</v>
@@ -4016,34 +4013,34 @@
         <v>47</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="L33" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N33" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="P33" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -4061,22 +4058,22 @@
         <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>346</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>76</v>
@@ -4085,25 +4082,25 @@
         <v>87</v>
       </c>
       <c r="J34" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="M34" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N34" s="6" t="s">
+      <c r="O34" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -4121,13 +4118,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>46</v>
@@ -4136,32 +4133,32 @@
         <v>61</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="L35" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -4179,49 +4176,49 @@
         <v>16</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>365</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I36" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="L36" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="M36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N36" s="6" t="s">
+      <c r="O36" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="P36" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -4237,13 +4234,13 @@
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="25"/>
       <c r="B37" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>374</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>375</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>20</v>
@@ -4252,32 +4249,32 @@
         <v>61</v>
       </c>
       <c r="G37" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>376</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>377</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="K37" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="L37" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="M37" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N37" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N37" s="24" t="s">
+      <c r="O37" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="O37" s="23" t="s">
+      <c r="P37" s="17" t="s">
         <v>382</v>
-      </c>
-      <c r="P37" s="17" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" ht="90.0" customHeight="1">
@@ -4285,13 +4282,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>46</v>
@@ -4300,32 +4297,32 @@
         <v>47</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="M38" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N38" s="6" t="s">
+      <c r="O38" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -4343,47 +4340,47 @@
         <v>16</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="L39" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N39" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4401,13 +4398,13 @@
         <v>16</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>46</v>
@@ -4416,34 +4413,34 @@
         <v>47</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="M40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N40" s="6" t="s">
+      <c r="O40" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4461,49 +4458,49 @@
         <v>16</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>415</v>
-      </c>
       <c r="E41" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>61</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="J41" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="K41" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="K41" s="18" t="s">
+      <c r="L41" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="L41" s="18" t="s">
+      <c r="M41" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="N41" s="18" t="s">
+      <c r="O41" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="P41" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="42" ht="114.0" customHeight="1">
@@ -4511,13 +4508,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>60</v>
@@ -4526,34 +4523,34 @@
         <v>47</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="L42" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="M42" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N42" s="6" t="s">
+      <c r="O42" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="P42" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -4571,32 +4568,32 @@
         <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>16</v>
@@ -4605,13 +4602,13 @@
         <v>91</v>
       </c>
       <c r="N43" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="O43" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="P43" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -4629,13 +4626,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>46</v>
@@ -4644,32 +4641,32 @@
         <v>61</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="L44" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N44" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="P44" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -4685,13 +4682,13 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>455</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>456</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>20</v>
@@ -4700,34 +4697,34 @@
         <v>21</v>
       </c>
       <c r="G45" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="H45" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="I45" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="J45" s="23" t="s">
         <v>459</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>460</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>16</v>
       </c>
       <c r="L45" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N45" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="M45" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="N45" s="24" t="s">
+      <c r="O45" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="O45" s="23" t="s">
+      <c r="P45" s="23" t="s">
         <v>463</v>
-      </c>
-      <c r="P45" s="23" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4735,47 +4732,47 @@
         <v>16</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="K46" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="L46" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N46" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="O46" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="P46" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4783,13 +4780,13 @@
         <v>16</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>475</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>476</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>34</v>
@@ -4798,32 +4795,32 @@
         <v>21</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K47" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="L47" s="14" t="s">
         <v>478</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>479</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N47" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="O47" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="O47" s="16" t="s">
+      <c r="P47" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="P47" s="14" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4831,13 +4828,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>60</v>
@@ -4846,32 +4843,32 @@
         <v>61</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K48" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L48" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N48" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="O48" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="P48" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -4889,13 +4886,13 @@
         <v>45549.45347222222</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>20</v>
@@ -4904,32 +4901,32 @@
         <v>61</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="L49" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N49" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="O49" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="P49" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -4947,16 +4944,16 @@
         <v>16</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>505</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>21</v>
@@ -4965,29 +4962,29 @@
         <v>48</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="L50" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N50" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="O50" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="P50" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -5005,13 +5002,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>46</v>
@@ -5020,7 +5017,7 @@
         <v>61</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>63</v>
@@ -5032,22 +5029,22 @@
         <v>78</v>
       </c>
       <c r="K51" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="L51" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N51" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="O51" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="P51" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -5065,13 +5062,13 @@
         <v>16</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>20</v>
@@ -5080,32 +5077,32 @@
         <v>21</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N52" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="O52" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="P52" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -5123,47 +5120,47 @@
         <v>16</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>532</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N53" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="O53" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="P53" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -5181,13 +5178,13 @@
         <v>16</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>46</v>
@@ -5196,32 +5193,32 @@
         <v>47</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="L54" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N54" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O54" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="P54" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -5239,16 +5236,16 @@
         <v>16</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>550</v>
-      </c>
       <c r="E55" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>61</v>
@@ -5261,25 +5258,25 @@
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="K55" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="L55" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N55" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="P55" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -5297,13 +5294,13 @@
         <v>16</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>559</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>34</v>
@@ -5312,34 +5309,34 @@
         <v>21</v>
       </c>
       <c r="G56" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="I56" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="J56" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="K56" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="L56" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="L56" s="14" t="s">
+      <c r="M56" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="N56" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="M56" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="N56" s="19" t="s">
+      <c r="O56" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="O56" s="16" t="s">
+      <c r="P56" s="14" t="s">
         <v>567</v>
-      </c>
-      <c r="P56" s="14" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5347,13 +5344,13 @@
         <v>16</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="D57" s="23" t="s">
         <v>570</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>571</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>20</v>
@@ -5372,22 +5369,22 @@
         <v>78</v>
       </c>
       <c r="K57" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="N57" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="L57" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="M57" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="N57" s="24" t="s">
+      <c r="O57" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="P57" s="23" t="s">
         <v>574</v>
-      </c>
-      <c r="P57" s="23" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5395,13 +5392,13 @@
         <v>16</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="D58" s="16" t="s">
         <v>577</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>578</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>34</v>
@@ -5410,14 +5407,14 @@
         <v>35</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>63</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>16</v>
@@ -5429,10 +5426,10 @@
         <v>67</v>
       </c>
       <c r="N58" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="O58" s="16" t="s">
         <v>579</v>
-      </c>
-      <c r="O58" s="16" t="s">
-        <v>580</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>16</v>
@@ -5443,13 +5440,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>46</v>
@@ -5458,34 +5455,34 @@
         <v>61</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K59" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="L59" s="17" t="s">
         <v>584</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>585</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N59" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="O59" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="P59" s="17" t="s">
         <v>587</v>
-      </c>
-      <c r="P59" s="17" t="s">
-        <v>588</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -5503,13 +5500,13 @@
         <v>16</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="D60" s="16" t="s">
         <v>590</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>591</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>34</v>
@@ -5518,32 +5515,32 @@
         <v>35</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K60" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="L60" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="M60" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N60" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="M60" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N60" s="19" t="s">
+      <c r="O60" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="O60" s="16" t="s">
+      <c r="P60" s="20" t="s">
         <v>595</v>
-      </c>
-      <c r="P60" s="20" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -693,7 +693,7 @@
     <t>ananyaiyengar@ucidsp.com</t>
   </si>
   <si>
-    <t>Hi!! My name is Ananya and I iniated fall of my second year with the Alpha Sigma class. In my free time, I love to sing, try new sweet treats, go to the beach, and binge-watch TV shows. A fun fact is that my absolute favorite animal is a monkey! I'm so excited to meet you all :)</t>
+    <t>Hi! My name is Ananya and I initiated in my sophomore fall with the Alpha Sigma class. In my free time, I love to sing, try new sweet treats, and go to the beach. At recruitment, ask me about my favorite shows to binge-watch and why monkeys are my favorite animals. So excited to meet you all!</t>
   </si>
   <si>
     <t xml:space="preserve">Shreya </t>
@@ -753,7 +753,7 @@
     <t>Project Management, Product Management</t>
   </si>
   <si>
-    <t>Speciality Masters Program Student Assistant @ Paul Merage School of Business</t>
+    <t>Specialty Masters Program Student Assistant @ Paul Merage School of Business</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/riya-kapadekar/</t>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -1696,7 +1696,7 @@
     <t>Hey! My name is Caden, and I initiated in the fall quarter of my second year with the Alpha Pi class! In my free time, often you’ll find me working out, hiking, playing or listening to music, and cooking. One fun fact about me is that I played baseball for 16 years. Feel free to ask me about my favorite musicians or anything else at recruitment! I look forward to speaking with you!</t>
   </si>
   <si>
-    <t>Malak</t>
+    <t>Marketing, Product Management</t>
   </si>
   <si>
     <t>Shahin</t>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -144,7 +144,7 @@
     <t>joybae@ucidsp.com</t>
   </si>
   <si>
-    <t>Hi guys! My name is Joy, and I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time , I love journaling, going on photoshoots, listening to podcasts, and dancing — especially with friends. My favorite things are matcha, the color red, and perfumes. Ask me about my favorite matcha spots or thrift finds during recruitment :)</t>
+    <t>Hi! I'm Joy, and I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love journaling, going on photoshoots, and dancing. My favorite things are matcha, the color red, and perfumes. Ask me about my favorite thrift finds during recruitment!</t>
   </si>
   <si>
     <t>Abigail</t>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="600">
   <si>
     <t>Timestamp</t>
   </si>
@@ -705,10 +705,22 @@
     <t>shreya_jagannathan</t>
   </si>
   <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Law, Entrepreneurship, Finance</t>
+  </si>
+  <si>
+    <t>ASUCI</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/shreyajagan/</t>
   </si>
   <si>
     <t>shreyajagannathan@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey, my name is Shreya! I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love to read, watch horror movies, and make very specific pinterest boards. Feel free to ask me about places I’ve traveled to and lived in!</t>
   </si>
   <si>
     <t>Amelia</t>
@@ -3380,27 +3392,29 @@
       <c r="H21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="5" t="s">
-        <v>16</v>
+      <c r="I21" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>16</v>
+      <c r="L21" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>67</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>16</v>
+        <v>233</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="22" ht="96.75" customHeight="1">
@@ -3408,13 +3422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>34</v>
@@ -3423,32 +3437,32 @@
         <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>91</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
@@ -3456,13 +3470,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>34</v>
@@ -3478,10 +3492,10 @@
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="17" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>16</v>
@@ -3490,13 +3504,13 @@
         <v>67</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" ht="122.25" customHeight="1">
@@ -3504,13 +3518,13 @@
         <v>45551.217361111114</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>20</v>
@@ -3519,32 +3533,32 @@
         <v>21</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>222</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" ht="122.25" customHeight="1">
@@ -3552,13 +3566,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>163</v>
@@ -3567,34 +3581,34 @@
         <v>61</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3612,13 +3626,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>46</v>
@@ -3627,32 +3641,32 @@
         <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="3"/>
@@ -3670,13 +3684,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>20</v>
@@ -3685,32 +3699,32 @@
         <v>61</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>146</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -3728,13 +3742,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>20</v>
@@ -3743,32 +3757,32 @@
         <v>21</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5" t="s">
         <v>78</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -3784,13 +3798,13 @@
     <row r="29" ht="114.0" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="23" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>20</v>
@@ -3806,7 +3820,7 @@
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="23" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>16</v>
@@ -3818,13 +3832,13 @@
         <v>222</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
@@ -3832,13 +3846,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>34</v>
@@ -3847,10 +3861,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="14" t="s">
@@ -3860,19 +3874,19 @@
         <v>16</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" ht="87.0" customHeight="1">
@@ -3880,13 +3894,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>46</v>
@@ -3895,7 +3909,7 @@
         <v>47</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>76</v>
@@ -3907,22 +3921,22 @@
         <v>78</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>168</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3940,13 +3954,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>46</v>
@@ -3955,32 +3969,32 @@
         <v>61</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3998,13 +4012,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>46</v>
@@ -4013,34 +4027,34 @@
         <v>47</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -4058,13 +4072,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>139</v>
@@ -4073,7 +4087,7 @@
         <v>47</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>76</v>
@@ -4082,25 +4096,25 @@
         <v>87</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -4118,13 +4132,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>46</v>
@@ -4133,32 +4147,32 @@
         <v>61</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -4176,13 +4190,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>139</v>
@@ -4191,34 +4205,34 @@
         <v>47</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>222</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -4237,10 +4251,10 @@
         <v>136</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>20</v>
@@ -4249,32 +4263,32 @@
         <v>61</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="23" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>222</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" ht="90.0" customHeight="1">
@@ -4282,13 +4296,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>46</v>
@@ -4297,32 +4311,32 @@
         <v>47</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>222</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -4340,13 +4354,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>163</v>
@@ -4355,17 +4369,17 @@
         <v>61</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>168</v>
@@ -4374,13 +4388,13 @@
         <v>91</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4398,13 +4412,13 @@
         <v>16</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>46</v>
@@ -4413,34 +4427,34 @@
         <v>47</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>146</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4458,13 +4472,13 @@
         <v>16</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>139</v>
@@ -4473,34 +4487,34 @@
         <v>61</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M41" s="18" t="s">
         <v>156</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" ht="114.0" customHeight="1">
@@ -4508,13 +4522,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>60</v>
@@ -4523,34 +4537,34 @@
         <v>47</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>222</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -4568,13 +4582,13 @@
         <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>139</v>
@@ -4583,17 +4597,17 @@
         <v>47</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>16</v>
@@ -4602,13 +4616,13 @@
         <v>91</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -4626,13 +4640,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>46</v>
@@ -4641,32 +4655,32 @@
         <v>61</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -4682,13 +4696,13 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="23" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>20</v>
@@ -4697,34 +4711,34 @@
         <v>21</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>16</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4732,13 +4746,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>163</v>
@@ -4747,32 +4761,32 @@
         <v>61</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="23" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4780,13 +4794,13 @@
         <v>16</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>34</v>
@@ -4795,32 +4809,32 @@
         <v>21</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="14" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4828,13 +4842,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>60</v>
@@ -4843,32 +4857,32 @@
         <v>61</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -4886,13 +4900,13 @@
         <v>45549.45347222222</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>20</v>
@@ -4901,32 +4915,32 @@
         <v>61</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -4944,13 +4958,13 @@
         <v>16</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>163</v>
@@ -4962,29 +4976,29 @@
         <v>48</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -5002,13 +5016,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>46</v>
@@ -5017,7 +5031,7 @@
         <v>61</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>63</v>
@@ -5029,22 +5043,22 @@
         <v>78</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -5062,13 +5076,13 @@
         <v>16</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>20</v>
@@ -5077,32 +5091,32 @@
         <v>21</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>53</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -5120,13 +5134,13 @@
         <v>16</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>163</v>
@@ -5135,32 +5149,32 @@
         <v>21</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -5178,13 +5192,13 @@
         <v>16</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>46</v>
@@ -5193,32 +5207,32 @@
         <v>47</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -5236,13 +5250,13 @@
         <v>16</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>163</v>
@@ -5258,25 +5272,25 @@
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -5294,13 +5308,13 @@
         <v>16</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>34</v>
@@ -5309,34 +5323,34 @@
         <v>21</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M56" s="16" t="s">
         <v>222</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5344,13 +5358,13 @@
         <v>16</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>20</v>
@@ -5369,22 +5383,22 @@
         <v>78</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L57" s="23" t="s">
         <v>168</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="O57" s="23" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5392,13 +5406,13 @@
         <v>16</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>34</v>
@@ -5407,7 +5421,7 @@
         <v>35</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>63</v>
@@ -5426,10 +5440,10 @@
         <v>67</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>16</v>
@@ -5440,13 +5454,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>46</v>
@@ -5455,34 +5469,34 @@
         <v>61</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>112</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -5500,13 +5514,13 @@
         <v>16</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>34</v>
@@ -5515,32 +5529,32 @@
         <v>35</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="16" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>146</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -1708,25 +1708,25 @@
     <t>Hey! My name is Caden, and I initiated in the fall quarter of my second year with the Alpha Pi class! In my free time, often you’ll find me working out, hiking, playing or listening to music, and cooking. One fun fact about me is that I played baseball for 16 years. Feel free to ask me about my favorite musicians or anything else at recruitment! I look forward to speaking with you!</t>
   </si>
   <si>
+    <t>Malak</t>
+  </si>
+  <si>
+    <t>Shahin</t>
+  </si>
+  <si>
+    <t>malak_shahin</t>
+  </si>
+  <si>
+    <t>Martinez, CA</t>
+  </si>
+  <si>
+    <t>Business Information Management, International Studies</t>
+  </si>
+  <si>
+    <t>Digital Arts, Spanish</t>
+  </si>
+  <si>
     <t>Marketing, Product Management</t>
-  </si>
-  <si>
-    <t>Shahin</t>
-  </si>
-  <si>
-    <t>malak_shahin</t>
-  </si>
-  <si>
-    <t>Martinez, CA</t>
-  </si>
-  <si>
-    <t>Business Information Management, International Studies</t>
-  </si>
-  <si>
-    <t>Digital Arts, Spanish</t>
-  </si>
-  <si>
-    <t>Marketing, Product Design</t>
   </si>
   <si>
     <t>Marketing Intern @ hatch &amp; boost</t>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -1176,7 +1176,7 @@
     <t xml:space="preserve">Software Engineering, Product Management </t>
   </si>
   <si>
-    <t>TPM @ PlayStation</t>
+    <t>Incoming Technical Program Manager Intern @ PlayStation</t>
   </si>
   <si>
     <t>MAISS, Data@UCI</t>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -411,7 +411,7 @@
     <t>Consulting, Finance</t>
   </si>
   <si>
-    <t>Business Analyst Intern @ FTI Delta</t>
+    <t>Incoming Business Analyst Intern @ FTI Delta</t>
   </si>
   <si>
     <t>180 Degrees Consulting, Irvine Investment &amp; Trading Group, Scholars of Finance, Kababayan</t>
@@ -522,7 +522,7 @@
     <t>Finance, Product Management, Data</t>
   </si>
   <si>
-    <t>Finance Intern @ Raytheon Technologies</t>
+    <t>Incoming Finance Intern @ Raytheon Technologies</t>
   </si>
   <si>
     <t>UBA</t>
@@ -1116,7 +1116,7 @@
     <t xml:space="preserve">Software Engineering </t>
   </si>
   <si>
-    <t>Software Engineering Intern @ Truckxi</t>
+    <t>Technology Consulting Intern @ EY</t>
   </si>
   <si>
     <t>ITG, UBA</t>
@@ -1179,7 +1179,7 @@
     <t>Incoming Technical Program Manager Intern @ PlayStation</t>
   </si>
   <si>
-    <t>MAISS, Data@UCI</t>
+    <t>MAISS, Data@UCI, Google Student Developer Club</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/andrewly13/</t>
@@ -1957,7 +1957,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2034,12 +2034,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
@@ -3210,7 +3204,7 @@
       <c r="J17" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>193</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -3270,7 +3264,7 @@
       <c r="J18" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>203</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -3630,7 +3624,7 @@
       <c r="J25" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>272</v>
       </c>
       <c r="L25" s="19" t="s">
@@ -3688,7 +3682,7 @@
       <c r="J26" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="19" t="s">
         <v>282</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -3746,7 +3740,7 @@
       <c r="J27" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="19" t="s">
         <v>293</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -4016,7 +4010,7 @@
       <c r="J32" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>337</v>
       </c>
       <c r="L32" s="5" t="s">
@@ -4076,7 +4070,7 @@
       <c r="J33" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="19" t="s">
         <v>347</v>
       </c>
       <c r="L33" s="5" t="s">
@@ -4136,7 +4130,7 @@
       <c r="J34" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="19" t="s">
         <v>356</v>
       </c>
       <c r="L34" s="5" t="s">
@@ -4194,7 +4188,7 @@
       <c r="J35" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="19" t="s">
         <v>366</v>
       </c>
       <c r="L35" s="5" t="s">
@@ -4313,7 +4307,7 @@
       <c r="K37" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="14" t="s">
         <v>387</v>
       </c>
       <c r="M37" s="5" t="s">
@@ -4476,7 +4470,7 @@
       <c r="J40" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="19" t="s">
         <v>415</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -4702,7 +4696,7 @@
       <c r="J44" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="19" t="s">
         <v>456</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -4808,7 +4802,7 @@
       <c r="J46" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="14" t="s">
         <v>477</v>
       </c>
       <c r="L46" s="5" t="s">
@@ -4904,7 +4898,7 @@
       <c r="J48" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="19" t="s">
         <v>494</v>
       </c>
       <c r="L48" s="5" t="s">
@@ -4962,7 +4956,7 @@
       <c r="J49" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="19" t="s">
         <v>505</v>
       </c>
       <c r="L49" s="5" t="s">
@@ -5080,7 +5074,7 @@
       <c r="J51" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K51" s="19" t="s">
         <v>524</v>
       </c>
       <c r="L51" s="5" t="s">
@@ -5138,7 +5132,7 @@
       <c r="J52" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K52" s="19" t="s">
         <v>533</v>
       </c>
       <c r="L52" s="5" t="s">
@@ -5312,7 +5306,7 @@
       <c r="J55" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="K55" s="20" t="s">
+      <c r="K55" s="19" t="s">
         <v>560</v>
       </c>
       <c r="L55" s="5" t="s">
@@ -5518,10 +5512,10 @@
       <c r="J59" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="L59" s="28" t="s">
+      <c r="L59" s="16" t="s">
         <v>596</v>
       </c>
       <c r="M59" s="5" t="s">
@@ -8979,7 +8973,7 @@
       <c r="P248" s="17"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="29"/>
+      <c r="A249" s="27"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
       <c r="D249" s="17"/>
@@ -8997,7 +8991,7 @@
       <c r="P249" s="17"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="29"/>
+      <c r="A250" s="27"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
       <c r="D250" s="17"/>
@@ -9015,7 +9009,7 @@
       <c r="P250" s="17"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="29"/>
+      <c r="A251" s="27"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
       <c r="D251" s="17"/>
@@ -9033,7 +9027,7 @@
       <c r="P251" s="17"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="29"/>
+      <c r="A252" s="27"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
       <c r="D252" s="17"/>
@@ -9051,7 +9045,7 @@
       <c r="P252" s="17"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="29"/>
+      <c r="A253" s="27"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
       <c r="D253" s="17"/>
@@ -9069,7 +9063,7 @@
       <c r="P253" s="17"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="29"/>
+      <c r="A254" s="27"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
       <c r="D254" s="17"/>
@@ -9087,7 +9081,7 @@
       <c r="P254" s="17"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="29"/>
+      <c r="A255" s="27"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
       <c r="D255" s="17"/>
@@ -9105,7 +9099,7 @@
       <c r="P255" s="17"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="29"/>
+      <c r="A256" s="27"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
       <c r="D256" s="17"/>
@@ -9123,7 +9117,7 @@
       <c r="P256" s="17"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="29"/>
+      <c r="A257" s="27"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
       <c r="D257" s="17"/>
@@ -9141,7 +9135,7 @@
       <c r="P257" s="17"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="29"/>
+      <c r="A258" s="27"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
       <c r="D258" s="17"/>
@@ -9159,7 +9153,7 @@
       <c r="P258" s="17"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="29"/>
+      <c r="A259" s="27"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
       <c r="D259" s="17"/>
@@ -9177,7 +9171,7 @@
       <c r="P259" s="17"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="29"/>
+      <c r="A260" s="27"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
       <c r="D260" s="17"/>
@@ -9195,7 +9189,7 @@
       <c r="P260" s="17"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="29"/>
+      <c r="A261" s="27"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
       <c r="D261" s="17"/>
@@ -9213,7 +9207,7 @@
       <c r="P261" s="17"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="29"/>
+      <c r="A262" s="27"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
       <c r="D262" s="17"/>
@@ -9231,7 +9225,7 @@
       <c r="P262" s="17"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="29"/>
+      <c r="A263" s="27"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
       <c r="D263" s="17"/>
@@ -9249,7 +9243,7 @@
       <c r="P263" s="17"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="29"/>
+      <c r="A264" s="27"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
       <c r="D264" s="17"/>
@@ -9267,7 +9261,7 @@
       <c r="P264" s="17"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="29"/>
+      <c r="A265" s="27"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
       <c r="D265" s="17"/>
@@ -9285,7 +9279,7 @@
       <c r="P265" s="17"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="29"/>
+      <c r="A266" s="27"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
       <c r="D266" s="17"/>
@@ -9303,7 +9297,7 @@
       <c r="P266" s="17"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="29"/>
+      <c r="A267" s="27"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
       <c r="D267" s="17"/>
@@ -9321,7 +9315,7 @@
       <c r="P267" s="17"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="29"/>
+      <c r="A268" s="27"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
       <c r="D268" s="17"/>
@@ -9339,7 +9333,7 @@
       <c r="P268" s="17"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="29"/>
+      <c r="A269" s="27"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
       <c r="D269" s="17"/>
@@ -9357,7 +9351,7 @@
       <c r="P269" s="17"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="29"/>
+      <c r="A270" s="27"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
       <c r="D270" s="17"/>
@@ -9375,7 +9369,7 @@
       <c r="P270" s="17"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="29"/>
+      <c r="A271" s="27"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
       <c r="D271" s="17"/>
@@ -9393,7 +9387,7 @@
       <c r="P271" s="17"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="29"/>
+      <c r="A272" s="27"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
       <c r="D272" s="17"/>
@@ -9411,7 +9405,7 @@
       <c r="P272" s="17"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="29"/>
+      <c r="A273" s="27"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
       <c r="D273" s="17"/>
@@ -9429,7 +9423,7 @@
       <c r="P273" s="17"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="29"/>
+      <c r="A274" s="27"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
       <c r="D274" s="17"/>
@@ -9447,7 +9441,7 @@
       <c r="P274" s="17"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="29"/>
+      <c r="A275" s="27"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
       <c r="D275" s="17"/>
@@ -9465,7 +9459,7 @@
       <c r="P275" s="17"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="29"/>
+      <c r="A276" s="27"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
       <c r="D276" s="17"/>
@@ -9483,7 +9477,7 @@
       <c r="P276" s="17"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="29"/>
+      <c r="A277" s="27"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
       <c r="D277" s="17"/>
@@ -9501,7 +9495,7 @@
       <c r="P277" s="17"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="29"/>
+      <c r="A278" s="27"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
       <c r="D278" s="17"/>
@@ -9519,7 +9513,7 @@
       <c r="P278" s="17"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="29"/>
+      <c r="A279" s="27"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
       <c r="D279" s="17"/>
@@ -9537,7 +9531,7 @@
       <c r="P279" s="17"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="29"/>
+      <c r="A280" s="27"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
       <c r="D280" s="17"/>
@@ -9555,7 +9549,7 @@
       <c r="P280" s="17"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="29"/>
+      <c r="A281" s="27"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
       <c r="D281" s="17"/>
@@ -9573,7 +9567,7 @@
       <c r="P281" s="17"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="29"/>
+      <c r="A282" s="27"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
       <c r="D282" s="17"/>
@@ -9591,7 +9585,7 @@
       <c r="P282" s="17"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="29"/>
+      <c r="A283" s="27"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
       <c r="D283" s="17"/>
@@ -9609,7 +9603,7 @@
       <c r="P283" s="17"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="29"/>
+      <c r="A284" s="27"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
       <c r="D284" s="17"/>
@@ -9627,7 +9621,7 @@
       <c r="P284" s="17"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="29"/>
+      <c r="A285" s="27"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
       <c r="D285" s="17"/>
@@ -9645,7 +9639,7 @@
       <c r="P285" s="17"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="29"/>
+      <c r="A286" s="27"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
       <c r="D286" s="17"/>
@@ -9663,7 +9657,7 @@
       <c r="P286" s="17"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="29"/>
+      <c r="A287" s="27"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
       <c r="D287" s="17"/>
@@ -9681,7 +9675,7 @@
       <c r="P287" s="17"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="29"/>
+      <c r="A288" s="27"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
       <c r="D288" s="17"/>
@@ -9699,7 +9693,7 @@
       <c r="P288" s="17"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="29"/>
+      <c r="A289" s="27"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
       <c r="D289" s="17"/>
@@ -9717,7 +9711,7 @@
       <c r="P289" s="17"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="29"/>
+      <c r="A290" s="27"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
       <c r="D290" s="17"/>
@@ -9735,7 +9729,7 @@
       <c r="P290" s="17"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="29"/>
+      <c r="A291" s="27"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
       <c r="D291" s="17"/>
@@ -9753,7 +9747,7 @@
       <c r="P291" s="17"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="29"/>
+      <c r="A292" s="27"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
       <c r="D292" s="17"/>
@@ -9771,7 +9765,7 @@
       <c r="P292" s="17"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="29"/>
+      <c r="A293" s="27"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
       <c r="D293" s="17"/>
@@ -9789,7 +9783,7 @@
       <c r="P293" s="17"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="29"/>
+      <c r="A294" s="27"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
       <c r="D294" s="17"/>
@@ -9807,7 +9801,7 @@
       <c r="P294" s="17"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="29"/>
+      <c r="A295" s="27"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
       <c r="D295" s="17"/>
@@ -9825,7 +9819,7 @@
       <c r="P295" s="17"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="29"/>
+      <c r="A296" s="27"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
       <c r="D296" s="17"/>
@@ -9843,7 +9837,7 @@
       <c r="P296" s="17"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="29"/>
+      <c r="A297" s="27"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
       <c r="D297" s="17"/>
@@ -9861,7 +9855,7 @@
       <c r="P297" s="17"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="29"/>
+      <c r="A298" s="27"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
       <c r="D298" s="17"/>
@@ -9879,7 +9873,7 @@
       <c r="P298" s="17"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="29"/>
+      <c r="A299" s="27"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
       <c r="D299" s="17"/>
@@ -9897,7 +9891,7 @@
       <c r="P299" s="17"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="29"/>
+      <c r="A300" s="27"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
       <c r="D300" s="17"/>
@@ -9915,7 +9909,7 @@
       <c r="P300" s="17"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="29"/>
+      <c r="A301" s="27"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
       <c r="D301" s="17"/>
@@ -9933,7 +9927,7 @@
       <c r="P301" s="17"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="29"/>
+      <c r="A302" s="27"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
       <c r="D302" s="17"/>
@@ -9951,7 +9945,7 @@
       <c r="P302" s="17"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="29"/>
+      <c r="A303" s="27"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
       <c r="D303" s="17"/>
@@ -9969,7 +9963,7 @@
       <c r="P303" s="17"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="29"/>
+      <c r="A304" s="27"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
       <c r="D304" s="17"/>
@@ -9987,7 +9981,7 @@
       <c r="P304" s="17"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="29"/>
+      <c r="A305" s="27"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
       <c r="D305" s="17"/>
@@ -10005,7 +9999,7 @@
       <c r="P305" s="17"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="29"/>
+      <c r="A306" s="27"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
       <c r="D306" s="17"/>
@@ -10023,7 +10017,7 @@
       <c r="P306" s="17"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="29"/>
+      <c r="A307" s="27"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
       <c r="D307" s="17"/>
@@ -10041,7 +10035,7 @@
       <c r="P307" s="17"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="29"/>
+      <c r="A308" s="27"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
       <c r="D308" s="17"/>
@@ -10059,7 +10053,7 @@
       <c r="P308" s="17"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="29"/>
+      <c r="A309" s="27"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
       <c r="D309" s="17"/>
@@ -10077,7 +10071,7 @@
       <c r="P309" s="17"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="29"/>
+      <c r="A310" s="27"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
       <c r="D310" s="17"/>
@@ -10095,7 +10089,7 @@
       <c r="P310" s="17"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="29"/>
+      <c r="A311" s="27"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
       <c r="D311" s="17"/>
@@ -10113,7 +10107,7 @@
       <c r="P311" s="17"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="29"/>
+      <c r="A312" s="27"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
       <c r="D312" s="17"/>
@@ -10131,7 +10125,7 @@
       <c r="P312" s="17"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="29"/>
+      <c r="A313" s="27"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
       <c r="D313" s="17"/>
@@ -10149,7 +10143,7 @@
       <c r="P313" s="17"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="29"/>
+      <c r="A314" s="27"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
       <c r="D314" s="17"/>
@@ -10167,7 +10161,7 @@
       <c r="P314" s="17"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="29"/>
+      <c r="A315" s="27"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
       <c r="D315" s="17"/>
@@ -10185,7 +10179,7 @@
       <c r="P315" s="17"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="29"/>
+      <c r="A316" s="27"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
       <c r="D316" s="17"/>
@@ -10203,7 +10197,7 @@
       <c r="P316" s="17"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="29"/>
+      <c r="A317" s="27"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
       <c r="D317" s="17"/>
@@ -10221,7 +10215,7 @@
       <c r="P317" s="17"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="29"/>
+      <c r="A318" s="27"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
       <c r="D318" s="17"/>
@@ -10239,7 +10233,7 @@
       <c r="P318" s="17"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="29"/>
+      <c r="A319" s="27"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
       <c r="D319" s="17"/>
@@ -10257,7 +10251,7 @@
       <c r="P319" s="17"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="29"/>
+      <c r="A320" s="27"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
       <c r="D320" s="17"/>
@@ -10275,7 +10269,7 @@
       <c r="P320" s="17"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="29"/>
+      <c r="A321" s="27"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
       <c r="D321" s="17"/>
@@ -10293,7 +10287,7 @@
       <c r="P321" s="17"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="29"/>
+      <c r="A322" s="27"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
       <c r="D322" s="17"/>
@@ -10311,7 +10305,7 @@
       <c r="P322" s="17"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="29"/>
+      <c r="A323" s="27"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
       <c r="D323" s="17"/>
@@ -10329,7 +10323,7 @@
       <c r="P323" s="17"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="29"/>
+      <c r="A324" s="27"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
       <c r="D324" s="17"/>
@@ -10347,7 +10341,7 @@
       <c r="P324" s="17"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="29"/>
+      <c r="A325" s="27"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
       <c r="D325" s="17"/>
@@ -10365,7 +10359,7 @@
       <c r="P325" s="17"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="29"/>
+      <c r="A326" s="27"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
       <c r="D326" s="17"/>
@@ -10383,7 +10377,7 @@
       <c r="P326" s="17"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="29"/>
+      <c r="A327" s="27"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
       <c r="D327" s="17"/>
@@ -10401,7 +10395,7 @@
       <c r="P327" s="17"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="29"/>
+      <c r="A328" s="27"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
       <c r="D328" s="17"/>
@@ -10419,7 +10413,7 @@
       <c r="P328" s="17"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="29"/>
+      <c r="A329" s="27"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
       <c r="D329" s="17"/>
@@ -10437,7 +10431,7 @@
       <c r="P329" s="17"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="29"/>
+      <c r="A330" s="27"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
       <c r="D330" s="17"/>
@@ -10455,7 +10449,7 @@
       <c r="P330" s="17"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="29"/>
+      <c r="A331" s="27"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
       <c r="D331" s="17"/>
@@ -10473,7 +10467,7 @@
       <c r="P331" s="17"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="29"/>
+      <c r="A332" s="27"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
       <c r="D332" s="17"/>
@@ -10491,7 +10485,7 @@
       <c r="P332" s="17"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="29"/>
+      <c r="A333" s="27"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
       <c r="D333" s="17"/>
@@ -10509,7 +10503,7 @@
       <c r="P333" s="17"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="29"/>
+      <c r="A334" s="27"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
       <c r="D334" s="17"/>
@@ -10527,7 +10521,7 @@
       <c r="P334" s="17"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="29"/>
+      <c r="A335" s="27"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
       <c r="D335" s="17"/>
@@ -10545,7 +10539,7 @@
       <c r="P335" s="17"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="29"/>
+      <c r="A336" s="27"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
       <c r="D336" s="17"/>
@@ -10563,7 +10557,7 @@
       <c r="P336" s="17"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="29"/>
+      <c r="A337" s="27"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
       <c r="D337" s="17"/>
@@ -10581,7 +10575,7 @@
       <c r="P337" s="17"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="29"/>
+      <c r="A338" s="27"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
       <c r="D338" s="17"/>
@@ -10599,7 +10593,7 @@
       <c r="P338" s="17"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="29"/>
+      <c r="A339" s="27"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
       <c r="D339" s="17"/>
@@ -10617,7 +10611,7 @@
       <c r="P339" s="17"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="29"/>
+      <c r="A340" s="27"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
       <c r="D340" s="17"/>
@@ -10635,7 +10629,7 @@
       <c r="P340" s="17"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="29"/>
+      <c r="A341" s="27"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
       <c r="D341" s="17"/>
@@ -10653,7 +10647,7 @@
       <c r="P341" s="17"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="29"/>
+      <c r="A342" s="27"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
       <c r="D342" s="17"/>
@@ -10671,7 +10665,7 @@
       <c r="P342" s="17"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="29"/>
+      <c r="A343" s="27"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
       <c r="D343" s="17"/>
@@ -10689,7 +10683,7 @@
       <c r="P343" s="17"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="29"/>
+      <c r="A344" s="27"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
       <c r="D344" s="17"/>
@@ -10707,7 +10701,7 @@
       <c r="P344" s="17"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="29"/>
+      <c r="A345" s="27"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
       <c r="D345" s="17"/>
@@ -10725,7 +10719,7 @@
       <c r="P345" s="17"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="29"/>
+      <c r="A346" s="27"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
       <c r="D346" s="17"/>
@@ -10743,7 +10737,7 @@
       <c r="P346" s="17"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="29"/>
+      <c r="A347" s="27"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
       <c r="D347" s="17"/>
@@ -10761,7 +10755,7 @@
       <c r="P347" s="17"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="29"/>
+      <c r="A348" s="27"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
       <c r="D348" s="17"/>
@@ -10779,7 +10773,7 @@
       <c r="P348" s="17"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="29"/>
+      <c r="A349" s="27"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
       <c r="D349" s="17"/>
@@ -10797,7 +10791,7 @@
       <c r="P349" s="17"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="29"/>
+      <c r="A350" s="27"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
       <c r="D350" s="17"/>
@@ -10815,7 +10809,7 @@
       <c r="P350" s="17"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="29"/>
+      <c r="A351" s="27"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
       <c r="D351" s="17"/>
@@ -10833,7 +10827,7 @@
       <c r="P351" s="17"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="29"/>
+      <c r="A352" s="27"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
       <c r="D352" s="17"/>
@@ -10851,7 +10845,7 @@
       <c r="P352" s="17"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="29"/>
+      <c r="A353" s="27"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
       <c r="D353" s="17"/>
@@ -10869,7 +10863,7 @@
       <c r="P353" s="17"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="29"/>
+      <c r="A354" s="27"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
       <c r="D354" s="17"/>
@@ -10887,7 +10881,7 @@
       <c r="P354" s="17"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="29"/>
+      <c r="A355" s="27"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
       <c r="D355" s="17"/>
@@ -10905,7 +10899,7 @@
       <c r="P355" s="17"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="29"/>
+      <c r="A356" s="27"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
       <c r="D356" s="17"/>
@@ -10923,7 +10917,7 @@
       <c r="P356" s="17"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="29"/>
+      <c r="A357" s="27"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
       <c r="D357" s="17"/>
@@ -10941,7 +10935,7 @@
       <c r="P357" s="17"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="29"/>
+      <c r="A358" s="27"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
       <c r="D358" s="17"/>
@@ -10959,7 +10953,7 @@
       <c r="P358" s="17"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="29"/>
+      <c r="A359" s="27"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
       <c r="D359" s="17"/>
@@ -10977,7 +10971,7 @@
       <c r="P359" s="17"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="29"/>
+      <c r="A360" s="27"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
       <c r="D360" s="17"/>
@@ -10995,7 +10989,7 @@
       <c r="P360" s="17"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="29"/>
+      <c r="A361" s="27"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
       <c r="D361" s="17"/>
@@ -11013,7 +11007,7 @@
       <c r="P361" s="17"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="29"/>
+      <c r="A362" s="27"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
       <c r="D362" s="17"/>
@@ -11031,7 +11025,7 @@
       <c r="P362" s="17"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="29"/>
+      <c r="A363" s="27"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
       <c r="D363" s="17"/>
@@ -11049,7 +11043,7 @@
       <c r="P363" s="17"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="29"/>
+      <c r="A364" s="27"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
       <c r="D364" s="17"/>
@@ -11067,7 +11061,7 @@
       <c r="P364" s="17"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="29"/>
+      <c r="A365" s="27"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
       <c r="D365" s="17"/>
@@ -11085,7 +11079,7 @@
       <c r="P365" s="17"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="29"/>
+      <c r="A366" s="27"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
       <c r="D366" s="17"/>
@@ -11103,7 +11097,7 @@
       <c r="P366" s="17"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="29"/>
+      <c r="A367" s="27"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
       <c r="D367" s="17"/>
@@ -11121,7 +11115,7 @@
       <c r="P367" s="17"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="29"/>
+      <c r="A368" s="27"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
       <c r="D368" s="17"/>
@@ -11139,7 +11133,7 @@
       <c r="P368" s="17"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="29"/>
+      <c r="A369" s="27"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
       <c r="D369" s="17"/>
@@ -11157,7 +11151,7 @@
       <c r="P369" s="17"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="29"/>
+      <c r="A370" s="27"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
       <c r="D370" s="17"/>
@@ -11175,7 +11169,7 @@
       <c r="P370" s="17"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="29"/>
+      <c r="A371" s="27"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
       <c r="D371" s="17"/>
@@ -11193,7 +11187,7 @@
       <c r="P371" s="17"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="29"/>
+      <c r="A372" s="27"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
       <c r="D372" s="17"/>
@@ -11211,7 +11205,7 @@
       <c r="P372" s="17"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="29"/>
+      <c r="A373" s="27"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
       <c r="D373" s="17"/>
@@ -11229,7 +11223,7 @@
       <c r="P373" s="17"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="29"/>
+      <c r="A374" s="27"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
       <c r="D374" s="17"/>
@@ -11247,7 +11241,7 @@
       <c r="P374" s="17"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="29"/>
+      <c r="A375" s="27"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
       <c r="D375" s="17"/>
@@ -11265,7 +11259,7 @@
       <c r="P375" s="17"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="29"/>
+      <c r="A376" s="27"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
       <c r="D376" s="17"/>
@@ -11283,7 +11277,7 @@
       <c r="P376" s="17"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="29"/>
+      <c r="A377" s="27"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
       <c r="D377" s="17"/>
@@ -11301,7 +11295,7 @@
       <c r="P377" s="17"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="29"/>
+      <c r="A378" s="27"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
       <c r="D378" s="17"/>
@@ -11319,7 +11313,7 @@
       <c r="P378" s="17"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="29"/>
+      <c r="A379" s="27"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
       <c r="D379" s="17"/>
@@ -11337,7 +11331,7 @@
       <c r="P379" s="17"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="29"/>
+      <c r="A380" s="27"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
       <c r="D380" s="17"/>
@@ -11355,7 +11349,7 @@
       <c r="P380" s="17"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="29"/>
+      <c r="A381" s="27"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
       <c r="D381" s="17"/>
@@ -11373,7 +11367,7 @@
       <c r="P381" s="17"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="29"/>
+      <c r="A382" s="27"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
       <c r="D382" s="17"/>
@@ -11391,7 +11385,7 @@
       <c r="P382" s="17"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="29"/>
+      <c r="A383" s="27"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
       <c r="D383" s="17"/>
@@ -11409,7 +11403,7 @@
       <c r="P383" s="17"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="29"/>
+      <c r="A384" s="27"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
       <c r="D384" s="17"/>
@@ -11427,7 +11421,7 @@
       <c r="P384" s="17"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="29"/>
+      <c r="A385" s="27"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
       <c r="D385" s="17"/>
@@ -11445,7 +11439,7 @@
       <c r="P385" s="17"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="29"/>
+      <c r="A386" s="27"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
       <c r="D386" s="17"/>
@@ -11463,7 +11457,7 @@
       <c r="P386" s="17"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="29"/>
+      <c r="A387" s="27"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
       <c r="D387" s="17"/>
@@ -11481,7 +11475,7 @@
       <c r="P387" s="17"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="29"/>
+      <c r="A388" s="27"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
       <c r="D388" s="17"/>
@@ -11499,7 +11493,7 @@
       <c r="P388" s="17"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="29"/>
+      <c r="A389" s="27"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
       <c r="D389" s="17"/>
@@ -11517,7 +11511,7 @@
       <c r="P389" s="17"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="29"/>
+      <c r="A390" s="27"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
       <c r="D390" s="17"/>
@@ -11535,7 +11529,7 @@
       <c r="P390" s="17"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="29"/>
+      <c r="A391" s="27"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
       <c r="D391" s="17"/>
@@ -11553,7 +11547,7 @@
       <c r="P391" s="17"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="29"/>
+      <c r="A392" s="27"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
       <c r="D392" s="17"/>
@@ -11571,7 +11565,7 @@
       <c r="P392" s="17"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="29"/>
+      <c r="A393" s="27"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
       <c r="D393" s="17"/>
@@ -11589,7 +11583,7 @@
       <c r="P393" s="17"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="29"/>
+      <c r="A394" s="27"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
       <c r="D394" s="17"/>
@@ -11607,7 +11601,7 @@
       <c r="P394" s="17"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="29"/>
+      <c r="A395" s="27"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
       <c r="D395" s="17"/>
@@ -11625,7 +11619,7 @@
       <c r="P395" s="17"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="29"/>
+      <c r="A396" s="27"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
       <c r="D396" s="17"/>
@@ -11643,7 +11637,7 @@
       <c r="P396" s="17"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="29"/>
+      <c r="A397" s="27"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
       <c r="D397" s="17"/>
@@ -11661,7 +11655,7 @@
       <c r="P397" s="17"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="29"/>
+      <c r="A398" s="27"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
       <c r="D398" s="17"/>
@@ -11679,7 +11673,7 @@
       <c r="P398" s="17"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="29"/>
+      <c r="A399" s="27"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
       <c r="D399" s="17"/>
@@ -11697,7 +11691,7 @@
       <c r="P399" s="17"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="29"/>
+      <c r="A400" s="27"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
       <c r="D400" s="17"/>
@@ -11715,7 +11709,7 @@
       <c r="P400" s="17"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="29"/>
+      <c r="A401" s="27"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
       <c r="D401" s="17"/>
@@ -11733,7 +11727,7 @@
       <c r="P401" s="17"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="29"/>
+      <c r="A402" s="27"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
       <c r="D402" s="17"/>
@@ -11751,7 +11745,7 @@
       <c r="P402" s="17"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="29"/>
+      <c r="A403" s="27"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
       <c r="D403" s="17"/>
@@ -11769,7 +11763,7 @@
       <c r="P403" s="17"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="29"/>
+      <c r="A404" s="27"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
       <c r="D404" s="17"/>
@@ -11787,7 +11781,7 @@
       <c r="P404" s="17"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="29"/>
+      <c r="A405" s="27"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
       <c r="D405" s="17"/>
@@ -11805,7 +11799,7 @@
       <c r="P405" s="17"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="29"/>
+      <c r="A406" s="27"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
       <c r="D406" s="17"/>
@@ -11823,7 +11817,7 @@
       <c r="P406" s="17"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="29"/>
+      <c r="A407" s="27"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
       <c r="D407" s="17"/>
@@ -11841,7 +11835,7 @@
       <c r="P407" s="17"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="29"/>
+      <c r="A408" s="27"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
       <c r="D408" s="17"/>
@@ -11859,7 +11853,7 @@
       <c r="P408" s="17"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="29"/>
+      <c r="A409" s="27"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
       <c r="D409" s="17"/>
@@ -11877,7 +11871,7 @@
       <c r="P409" s="17"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="29"/>
+      <c r="A410" s="27"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
       <c r="D410" s="17"/>
@@ -11895,7 +11889,7 @@
       <c r="P410" s="17"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="29"/>
+      <c r="A411" s="27"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
       <c r="D411" s="17"/>
@@ -11913,7 +11907,7 @@
       <c r="P411" s="17"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="29"/>
+      <c r="A412" s="27"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
       <c r="D412" s="17"/>
@@ -11931,7 +11925,7 @@
       <c r="P412" s="17"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="29"/>
+      <c r="A413" s="27"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
       <c r="D413" s="17"/>
@@ -11949,7 +11943,7 @@
       <c r="P413" s="17"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="29"/>
+      <c r="A414" s="27"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
       <c r="D414" s="17"/>
@@ -11967,7 +11961,7 @@
       <c r="P414" s="17"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="29"/>
+      <c r="A415" s="27"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
       <c r="D415" s="17"/>
@@ -11985,7 +11979,7 @@
       <c r="P415" s="17"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="29"/>
+      <c r="A416" s="27"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
       <c r="D416" s="17"/>
@@ -12003,7 +11997,7 @@
       <c r="P416" s="17"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="29"/>
+      <c r="A417" s="27"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
       <c r="D417" s="17"/>
@@ -12021,7 +12015,7 @@
       <c r="P417" s="17"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="29"/>
+      <c r="A418" s="27"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
       <c r="D418" s="17"/>
@@ -12039,7 +12033,7 @@
       <c r="P418" s="17"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="29"/>
+      <c r="A419" s="27"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
       <c r="D419" s="17"/>
@@ -12057,7 +12051,7 @@
       <c r="P419" s="17"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="29"/>
+      <c r="A420" s="27"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
       <c r="D420" s="17"/>
@@ -12075,7 +12069,7 @@
       <c r="P420" s="17"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="29"/>
+      <c r="A421" s="27"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
       <c r="D421" s="17"/>
@@ -12093,7 +12087,7 @@
       <c r="P421" s="17"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="29"/>
+      <c r="A422" s="27"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
       <c r="D422" s="17"/>
@@ -12111,7 +12105,7 @@
       <c r="P422" s="17"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="29"/>
+      <c r="A423" s="27"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
       <c r="D423" s="17"/>
@@ -12129,7 +12123,7 @@
       <c r="P423" s="17"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="29"/>
+      <c r="A424" s="27"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
       <c r="D424" s="17"/>
@@ -12147,7 +12141,7 @@
       <c r="P424" s="17"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="29"/>
+      <c r="A425" s="27"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
       <c r="D425" s="17"/>
@@ -12165,7 +12159,7 @@
       <c r="P425" s="17"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="29"/>
+      <c r="A426" s="27"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
       <c r="D426" s="17"/>
@@ -12183,7 +12177,7 @@
       <c r="P426" s="17"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="29"/>
+      <c r="A427" s="27"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
       <c r="D427" s="17"/>
@@ -12201,7 +12195,7 @@
       <c r="P427" s="17"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="29"/>
+      <c r="A428" s="27"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
       <c r="D428" s="17"/>
@@ -12219,7 +12213,7 @@
       <c r="P428" s="17"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="29"/>
+      <c r="A429" s="27"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
       <c r="D429" s="17"/>
@@ -12237,7 +12231,7 @@
       <c r="P429" s="17"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="29"/>
+      <c r="A430" s="27"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
       <c r="D430" s="17"/>
@@ -12255,7 +12249,7 @@
       <c r="P430" s="17"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="29"/>
+      <c r="A431" s="27"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
       <c r="D431" s="17"/>
@@ -12273,7 +12267,7 @@
       <c r="P431" s="17"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="29"/>
+      <c r="A432" s="27"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
       <c r="D432" s="17"/>
@@ -12291,7 +12285,7 @@
       <c r="P432" s="17"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="29"/>
+      <c r="A433" s="27"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
       <c r="D433" s="17"/>
@@ -12309,7 +12303,7 @@
       <c r="P433" s="17"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="29"/>
+      <c r="A434" s="27"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
       <c r="D434" s="17"/>
@@ -12327,7 +12321,7 @@
       <c r="P434" s="17"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="29"/>
+      <c r="A435" s="27"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
       <c r="D435" s="17"/>
@@ -12345,7 +12339,7 @@
       <c r="P435" s="17"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="29"/>
+      <c r="A436" s="27"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
       <c r="D436" s="17"/>
@@ -12363,7 +12357,7 @@
       <c r="P436" s="17"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="29"/>
+      <c r="A437" s="27"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
       <c r="D437" s="17"/>
@@ -12381,7 +12375,7 @@
       <c r="P437" s="17"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="29"/>
+      <c r="A438" s="27"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
       <c r="D438" s="17"/>
@@ -12399,7 +12393,7 @@
       <c r="P438" s="17"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="29"/>
+      <c r="A439" s="27"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
       <c r="D439" s="17"/>
@@ -12417,7 +12411,7 @@
       <c r="P439" s="17"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="29"/>
+      <c r="A440" s="27"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
       <c r="D440" s="17"/>
@@ -12435,7 +12429,7 @@
       <c r="P440" s="17"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="29"/>
+      <c r="A441" s="27"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
       <c r="D441" s="17"/>
@@ -12453,7 +12447,7 @@
       <c r="P441" s="17"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="29"/>
+      <c r="A442" s="27"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
       <c r="D442" s="17"/>
@@ -12471,7 +12465,7 @@
       <c r="P442" s="17"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="29"/>
+      <c r="A443" s="27"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
       <c r="D443" s="17"/>
@@ -12489,7 +12483,7 @@
       <c r="P443" s="17"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="29"/>
+      <c r="A444" s="27"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
       <c r="D444" s="17"/>
@@ -12507,7 +12501,7 @@
       <c r="P444" s="17"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="29"/>
+      <c r="A445" s="27"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
       <c r="D445" s="17"/>
@@ -12525,7 +12519,7 @@
       <c r="P445" s="17"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="29"/>
+      <c r="A446" s="27"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
       <c r="D446" s="17"/>
@@ -12543,7 +12537,7 @@
       <c r="P446" s="17"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="29"/>
+      <c r="A447" s="27"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
       <c r="D447" s="17"/>
@@ -12561,7 +12555,7 @@
       <c r="P447" s="17"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="29"/>
+      <c r="A448" s="27"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
       <c r="D448" s="17"/>
@@ -12579,7 +12573,7 @@
       <c r="P448" s="17"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="29"/>
+      <c r="A449" s="27"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
       <c r="D449" s="17"/>
@@ -12597,7 +12591,7 @@
       <c r="P449" s="17"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="29"/>
+      <c r="A450" s="27"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
       <c r="D450" s="17"/>
@@ -12615,7 +12609,7 @@
       <c r="P450" s="17"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="29"/>
+      <c r="A451" s="27"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
       <c r="D451" s="17"/>
@@ -12633,7 +12627,7 @@
       <c r="P451" s="17"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="29"/>
+      <c r="A452" s="27"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
       <c r="D452" s="17"/>
@@ -12651,7 +12645,7 @@
       <c r="P452" s="17"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="29"/>
+      <c r="A453" s="27"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
       <c r="D453" s="17"/>
@@ -12669,7 +12663,7 @@
       <c r="P453" s="17"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="29"/>
+      <c r="A454" s="27"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
       <c r="D454" s="17"/>
@@ -12687,7 +12681,7 @@
       <c r="P454" s="17"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="29"/>
+      <c r="A455" s="27"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
       <c r="D455" s="17"/>
@@ -12705,7 +12699,7 @@
       <c r="P455" s="17"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="29"/>
+      <c r="A456" s="27"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
       <c r="D456" s="17"/>
@@ -12723,7 +12717,7 @@
       <c r="P456" s="17"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="29"/>
+      <c r="A457" s="27"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
       <c r="D457" s="17"/>
@@ -12741,7 +12735,7 @@
       <c r="P457" s="17"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="29"/>
+      <c r="A458" s="27"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
       <c r="D458" s="17"/>
@@ -12759,7 +12753,7 @@
       <c r="P458" s="17"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="29"/>
+      <c r="A459" s="27"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
       <c r="D459" s="17"/>
@@ -12777,7 +12771,7 @@
       <c r="P459" s="17"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="29"/>
+      <c r="A460" s="27"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
       <c r="D460" s="17"/>
@@ -12795,7 +12789,7 @@
       <c r="P460" s="17"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="29"/>
+      <c r="A461" s="27"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
       <c r="D461" s="17"/>
@@ -12813,7 +12807,7 @@
       <c r="P461" s="17"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="29"/>
+      <c r="A462" s="27"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
       <c r="D462" s="17"/>
@@ -12831,7 +12825,7 @@
       <c r="P462" s="17"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="29"/>
+      <c r="A463" s="27"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
       <c r="D463" s="17"/>
@@ -12849,7 +12843,7 @@
       <c r="P463" s="17"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="29"/>
+      <c r="A464" s="27"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
       <c r="D464" s="17"/>
@@ -12867,7 +12861,7 @@
       <c r="P464" s="17"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="29"/>
+      <c r="A465" s="27"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
       <c r="D465" s="17"/>
@@ -12885,7 +12879,7 @@
       <c r="P465" s="17"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="29"/>
+      <c r="A466" s="27"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
       <c r="D466" s="17"/>
@@ -12903,7 +12897,7 @@
       <c r="P466" s="17"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="29"/>
+      <c r="A467" s="27"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
       <c r="D467" s="17"/>
@@ -12921,7 +12915,7 @@
       <c r="P467" s="17"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="29"/>
+      <c r="A468" s="27"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
       <c r="D468" s="17"/>
@@ -12939,7 +12933,7 @@
       <c r="P468" s="17"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="29"/>
+      <c r="A469" s="27"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
       <c r="D469" s="17"/>
@@ -12957,7 +12951,7 @@
       <c r="P469" s="17"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="29"/>
+      <c r="A470" s="27"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
       <c r="D470" s="17"/>
@@ -12975,7 +12969,7 @@
       <c r="P470" s="17"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="29"/>
+      <c r="A471" s="27"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
       <c r="D471" s="17"/>
@@ -12993,7 +12987,7 @@
       <c r="P471" s="17"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="29"/>
+      <c r="A472" s="27"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
       <c r="D472" s="17"/>
@@ -13011,7 +13005,7 @@
       <c r="P472" s="17"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="29"/>
+      <c r="A473" s="27"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
       <c r="D473" s="17"/>
@@ -13029,7 +13023,7 @@
       <c r="P473" s="17"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="29"/>
+      <c r="A474" s="27"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
       <c r="D474" s="17"/>
@@ -13047,7 +13041,7 @@
       <c r="P474" s="17"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="29"/>
+      <c r="A475" s="27"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
       <c r="D475" s="17"/>
@@ -13065,7 +13059,7 @@
       <c r="P475" s="17"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="29"/>
+      <c r="A476" s="27"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
       <c r="D476" s="17"/>
@@ -13083,7 +13077,7 @@
       <c r="P476" s="17"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="29"/>
+      <c r="A477" s="27"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
       <c r="D477" s="17"/>
@@ -13101,7 +13095,7 @@
       <c r="P477" s="17"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="29"/>
+      <c r="A478" s="27"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
       <c r="D478" s="17"/>
@@ -13119,7 +13113,7 @@
       <c r="P478" s="17"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="29"/>
+      <c r="A479" s="27"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
       <c r="D479" s="17"/>
@@ -13137,7 +13131,7 @@
       <c r="P479" s="17"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="29"/>
+      <c r="A480" s="27"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
       <c r="D480" s="17"/>
@@ -13155,7 +13149,7 @@
       <c r="P480" s="17"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="29"/>
+      <c r="A481" s="27"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
       <c r="D481" s="17"/>
@@ -13173,7 +13167,7 @@
       <c r="P481" s="17"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="29"/>
+      <c r="A482" s="27"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
       <c r="D482" s="17"/>
@@ -13191,7 +13185,7 @@
       <c r="P482" s="17"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="29"/>
+      <c r="A483" s="27"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
       <c r="D483" s="17"/>
@@ -13209,7 +13203,7 @@
       <c r="P483" s="17"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="29"/>
+      <c r="A484" s="27"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
       <c r="D484" s="17"/>
@@ -13227,7 +13221,7 @@
       <c r="P484" s="17"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="29"/>
+      <c r="A485" s="27"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
       <c r="D485" s="17"/>
@@ -13245,7 +13239,7 @@
       <c r="P485" s="17"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="29"/>
+      <c r="A486" s="27"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
       <c r="D486" s="17"/>
@@ -13263,7 +13257,7 @@
       <c r="P486" s="17"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="29"/>
+      <c r="A487" s="27"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
       <c r="D487" s="17"/>
@@ -13281,7 +13275,7 @@
       <c r="P487" s="17"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="29"/>
+      <c r="A488" s="27"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
       <c r="D488" s="17"/>
@@ -13299,7 +13293,7 @@
       <c r="P488" s="17"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="29"/>
+      <c r="A489" s="27"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
       <c r="D489" s="17"/>
@@ -13317,7 +13311,7 @@
       <c r="P489" s="17"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="29"/>
+      <c r="A490" s="27"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
       <c r="D490" s="17"/>
@@ -13335,7 +13329,7 @@
       <c r="P490" s="17"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="29"/>
+      <c r="A491" s="27"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
       <c r="D491" s="17"/>
@@ -13353,7 +13347,7 @@
       <c r="P491" s="17"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="29"/>
+      <c r="A492" s="27"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
       <c r="D492" s="17"/>
@@ -13371,7 +13365,7 @@
       <c r="P492" s="17"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="29"/>
+      <c r="A493" s="27"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
       <c r="D493" s="17"/>
@@ -13389,7 +13383,7 @@
       <c r="P493" s="17"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="29"/>
+      <c r="A494" s="27"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
       <c r="D494" s="17"/>
@@ -13407,7 +13401,7 @@
       <c r="P494" s="17"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="29"/>
+      <c r="A495" s="27"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
       <c r="D495" s="17"/>
@@ -13425,7 +13419,7 @@
       <c r="P495" s="17"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="29"/>
+      <c r="A496" s="27"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
       <c r="D496" s="17"/>
@@ -13443,7 +13437,7 @@
       <c r="P496" s="17"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="29"/>
+      <c r="A497" s="27"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
       <c r="D497" s="17"/>
@@ -13461,7 +13455,7 @@
       <c r="P497" s="17"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="29"/>
+      <c r="A498" s="27"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
       <c r="D498" s="17"/>
@@ -13479,7 +13473,7 @@
       <c r="P498" s="17"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="29"/>
+      <c r="A499" s="27"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
       <c r="D499" s="17"/>
@@ -13497,7 +13491,7 @@
       <c r="P499" s="17"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="29"/>
+      <c r="A500" s="27"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
       <c r="D500" s="17"/>
@@ -13515,7 +13509,7 @@
       <c r="P500" s="17"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="29"/>
+      <c r="A501" s="27"/>
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
       <c r="D501" s="17"/>
@@ -13533,7 +13527,7 @@
       <c r="P501" s="17"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="29"/>
+      <c r="A502" s="27"/>
       <c r="B502" s="17"/>
       <c r="C502" s="17"/>
       <c r="D502" s="17"/>
@@ -13551,7 +13545,7 @@
       <c r="P502" s="17"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="29"/>
+      <c r="A503" s="27"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17"/>
       <c r="D503" s="17"/>
@@ -13569,7 +13563,7 @@
       <c r="P503" s="17"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="29"/>
+      <c r="A504" s="27"/>
       <c r="B504" s="17"/>
       <c r="C504" s="17"/>
       <c r="D504" s="17"/>
@@ -13587,7 +13581,7 @@
       <c r="P504" s="17"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="29"/>
+      <c r="A505" s="27"/>
       <c r="B505" s="17"/>
       <c r="C505" s="17"/>
       <c r="D505" s="17"/>
@@ -13605,7 +13599,7 @@
       <c r="P505" s="17"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="29"/>
+      <c r="A506" s="27"/>
       <c r="B506" s="17"/>
       <c r="C506" s="17"/>
       <c r="D506" s="17"/>
@@ -13623,7 +13617,7 @@
       <c r="P506" s="17"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="29"/>
+      <c r="A507" s="27"/>
       <c r="B507" s="17"/>
       <c r="C507" s="17"/>
       <c r="D507" s="17"/>
@@ -13641,7 +13635,7 @@
       <c r="P507" s="17"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="29"/>
+      <c r="A508" s="27"/>
       <c r="B508" s="17"/>
       <c r="C508" s="17"/>
       <c r="D508" s="17"/>
@@ -13659,7 +13653,7 @@
       <c r="P508" s="17"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="29"/>
+      <c r="A509" s="27"/>
       <c r="B509" s="17"/>
       <c r="C509" s="17"/>
       <c r="D509" s="17"/>
@@ -13677,7 +13671,7 @@
       <c r="P509" s="17"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="29"/>
+      <c r="A510" s="27"/>
       <c r="B510" s="17"/>
       <c r="C510" s="17"/>
       <c r="D510" s="17"/>
@@ -13695,7 +13689,7 @@
       <c r="P510" s="17"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="29"/>
+      <c r="A511" s="27"/>
       <c r="B511" s="17"/>
       <c r="C511" s="17"/>
       <c r="D511" s="17"/>
@@ -13713,7 +13707,7 @@
       <c r="P511" s="17"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="29"/>
+      <c r="A512" s="27"/>
       <c r="B512" s="17"/>
       <c r="C512" s="17"/>
       <c r="D512" s="17"/>
@@ -13731,7 +13725,7 @@
       <c r="P512" s="17"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="29"/>
+      <c r="A513" s="27"/>
       <c r="B513" s="17"/>
       <c r="C513" s="17"/>
       <c r="D513" s="17"/>
@@ -13749,7 +13743,7 @@
       <c r="P513" s="17"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="29"/>
+      <c r="A514" s="27"/>
       <c r="B514" s="17"/>
       <c r="C514" s="17"/>
       <c r="D514" s="17"/>
@@ -13767,7 +13761,7 @@
       <c r="P514" s="17"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="29"/>
+      <c r="A515" s="27"/>
       <c r="B515" s="17"/>
       <c r="C515" s="17"/>
       <c r="D515" s="17"/>
@@ -13785,7 +13779,7 @@
       <c r="P515" s="17"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="29"/>
+      <c r="A516" s="27"/>
       <c r="B516" s="17"/>
       <c r="C516" s="17"/>
       <c r="D516" s="17"/>
@@ -13803,7 +13797,7 @@
       <c r="P516" s="17"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="29"/>
+      <c r="A517" s="27"/>
       <c r="B517" s="17"/>
       <c r="C517" s="17"/>
       <c r="D517" s="17"/>
@@ -13821,7 +13815,7 @@
       <c r="P517" s="17"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="29"/>
+      <c r="A518" s="27"/>
       <c r="B518" s="17"/>
       <c r="C518" s="17"/>
       <c r="D518" s="17"/>
@@ -13839,7 +13833,7 @@
       <c r="P518" s="17"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="29"/>
+      <c r="A519" s="27"/>
       <c r="B519" s="17"/>
       <c r="C519" s="17"/>
       <c r="D519" s="17"/>
@@ -13857,7 +13851,7 @@
       <c r="P519" s="17"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="29"/>
+      <c r="A520" s="27"/>
       <c r="B520" s="17"/>
       <c r="C520" s="17"/>
       <c r="D520" s="17"/>
@@ -13875,7 +13869,7 @@
       <c r="P520" s="17"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="29"/>
+      <c r="A521" s="27"/>
       <c r="B521" s="17"/>
       <c r="C521" s="17"/>
       <c r="D521" s="17"/>
@@ -13893,7 +13887,7 @@
       <c r="P521" s="17"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="29"/>
+      <c r="A522" s="27"/>
       <c r="B522" s="17"/>
       <c r="C522" s="17"/>
       <c r="D522" s="17"/>
@@ -13911,7 +13905,7 @@
       <c r="P522" s="17"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="29"/>
+      <c r="A523" s="27"/>
       <c r="B523" s="17"/>
       <c r="C523" s="17"/>
       <c r="D523" s="17"/>
@@ -13929,7 +13923,7 @@
       <c r="P523" s="17"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="29"/>
+      <c r="A524" s="27"/>
       <c r="B524" s="17"/>
       <c r="C524" s="17"/>
       <c r="D524" s="17"/>
@@ -13947,7 +13941,7 @@
       <c r="P524" s="17"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="29"/>
+      <c r="A525" s="27"/>
       <c r="B525" s="17"/>
       <c r="C525" s="17"/>
       <c r="D525" s="17"/>
@@ -13965,7 +13959,7 @@
       <c r="P525" s="17"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="29"/>
+      <c r="A526" s="27"/>
       <c r="B526" s="17"/>
       <c r="C526" s="17"/>
       <c r="D526" s="17"/>
@@ -13983,7 +13977,7 @@
       <c r="P526" s="17"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="29"/>
+      <c r="A527" s="27"/>
       <c r="B527" s="17"/>
       <c r="C527" s="17"/>
       <c r="D527" s="17"/>
@@ -14001,7 +13995,7 @@
       <c r="P527" s="17"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="29"/>
+      <c r="A528" s="27"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
       <c r="D528" s="17"/>
@@ -14019,7 +14013,7 @@
       <c r="P528" s="17"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="29"/>
+      <c r="A529" s="27"/>
       <c r="B529" s="17"/>
       <c r="C529" s="17"/>
       <c r="D529" s="17"/>
@@ -14037,7 +14031,7 @@
       <c r="P529" s="17"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="29"/>
+      <c r="A530" s="27"/>
       <c r="B530" s="17"/>
       <c r="C530" s="17"/>
       <c r="D530" s="17"/>
@@ -14055,7 +14049,7 @@
       <c r="P530" s="17"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="29"/>
+      <c r="A531" s="27"/>
       <c r="B531" s="17"/>
       <c r="C531" s="17"/>
       <c r="D531" s="17"/>
@@ -14073,7 +14067,7 @@
       <c r="P531" s="17"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="29"/>
+      <c r="A532" s="27"/>
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
       <c r="D532" s="17"/>
@@ -14091,7 +14085,7 @@
       <c r="P532" s="17"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="29"/>
+      <c r="A533" s="27"/>
       <c r="B533" s="17"/>
       <c r="C533" s="17"/>
       <c r="D533" s="17"/>
@@ -14109,7 +14103,7 @@
       <c r="P533" s="17"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="29"/>
+      <c r="A534" s="27"/>
       <c r="B534" s="17"/>
       <c r="C534" s="17"/>
       <c r="D534" s="17"/>
@@ -14127,7 +14121,7 @@
       <c r="P534" s="17"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="29"/>
+      <c r="A535" s="27"/>
       <c r="B535" s="17"/>
       <c r="C535" s="17"/>
       <c r="D535" s="17"/>
@@ -14145,7 +14139,7 @@
       <c r="P535" s="17"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="29"/>
+      <c r="A536" s="27"/>
       <c r="B536" s="17"/>
       <c r="C536" s="17"/>
       <c r="D536" s="17"/>
@@ -14163,7 +14157,7 @@
       <c r="P536" s="17"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="29"/>
+      <c r="A537" s="27"/>
       <c r="B537" s="17"/>
       <c r="C537" s="17"/>
       <c r="D537" s="17"/>
@@ -14181,7 +14175,7 @@
       <c r="P537" s="17"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="29"/>
+      <c r="A538" s="27"/>
       <c r="B538" s="17"/>
       <c r="C538" s="17"/>
       <c r="D538" s="17"/>
@@ -14199,7 +14193,7 @@
       <c r="P538" s="17"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="29"/>
+      <c r="A539" s="27"/>
       <c r="B539" s="17"/>
       <c r="C539" s="17"/>
       <c r="D539" s="17"/>
@@ -14217,7 +14211,7 @@
       <c r="P539" s="17"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="29"/>
+      <c r="A540" s="27"/>
       <c r="B540" s="17"/>
       <c r="C540" s="17"/>
       <c r="D540" s="17"/>
@@ -14235,7 +14229,7 @@
       <c r="P540" s="17"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="29"/>
+      <c r="A541" s="27"/>
       <c r="B541" s="17"/>
       <c r="C541" s="17"/>
       <c r="D541" s="17"/>
@@ -14253,7 +14247,7 @@
       <c r="P541" s="17"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="29"/>
+      <c r="A542" s="27"/>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
       <c r="D542" s="17"/>
@@ -14271,7 +14265,7 @@
       <c r="P542" s="17"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="29"/>
+      <c r="A543" s="27"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
       <c r="D543" s="17"/>
@@ -14289,7 +14283,7 @@
       <c r="P543" s="17"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="29"/>
+      <c r="A544" s="27"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
       <c r="D544" s="17"/>
@@ -14307,7 +14301,7 @@
       <c r="P544" s="17"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="29"/>
+      <c r="A545" s="27"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
       <c r="D545" s="17"/>
@@ -14325,7 +14319,7 @@
       <c r="P545" s="17"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="29"/>
+      <c r="A546" s="27"/>
       <c r="B546" s="17"/>
       <c r="C546" s="17"/>
       <c r="D546" s="17"/>
@@ -14343,7 +14337,7 @@
       <c r="P546" s="17"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="29"/>
+      <c r="A547" s="27"/>
       <c r="B547" s="17"/>
       <c r="C547" s="17"/>
       <c r="D547" s="17"/>
@@ -14361,7 +14355,7 @@
       <c r="P547" s="17"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="29"/>
+      <c r="A548" s="27"/>
       <c r="B548" s="17"/>
       <c r="C548" s="17"/>
       <c r="D548" s="17"/>
@@ -14379,7 +14373,7 @@
       <c r="P548" s="17"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="29"/>
+      <c r="A549" s="27"/>
       <c r="B549" s="17"/>
       <c r="C549" s="17"/>
       <c r="D549" s="17"/>
@@ -14397,7 +14391,7 @@
       <c r="P549" s="17"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="29"/>
+      <c r="A550" s="27"/>
       <c r="B550" s="17"/>
       <c r="C550" s="17"/>
       <c r="D550" s="17"/>
@@ -14415,7 +14409,7 @@
       <c r="P550" s="17"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="29"/>
+      <c r="A551" s="27"/>
       <c r="B551" s="17"/>
       <c r="C551" s="17"/>
       <c r="D551" s="17"/>
@@ -14433,7 +14427,7 @@
       <c r="P551" s="17"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="29"/>
+      <c r="A552" s="27"/>
       <c r="B552" s="17"/>
       <c r="C552" s="17"/>
       <c r="D552" s="17"/>
@@ -14451,7 +14445,7 @@
       <c r="P552" s="17"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="29"/>
+      <c r="A553" s="27"/>
       <c r="B553" s="17"/>
       <c r="C553" s="17"/>
       <c r="D553" s="17"/>
@@ -14469,7 +14463,7 @@
       <c r="P553" s="17"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="29"/>
+      <c r="A554" s="27"/>
       <c r="B554" s="17"/>
       <c r="C554" s="17"/>
       <c r="D554" s="17"/>
@@ -14487,7 +14481,7 @@
       <c r="P554" s="17"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="29"/>
+      <c r="A555" s="27"/>
       <c r="B555" s="17"/>
       <c r="C555" s="17"/>
       <c r="D555" s="17"/>
@@ -14505,7 +14499,7 @@
       <c r="P555" s="17"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="29"/>
+      <c r="A556" s="27"/>
       <c r="B556" s="17"/>
       <c r="C556" s="17"/>
       <c r="D556" s="17"/>
@@ -14523,7 +14517,7 @@
       <c r="P556" s="17"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="29"/>
+      <c r="A557" s="27"/>
       <c r="B557" s="17"/>
       <c r="C557" s="17"/>
       <c r="D557" s="17"/>
@@ -14541,7 +14535,7 @@
       <c r="P557" s="17"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="29"/>
+      <c r="A558" s="27"/>
       <c r="B558" s="17"/>
       <c r="C558" s="17"/>
       <c r="D558" s="17"/>
@@ -14559,7 +14553,7 @@
       <c r="P558" s="17"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="29"/>
+      <c r="A559" s="27"/>
       <c r="B559" s="17"/>
       <c r="C559" s="17"/>
       <c r="D559" s="17"/>
@@ -14577,7 +14571,7 @@
       <c r="P559" s="17"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="29"/>
+      <c r="A560" s="27"/>
       <c r="B560" s="17"/>
       <c r="C560" s="17"/>
       <c r="D560" s="17"/>
@@ -14595,7 +14589,7 @@
       <c r="P560" s="17"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="29"/>
+      <c r="A561" s="27"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
       <c r="D561" s="17"/>
@@ -14613,7 +14607,7 @@
       <c r="P561" s="17"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="29"/>
+      <c r="A562" s="27"/>
       <c r="B562" s="17"/>
       <c r="C562" s="17"/>
       <c r="D562" s="17"/>
@@ -14631,7 +14625,7 @@
       <c r="P562" s="17"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="29"/>
+      <c r="A563" s="27"/>
       <c r="B563" s="17"/>
       <c r="C563" s="17"/>
       <c r="D563" s="17"/>
@@ -14649,7 +14643,7 @@
       <c r="P563" s="17"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="29"/>
+      <c r="A564" s="27"/>
       <c r="B564" s="17"/>
       <c r="C564" s="17"/>
       <c r="D564" s="17"/>
@@ -14667,7 +14661,7 @@
       <c r="P564" s="17"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="29"/>
+      <c r="A565" s="27"/>
       <c r="B565" s="17"/>
       <c r="C565" s="17"/>
       <c r="D565" s="17"/>
@@ -14685,7 +14679,7 @@
       <c r="P565" s="17"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="29"/>
+      <c r="A566" s="27"/>
       <c r="B566" s="17"/>
       <c r="C566" s="17"/>
       <c r="D566" s="17"/>
@@ -14703,7 +14697,7 @@
       <c r="P566" s="17"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="29"/>
+      <c r="A567" s="27"/>
       <c r="B567" s="17"/>
       <c r="C567" s="17"/>
       <c r="D567" s="17"/>
@@ -14721,7 +14715,7 @@
       <c r="P567" s="17"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="29"/>
+      <c r="A568" s="27"/>
       <c r="B568" s="17"/>
       <c r="C568" s="17"/>
       <c r="D568" s="17"/>
@@ -14739,7 +14733,7 @@
       <c r="P568" s="17"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="29"/>
+      <c r="A569" s="27"/>
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
       <c r="D569" s="17"/>
@@ -14757,7 +14751,7 @@
       <c r="P569" s="17"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="29"/>
+      <c r="A570" s="27"/>
       <c r="B570" s="17"/>
       <c r="C570" s="17"/>
       <c r="D570" s="17"/>
@@ -14775,7 +14769,7 @@
       <c r="P570" s="17"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="29"/>
+      <c r="A571" s="27"/>
       <c r="B571" s="17"/>
       <c r="C571" s="17"/>
       <c r="D571" s="17"/>
@@ -14793,7 +14787,7 @@
       <c r="P571" s="17"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="29"/>
+      <c r="A572" s="27"/>
       <c r="B572" s="17"/>
       <c r="C572" s="17"/>
       <c r="D572" s="17"/>
@@ -14811,7 +14805,7 @@
       <c r="P572" s="17"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="29"/>
+      <c r="A573" s="27"/>
       <c r="B573" s="17"/>
       <c r="C573" s="17"/>
       <c r="D573" s="17"/>
@@ -14829,7 +14823,7 @@
       <c r="P573" s="17"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="29"/>
+      <c r="A574" s="27"/>
       <c r="B574" s="17"/>
       <c r="C574" s="17"/>
       <c r="D574" s="17"/>
@@ -14847,7 +14841,7 @@
       <c r="P574" s="17"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="29"/>
+      <c r="A575" s="27"/>
       <c r="B575" s="17"/>
       <c r="C575" s="17"/>
       <c r="D575" s="17"/>
@@ -14865,7 +14859,7 @@
       <c r="P575" s="17"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="29"/>
+      <c r="A576" s="27"/>
       <c r="B576" s="17"/>
       <c r="C576" s="17"/>
       <c r="D576" s="17"/>
@@ -14883,7 +14877,7 @@
       <c r="P576" s="17"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="29"/>
+      <c r="A577" s="27"/>
       <c r="B577" s="17"/>
       <c r="C577" s="17"/>
       <c r="D577" s="17"/>
@@ -14901,7 +14895,7 @@
       <c r="P577" s="17"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="29"/>
+      <c r="A578" s="27"/>
       <c r="B578" s="17"/>
       <c r="C578" s="17"/>
       <c r="D578" s="17"/>
@@ -14919,7 +14913,7 @@
       <c r="P578" s="17"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="29"/>
+      <c r="A579" s="27"/>
       <c r="B579" s="17"/>
       <c r="C579" s="17"/>
       <c r="D579" s="17"/>
@@ -14937,7 +14931,7 @@
       <c r="P579" s="17"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="29"/>
+      <c r="A580" s="27"/>
       <c r="B580" s="17"/>
       <c r="C580" s="17"/>
       <c r="D580" s="17"/>
@@ -14955,7 +14949,7 @@
       <c r="P580" s="17"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="29"/>
+      <c r="A581" s="27"/>
       <c r="B581" s="17"/>
       <c r="C581" s="17"/>
       <c r="D581" s="17"/>
@@ -14973,7 +14967,7 @@
       <c r="P581" s="17"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="29"/>
+      <c r="A582" s="27"/>
       <c r="B582" s="17"/>
       <c r="C582" s="17"/>
       <c r="D582" s="17"/>
@@ -14991,7 +14985,7 @@
       <c r="P582" s="17"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="29"/>
+      <c r="A583" s="27"/>
       <c r="B583" s="17"/>
       <c r="C583" s="17"/>
       <c r="D583" s="17"/>
@@ -15009,7 +15003,7 @@
       <c r="P583" s="17"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="29"/>
+      <c r="A584" s="27"/>
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
       <c r="D584" s="17"/>
@@ -15027,7 +15021,7 @@
       <c r="P584" s="17"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="29"/>
+      <c r="A585" s="27"/>
       <c r="B585" s="17"/>
       <c r="C585" s="17"/>
       <c r="D585" s="17"/>
@@ -15045,7 +15039,7 @@
       <c r="P585" s="17"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="29"/>
+      <c r="A586" s="27"/>
       <c r="B586" s="17"/>
       <c r="C586" s="17"/>
       <c r="D586" s="17"/>
@@ -15063,7 +15057,7 @@
       <c r="P586" s="17"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="29"/>
+      <c r="A587" s="27"/>
       <c r="B587" s="17"/>
       <c r="C587" s="17"/>
       <c r="D587" s="17"/>
@@ -15081,7 +15075,7 @@
       <c r="P587" s="17"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="29"/>
+      <c r="A588" s="27"/>
       <c r="B588" s="17"/>
       <c r="C588" s="17"/>
       <c r="D588" s="17"/>
@@ -15099,7 +15093,7 @@
       <c r="P588" s="17"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="29"/>
+      <c r="A589" s="27"/>
       <c r="B589" s="17"/>
       <c r="C589" s="17"/>
       <c r="D589" s="17"/>
@@ -15117,7 +15111,7 @@
       <c r="P589" s="17"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="29"/>
+      <c r="A590" s="27"/>
       <c r="B590" s="17"/>
       <c r="C590" s="17"/>
       <c r="D590" s="17"/>
@@ -15135,7 +15129,7 @@
       <c r="P590" s="17"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="29"/>
+      <c r="A591" s="27"/>
       <c r="B591" s="17"/>
       <c r="C591" s="17"/>
       <c r="D591" s="17"/>
@@ -15153,7 +15147,7 @@
       <c r="P591" s="17"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="29"/>
+      <c r="A592" s="27"/>
       <c r="B592" s="17"/>
       <c r="C592" s="17"/>
       <c r="D592" s="17"/>
@@ -15171,7 +15165,7 @@
       <c r="P592" s="17"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="29"/>
+      <c r="A593" s="27"/>
       <c r="B593" s="17"/>
       <c r="C593" s="17"/>
       <c r="D593" s="17"/>
@@ -15189,7 +15183,7 @@
       <c r="P593" s="17"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="29"/>
+      <c r="A594" s="27"/>
       <c r="B594" s="17"/>
       <c r="C594" s="17"/>
       <c r="D594" s="17"/>
@@ -15207,7 +15201,7 @@
       <c r="P594" s="17"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="29"/>
+      <c r="A595" s="27"/>
       <c r="B595" s="17"/>
       <c r="C595" s="17"/>
       <c r="D595" s="17"/>
@@ -15225,7 +15219,7 @@
       <c r="P595" s="17"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="29"/>
+      <c r="A596" s="27"/>
       <c r="B596" s="17"/>
       <c r="C596" s="17"/>
       <c r="D596" s="17"/>
@@ -15243,7 +15237,7 @@
       <c r="P596" s="17"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="29"/>
+      <c r="A597" s="27"/>
       <c r="B597" s="17"/>
       <c r="C597" s="17"/>
       <c r="D597" s="17"/>
@@ -15261,7 +15255,7 @@
       <c r="P597" s="17"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="29"/>
+      <c r="A598" s="27"/>
       <c r="B598" s="17"/>
       <c r="C598" s="17"/>
       <c r="D598" s="17"/>
@@ -15279,7 +15273,7 @@
       <c r="P598" s="17"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="29"/>
+      <c r="A599" s="27"/>
       <c r="B599" s="17"/>
       <c r="C599" s="17"/>
       <c r="D599" s="17"/>
@@ -15297,7 +15291,7 @@
       <c r="P599" s="17"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="29"/>
+      <c r="A600" s="27"/>
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
       <c r="D600" s="17"/>
@@ -15315,7 +15309,7 @@
       <c r="P600" s="17"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="29"/>
+      <c r="A601" s="27"/>
       <c r="B601" s="17"/>
       <c r="C601" s="17"/>
       <c r="D601" s="17"/>
@@ -15333,7 +15327,7 @@
       <c r="P601" s="17"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="29"/>
+      <c r="A602" s="27"/>
       <c r="B602" s="17"/>
       <c r="C602" s="17"/>
       <c r="D602" s="17"/>
@@ -15351,7 +15345,7 @@
       <c r="P602" s="17"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="29"/>
+      <c r="A603" s="27"/>
       <c r="B603" s="17"/>
       <c r="C603" s="17"/>
       <c r="D603" s="17"/>
@@ -15369,7 +15363,7 @@
       <c r="P603" s="17"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="29"/>
+      <c r="A604" s="27"/>
       <c r="B604" s="17"/>
       <c r="C604" s="17"/>
       <c r="D604" s="17"/>
@@ -15387,7 +15381,7 @@
       <c r="P604" s="17"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="29"/>
+      <c r="A605" s="27"/>
       <c r="B605" s="17"/>
       <c r="C605" s="17"/>
       <c r="D605" s="17"/>
@@ -15405,7 +15399,7 @@
       <c r="P605" s="17"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="29"/>
+      <c r="A606" s="27"/>
       <c r="B606" s="17"/>
       <c r="C606" s="17"/>
       <c r="D606" s="17"/>
@@ -15423,7 +15417,7 @@
       <c r="P606" s="17"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="29"/>
+      <c r="A607" s="27"/>
       <c r="B607" s="17"/>
       <c r="C607" s="17"/>
       <c r="D607" s="17"/>
@@ -15441,7 +15435,7 @@
       <c r="P607" s="17"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="29"/>
+      <c r="A608" s="27"/>
       <c r="B608" s="17"/>
       <c r="C608" s="17"/>
       <c r="D608" s="17"/>
@@ -15459,7 +15453,7 @@
       <c r="P608" s="17"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="29"/>
+      <c r="A609" s="27"/>
       <c r="B609" s="17"/>
       <c r="C609" s="17"/>
       <c r="D609" s="17"/>
@@ -15477,7 +15471,7 @@
       <c r="P609" s="17"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="29"/>
+      <c r="A610" s="27"/>
       <c r="B610" s="17"/>
       <c r="C610" s="17"/>
       <c r="D610" s="17"/>
@@ -15495,7 +15489,7 @@
       <c r="P610" s="17"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="29"/>
+      <c r="A611" s="27"/>
       <c r="B611" s="17"/>
       <c r="C611" s="17"/>
       <c r="D611" s="17"/>
@@ -15513,7 +15507,7 @@
       <c r="P611" s="17"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="29"/>
+      <c r="A612" s="27"/>
       <c r="B612" s="17"/>
       <c r="C612" s="17"/>
       <c r="D612" s="17"/>
@@ -15531,7 +15525,7 @@
       <c r="P612" s="17"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="29"/>
+      <c r="A613" s="27"/>
       <c r="B613" s="17"/>
       <c r="C613" s="17"/>
       <c r="D613" s="17"/>
@@ -15549,7 +15543,7 @@
       <c r="P613" s="17"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="29"/>
+      <c r="A614" s="27"/>
       <c r="B614" s="17"/>
       <c r="C614" s="17"/>
       <c r="D614" s="17"/>
@@ -15567,7 +15561,7 @@
       <c r="P614" s="17"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="29"/>
+      <c r="A615" s="27"/>
       <c r="B615" s="17"/>
       <c r="C615" s="17"/>
       <c r="D615" s="17"/>
@@ -15585,7 +15579,7 @@
       <c r="P615" s="17"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="29"/>
+      <c r="A616" s="27"/>
       <c r="B616" s="17"/>
       <c r="C616" s="17"/>
       <c r="D616" s="17"/>
@@ -15603,7 +15597,7 @@
       <c r="P616" s="17"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="29"/>
+      <c r="A617" s="27"/>
       <c r="B617" s="17"/>
       <c r="C617" s="17"/>
       <c r="D617" s="17"/>
@@ -15621,7 +15615,7 @@
       <c r="P617" s="17"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="29"/>
+      <c r="A618" s="27"/>
       <c r="B618" s="17"/>
       <c r="C618" s="17"/>
       <c r="D618" s="17"/>
@@ -15639,7 +15633,7 @@
       <c r="P618" s="17"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="29"/>
+      <c r="A619" s="27"/>
       <c r="B619" s="17"/>
       <c r="C619" s="17"/>
       <c r="D619" s="17"/>
@@ -15657,7 +15651,7 @@
       <c r="P619" s="17"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="29"/>
+      <c r="A620" s="27"/>
       <c r="B620" s="17"/>
       <c r="C620" s="17"/>
       <c r="D620" s="17"/>
@@ -15675,7 +15669,7 @@
       <c r="P620" s="17"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="29"/>
+      <c r="A621" s="27"/>
       <c r="B621" s="17"/>
       <c r="C621" s="17"/>
       <c r="D621" s="17"/>
@@ -15693,7 +15687,7 @@
       <c r="P621" s="17"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="29"/>
+      <c r="A622" s="27"/>
       <c r="B622" s="17"/>
       <c r="C622" s="17"/>
       <c r="D622" s="17"/>
@@ -15711,7 +15705,7 @@
       <c r="P622" s="17"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="29"/>
+      <c r="A623" s="27"/>
       <c r="B623" s="17"/>
       <c r="C623" s="17"/>
       <c r="D623" s="17"/>
@@ -15729,7 +15723,7 @@
       <c r="P623" s="17"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="29"/>
+      <c r="A624" s="27"/>
       <c r="B624" s="17"/>
       <c r="C624" s="17"/>
       <c r="D624" s="17"/>
@@ -15747,7 +15741,7 @@
       <c r="P624" s="17"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="29"/>
+      <c r="A625" s="27"/>
       <c r="B625" s="17"/>
       <c r="C625" s="17"/>
       <c r="D625" s="17"/>
@@ -15765,7 +15759,7 @@
       <c r="P625" s="17"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="29"/>
+      <c r="A626" s="27"/>
       <c r="B626" s="17"/>
       <c r="C626" s="17"/>
       <c r="D626" s="17"/>
@@ -15783,7 +15777,7 @@
       <c r="P626" s="17"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="29"/>
+      <c r="A627" s="27"/>
       <c r="B627" s="17"/>
       <c r="C627" s="17"/>
       <c r="D627" s="17"/>
@@ -15801,7 +15795,7 @@
       <c r="P627" s="17"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="29"/>
+      <c r="A628" s="27"/>
       <c r="B628" s="17"/>
       <c r="C628" s="17"/>
       <c r="D628" s="17"/>
@@ -15819,7 +15813,7 @@
       <c r="P628" s="17"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="29"/>
+      <c r="A629" s="27"/>
       <c r="B629" s="17"/>
       <c r="C629" s="17"/>
       <c r="D629" s="17"/>
@@ -15837,7 +15831,7 @@
       <c r="P629" s="17"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="29"/>
+      <c r="A630" s="27"/>
       <c r="B630" s="17"/>
       <c r="C630" s="17"/>
       <c r="D630" s="17"/>
@@ -15855,7 +15849,7 @@
       <c r="P630" s="17"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="29"/>
+      <c r="A631" s="27"/>
       <c r="B631" s="17"/>
       <c r="C631" s="17"/>
       <c r="D631" s="17"/>
@@ -15873,7 +15867,7 @@
       <c r="P631" s="17"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="29"/>
+      <c r="A632" s="27"/>
       <c r="B632" s="17"/>
       <c r="C632" s="17"/>
       <c r="D632" s="17"/>
@@ -15891,7 +15885,7 @@
       <c r="P632" s="17"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="29"/>
+      <c r="A633" s="27"/>
       <c r="B633" s="17"/>
       <c r="C633" s="17"/>
       <c r="D633" s="17"/>
@@ -15909,7 +15903,7 @@
       <c r="P633" s="17"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="29"/>
+      <c r="A634" s="27"/>
       <c r="B634" s="17"/>
       <c r="C634" s="17"/>
       <c r="D634" s="17"/>
@@ -15927,7 +15921,7 @@
       <c r="P634" s="17"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="29"/>
+      <c r="A635" s="27"/>
       <c r="B635" s="17"/>
       <c r="C635" s="17"/>
       <c r="D635" s="17"/>
@@ -15945,7 +15939,7 @@
       <c r="P635" s="17"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="29"/>
+      <c r="A636" s="27"/>
       <c r="B636" s="17"/>
       <c r="C636" s="17"/>
       <c r="D636" s="17"/>
@@ -15963,7 +15957,7 @@
       <c r="P636" s="17"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="29"/>
+      <c r="A637" s="27"/>
       <c r="B637" s="17"/>
       <c r="C637" s="17"/>
       <c r="D637" s="17"/>
@@ -15981,7 +15975,7 @@
       <c r="P637" s="17"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="29"/>
+      <c r="A638" s="27"/>
       <c r="B638" s="17"/>
       <c r="C638" s="17"/>
       <c r="D638" s="17"/>
@@ -15999,7 +15993,7 @@
       <c r="P638" s="17"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="29"/>
+      <c r="A639" s="27"/>
       <c r="B639" s="17"/>
       <c r="C639" s="17"/>
       <c r="D639" s="17"/>
@@ -16017,7 +16011,7 @@
       <c r="P639" s="17"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="29"/>
+      <c r="A640" s="27"/>
       <c r="B640" s="17"/>
       <c r="C640" s="17"/>
       <c r="D640" s="17"/>
@@ -16035,7 +16029,7 @@
       <c r="P640" s="17"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="29"/>
+      <c r="A641" s="27"/>
       <c r="B641" s="17"/>
       <c r="C641" s="17"/>
       <c r="D641" s="17"/>
@@ -16053,7 +16047,7 @@
       <c r="P641" s="17"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="29"/>
+      <c r="A642" s="27"/>
       <c r="B642" s="17"/>
       <c r="C642" s="17"/>
       <c r="D642" s="17"/>
@@ -16071,7 +16065,7 @@
       <c r="P642" s="17"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="29"/>
+      <c r="A643" s="27"/>
       <c r="B643" s="17"/>
       <c r="C643" s="17"/>
       <c r="D643" s="17"/>
@@ -16089,7 +16083,7 @@
       <c r="P643" s="17"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="29"/>
+      <c r="A644" s="27"/>
       <c r="B644" s="17"/>
       <c r="C644" s="17"/>
       <c r="D644" s="17"/>
@@ -16107,7 +16101,7 @@
       <c r="P644" s="17"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="29"/>
+      <c r="A645" s="27"/>
       <c r="B645" s="17"/>
       <c r="C645" s="17"/>
       <c r="D645" s="17"/>
@@ -16125,7 +16119,7 @@
       <c r="P645" s="17"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="29"/>
+      <c r="A646" s="27"/>
       <c r="B646" s="17"/>
       <c r="C646" s="17"/>
       <c r="D646" s="17"/>
@@ -16143,7 +16137,7 @@
       <c r="P646" s="17"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="29"/>
+      <c r="A647" s="27"/>
       <c r="B647" s="17"/>
       <c r="C647" s="17"/>
       <c r="D647" s="17"/>
@@ -16161,7 +16155,7 @@
       <c r="P647" s="17"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="29"/>
+      <c r="A648" s="27"/>
       <c r="B648" s="17"/>
       <c r="C648" s="17"/>
       <c r="D648" s="17"/>
@@ -16179,7 +16173,7 @@
       <c r="P648" s="17"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="29"/>
+      <c r="A649" s="27"/>
       <c r="B649" s="17"/>
       <c r="C649" s="17"/>
       <c r="D649" s="17"/>
@@ -16197,7 +16191,7 @@
       <c r="P649" s="17"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="29"/>
+      <c r="A650" s="27"/>
       <c r="B650" s="17"/>
       <c r="C650" s="17"/>
       <c r="D650" s="17"/>
@@ -16215,7 +16209,7 @@
       <c r="P650" s="17"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="29"/>
+      <c r="A651" s="27"/>
       <c r="B651" s="17"/>
       <c r="C651" s="17"/>
       <c r="D651" s="17"/>
@@ -16233,7 +16227,7 @@
       <c r="P651" s="17"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="29"/>
+      <c r="A652" s="27"/>
       <c r="B652" s="17"/>
       <c r="C652" s="17"/>
       <c r="D652" s="17"/>
@@ -16251,7 +16245,7 @@
       <c r="P652" s="17"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="29"/>
+      <c r="A653" s="27"/>
       <c r="B653" s="17"/>
       <c r="C653" s="17"/>
       <c r="D653" s="17"/>
@@ -16269,7 +16263,7 @@
       <c r="P653" s="17"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="29"/>
+      <c r="A654" s="27"/>
       <c r="B654" s="17"/>
       <c r="C654" s="17"/>
       <c r="D654" s="17"/>
@@ -16287,7 +16281,7 @@
       <c r="P654" s="17"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="29"/>
+      <c r="A655" s="27"/>
       <c r="B655" s="17"/>
       <c r="C655" s="17"/>
       <c r="D655" s="17"/>
@@ -16305,7 +16299,7 @@
       <c r="P655" s="17"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="29"/>
+      <c r="A656" s="27"/>
       <c r="B656" s="17"/>
       <c r="C656" s="17"/>
       <c r="D656" s="17"/>
@@ -16323,7 +16317,7 @@
       <c r="P656" s="17"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="29"/>
+      <c r="A657" s="27"/>
       <c r="B657" s="17"/>
       <c r="C657" s="17"/>
       <c r="D657" s="17"/>
@@ -16341,7 +16335,7 @@
       <c r="P657" s="17"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="29"/>
+      <c r="A658" s="27"/>
       <c r="B658" s="17"/>
       <c r="C658" s="17"/>
       <c r="D658" s="17"/>
@@ -16359,7 +16353,7 @@
       <c r="P658" s="17"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="29"/>
+      <c r="A659" s="27"/>
       <c r="B659" s="17"/>
       <c r="C659" s="17"/>
       <c r="D659" s="17"/>
@@ -16377,7 +16371,7 @@
       <c r="P659" s="17"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="29"/>
+      <c r="A660" s="27"/>
       <c r="B660" s="17"/>
       <c r="C660" s="17"/>
       <c r="D660" s="17"/>
@@ -16395,7 +16389,7 @@
       <c r="P660" s="17"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="29"/>
+      <c r="A661" s="27"/>
       <c r="B661" s="17"/>
       <c r="C661" s="17"/>
       <c r="D661" s="17"/>
@@ -16413,7 +16407,7 @@
       <c r="P661" s="17"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="29"/>
+      <c r="A662" s="27"/>
       <c r="B662" s="17"/>
       <c r="C662" s="17"/>
       <c r="D662" s="17"/>
@@ -16431,7 +16425,7 @@
       <c r="P662" s="17"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="29"/>
+      <c r="A663" s="27"/>
       <c r="B663" s="17"/>
       <c r="C663" s="17"/>
       <c r="D663" s="17"/>
@@ -16449,7 +16443,7 @@
       <c r="P663" s="17"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="29"/>
+      <c r="A664" s="27"/>
       <c r="B664" s="17"/>
       <c r="C664" s="17"/>
       <c r="D664" s="17"/>
@@ -16467,7 +16461,7 @@
       <c r="P664" s="17"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="29"/>
+      <c r="A665" s="27"/>
       <c r="B665" s="17"/>
       <c r="C665" s="17"/>
       <c r="D665" s="17"/>
@@ -16485,7 +16479,7 @@
       <c r="P665" s="17"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="29"/>
+      <c r="A666" s="27"/>
       <c r="B666" s="17"/>
       <c r="C666" s="17"/>
       <c r="D666" s="17"/>
@@ -16503,7 +16497,7 @@
       <c r="P666" s="17"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="29"/>
+      <c r="A667" s="27"/>
       <c r="B667" s="17"/>
       <c r="C667" s="17"/>
       <c r="D667" s="17"/>
@@ -16521,7 +16515,7 @@
       <c r="P667" s="17"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="29"/>
+      <c r="A668" s="27"/>
       <c r="B668" s="17"/>
       <c r="C668" s="17"/>
       <c r="D668" s="17"/>
@@ -16539,7 +16533,7 @@
       <c r="P668" s="17"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="29"/>
+      <c r="A669" s="27"/>
       <c r="B669" s="17"/>
       <c r="C669" s="17"/>
       <c r="D669" s="17"/>
@@ -16557,7 +16551,7 @@
       <c r="P669" s="17"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="29"/>
+      <c r="A670" s="27"/>
       <c r="B670" s="17"/>
       <c r="C670" s="17"/>
       <c r="D670" s="17"/>
@@ -16575,7 +16569,7 @@
       <c r="P670" s="17"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="29"/>
+      <c r="A671" s="27"/>
       <c r="B671" s="17"/>
       <c r="C671" s="17"/>
       <c r="D671" s="17"/>
@@ -16593,7 +16587,7 @@
       <c r="P671" s="17"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="29"/>
+      <c r="A672" s="27"/>
       <c r="B672" s="17"/>
       <c r="C672" s="17"/>
       <c r="D672" s="17"/>
@@ -16611,7 +16605,7 @@
       <c r="P672" s="17"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="29"/>
+      <c r="A673" s="27"/>
       <c r="B673" s="17"/>
       <c r="C673" s="17"/>
       <c r="D673" s="17"/>
@@ -16629,7 +16623,7 @@
       <c r="P673" s="17"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="29"/>
+      <c r="A674" s="27"/>
       <c r="B674" s="17"/>
       <c r="C674" s="17"/>
       <c r="D674" s="17"/>
@@ -16647,7 +16641,7 @@
       <c r="P674" s="17"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="29"/>
+      <c r="A675" s="27"/>
       <c r="B675" s="17"/>
       <c r="C675" s="17"/>
       <c r="D675" s="17"/>
@@ -16665,7 +16659,7 @@
       <c r="P675" s="17"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="29"/>
+      <c r="A676" s="27"/>
       <c r="B676" s="17"/>
       <c r="C676" s="17"/>
       <c r="D676" s="17"/>
@@ -16683,7 +16677,7 @@
       <c r="P676" s="17"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="29"/>
+      <c r="A677" s="27"/>
       <c r="B677" s="17"/>
       <c r="C677" s="17"/>
       <c r="D677" s="17"/>
@@ -16701,7 +16695,7 @@
       <c r="P677" s="17"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="29"/>
+      <c r="A678" s="27"/>
       <c r="B678" s="17"/>
       <c r="C678" s="17"/>
       <c r="D678" s="17"/>
@@ -16719,7 +16713,7 @@
       <c r="P678" s="17"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="29"/>
+      <c r="A679" s="27"/>
       <c r="B679" s="17"/>
       <c r="C679" s="17"/>
       <c r="D679" s="17"/>
@@ -16737,7 +16731,7 @@
       <c r="P679" s="17"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="29"/>
+      <c r="A680" s="27"/>
       <c r="B680" s="17"/>
       <c r="C680" s="17"/>
       <c r="D680" s="17"/>
@@ -16755,7 +16749,7 @@
       <c r="P680" s="17"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="29"/>
+      <c r="A681" s="27"/>
       <c r="B681" s="17"/>
       <c r="C681" s="17"/>
       <c r="D681" s="17"/>
@@ -16773,7 +16767,7 @@
       <c r="P681" s="17"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="29"/>
+      <c r="A682" s="27"/>
       <c r="B682" s="17"/>
       <c r="C682" s="17"/>
       <c r="D682" s="17"/>
@@ -16791,7 +16785,7 @@
       <c r="P682" s="17"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="29"/>
+      <c r="A683" s="27"/>
       <c r="B683" s="17"/>
       <c r="C683" s="17"/>
       <c r="D683" s="17"/>
@@ -16809,7 +16803,7 @@
       <c r="P683" s="17"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="29"/>
+      <c r="A684" s="27"/>
       <c r="B684" s="17"/>
       <c r="C684" s="17"/>
       <c r="D684" s="17"/>
@@ -16827,7 +16821,7 @@
       <c r="P684" s="17"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="29"/>
+      <c r="A685" s="27"/>
       <c r="B685" s="17"/>
       <c r="C685" s="17"/>
       <c r="D685" s="17"/>
@@ -16845,7 +16839,7 @@
       <c r="P685" s="17"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="29"/>
+      <c r="A686" s="27"/>
       <c r="B686" s="17"/>
       <c r="C686" s="17"/>
       <c r="D686" s="17"/>
@@ -16863,7 +16857,7 @@
       <c r="P686" s="17"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="29"/>
+      <c r="A687" s="27"/>
       <c r="B687" s="17"/>
       <c r="C687" s="17"/>
       <c r="D687" s="17"/>
@@ -16881,7 +16875,7 @@
       <c r="P687" s="17"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="29"/>
+      <c r="A688" s="27"/>
       <c r="B688" s="17"/>
       <c r="C688" s="17"/>
       <c r="D688" s="17"/>
@@ -16899,7 +16893,7 @@
       <c r="P688" s="17"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="29"/>
+      <c r="A689" s="27"/>
       <c r="B689" s="17"/>
       <c r="C689" s="17"/>
       <c r="D689" s="17"/>
@@ -16917,7 +16911,7 @@
       <c r="P689" s="17"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="29"/>
+      <c r="A690" s="27"/>
       <c r="B690" s="17"/>
       <c r="C690" s="17"/>
       <c r="D690" s="17"/>
@@ -16935,7 +16929,7 @@
       <c r="P690" s="17"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="29"/>
+      <c r="A691" s="27"/>
       <c r="B691" s="17"/>
       <c r="C691" s="17"/>
       <c r="D691" s="17"/>
@@ -16953,7 +16947,7 @@
       <c r="P691" s="17"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="29"/>
+      <c r="A692" s="27"/>
       <c r="B692" s="17"/>
       <c r="C692" s="17"/>
       <c r="D692" s="17"/>
@@ -16971,7 +16965,7 @@
       <c r="P692" s="17"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="29"/>
+      <c r="A693" s="27"/>
       <c r="B693" s="17"/>
       <c r="C693" s="17"/>
       <c r="D693" s="17"/>
@@ -16989,7 +16983,7 @@
       <c r="P693" s="17"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="29"/>
+      <c r="A694" s="27"/>
       <c r="B694" s="17"/>
       <c r="C694" s="17"/>
       <c r="D694" s="17"/>
@@ -17007,7 +17001,7 @@
       <c r="P694" s="17"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="29"/>
+      <c r="A695" s="27"/>
       <c r="B695" s="17"/>
       <c r="C695" s="17"/>
       <c r="D695" s="17"/>
@@ -17025,7 +17019,7 @@
       <c r="P695" s="17"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="29"/>
+      <c r="A696" s="27"/>
       <c r="B696" s="17"/>
       <c r="C696" s="17"/>
       <c r="D696" s="17"/>
@@ -17043,7 +17037,7 @@
       <c r="P696" s="17"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="29"/>
+      <c r="A697" s="27"/>
       <c r="B697" s="17"/>
       <c r="C697" s="17"/>
       <c r="D697" s="17"/>
@@ -17061,7 +17055,7 @@
       <c r="P697" s="17"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="29"/>
+      <c r="A698" s="27"/>
       <c r="B698" s="17"/>
       <c r="C698" s="17"/>
       <c r="D698" s="17"/>
@@ -17079,7 +17073,7 @@
       <c r="P698" s="17"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="29"/>
+      <c r="A699" s="27"/>
       <c r="B699" s="17"/>
       <c r="C699" s="17"/>
       <c r="D699" s="17"/>
@@ -17097,7 +17091,7 @@
       <c r="P699" s="17"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="29"/>
+      <c r="A700" s="27"/>
       <c r="B700" s="17"/>
       <c r="C700" s="17"/>
       <c r="D700" s="17"/>
@@ -17115,7 +17109,7 @@
       <c r="P700" s="17"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="29"/>
+      <c r="A701" s="27"/>
       <c r="B701" s="17"/>
       <c r="C701" s="17"/>
       <c r="D701" s="17"/>
@@ -17133,7 +17127,7 @@
       <c r="P701" s="17"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="29"/>
+      <c r="A702" s="27"/>
       <c r="B702" s="17"/>
       <c r="C702" s="17"/>
       <c r="D702" s="17"/>
@@ -17151,7 +17145,7 @@
       <c r="P702" s="17"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="29"/>
+      <c r="A703" s="27"/>
       <c r="B703" s="17"/>
       <c r="C703" s="17"/>
       <c r="D703" s="17"/>
@@ -17169,7 +17163,7 @@
       <c r="P703" s="17"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="29"/>
+      <c r="A704" s="27"/>
       <c r="B704" s="17"/>
       <c r="C704" s="17"/>
       <c r="D704" s="17"/>
@@ -17187,7 +17181,7 @@
       <c r="P704" s="17"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="29"/>
+      <c r="A705" s="27"/>
       <c r="B705" s="17"/>
       <c r="C705" s="17"/>
       <c r="D705" s="17"/>
@@ -17205,7 +17199,7 @@
       <c r="P705" s="17"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="29"/>
+      <c r="A706" s="27"/>
       <c r="B706" s="17"/>
       <c r="C706" s="17"/>
       <c r="D706" s="17"/>
@@ -17223,7 +17217,7 @@
       <c r="P706" s="17"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="29"/>
+      <c r="A707" s="27"/>
       <c r="B707" s="17"/>
       <c r="C707" s="17"/>
       <c r="D707" s="17"/>
@@ -17241,7 +17235,7 @@
       <c r="P707" s="17"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="29"/>
+      <c r="A708" s="27"/>
       <c r="B708" s="17"/>
       <c r="C708" s="17"/>
       <c r="D708" s="17"/>
@@ -17259,7 +17253,7 @@
       <c r="P708" s="17"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="29"/>
+      <c r="A709" s="27"/>
       <c r="B709" s="17"/>
       <c r="C709" s="17"/>
       <c r="D709" s="17"/>
@@ -17277,7 +17271,7 @@
       <c r="P709" s="17"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="29"/>
+      <c r="A710" s="27"/>
       <c r="B710" s="17"/>
       <c r="C710" s="17"/>
       <c r="D710" s="17"/>
@@ -17295,7 +17289,7 @@
       <c r="P710" s="17"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="29"/>
+      <c r="A711" s="27"/>
       <c r="B711" s="17"/>
       <c r="C711" s="17"/>
       <c r="D711" s="17"/>
@@ -17313,7 +17307,7 @@
       <c r="P711" s="17"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="29"/>
+      <c r="A712" s="27"/>
       <c r="B712" s="17"/>
       <c r="C712" s="17"/>
       <c r="D712" s="17"/>
@@ -17331,7 +17325,7 @@
       <c r="P712" s="17"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="29"/>
+      <c r="A713" s="27"/>
       <c r="B713" s="17"/>
       <c r="C713" s="17"/>
       <c r="D713" s="17"/>
@@ -17349,7 +17343,7 @@
       <c r="P713" s="17"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="29"/>
+      <c r="A714" s="27"/>
       <c r="B714" s="17"/>
       <c r="C714" s="17"/>
       <c r="D714" s="17"/>
@@ -17367,7 +17361,7 @@
       <c r="P714" s="17"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="29"/>
+      <c r="A715" s="27"/>
       <c r="B715" s="17"/>
       <c r="C715" s="17"/>
       <c r="D715" s="17"/>
@@ -17385,7 +17379,7 @@
       <c r="P715" s="17"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="29"/>
+      <c r="A716" s="27"/>
       <c r="B716" s="17"/>
       <c r="C716" s="17"/>
       <c r="D716" s="17"/>
@@ -17403,7 +17397,7 @@
       <c r="P716" s="17"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="29"/>
+      <c r="A717" s="27"/>
       <c r="B717" s="17"/>
       <c r="C717" s="17"/>
       <c r="D717" s="17"/>
@@ -17421,7 +17415,7 @@
       <c r="P717" s="17"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="29"/>
+      <c r="A718" s="27"/>
       <c r="B718" s="17"/>
       <c r="C718" s="17"/>
       <c r="D718" s="17"/>
@@ -17439,7 +17433,7 @@
       <c r="P718" s="17"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="29"/>
+      <c r="A719" s="27"/>
       <c r="B719" s="17"/>
       <c r="C719" s="17"/>
       <c r="D719" s="17"/>
@@ -17457,7 +17451,7 @@
       <c r="P719" s="17"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="29"/>
+      <c r="A720" s="27"/>
       <c r="B720" s="17"/>
       <c r="C720" s="17"/>
       <c r="D720" s="17"/>
@@ -17475,7 +17469,7 @@
       <c r="P720" s="17"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="29"/>
+      <c r="A721" s="27"/>
       <c r="B721" s="17"/>
       <c r="C721" s="17"/>
       <c r="D721" s="17"/>
@@ -17493,7 +17487,7 @@
       <c r="P721" s="17"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="29"/>
+      <c r="A722" s="27"/>
       <c r="B722" s="17"/>
       <c r="C722" s="17"/>
       <c r="D722" s="17"/>
@@ -17511,7 +17505,7 @@
       <c r="P722" s="17"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="29"/>
+      <c r="A723" s="27"/>
       <c r="B723" s="17"/>
       <c r="C723" s="17"/>
       <c r="D723" s="17"/>
@@ -17529,7 +17523,7 @@
       <c r="P723" s="17"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="29"/>
+      <c r="A724" s="27"/>
       <c r="B724" s="17"/>
       <c r="C724" s="17"/>
       <c r="D724" s="17"/>
@@ -17547,7 +17541,7 @@
       <c r="P724" s="17"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="29"/>
+      <c r="A725" s="27"/>
       <c r="B725" s="17"/>
       <c r="C725" s="17"/>
       <c r="D725" s="17"/>
@@ -17565,7 +17559,7 @@
       <c r="P725" s="17"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="29"/>
+      <c r="A726" s="27"/>
       <c r="B726" s="17"/>
       <c r="C726" s="17"/>
       <c r="D726" s="17"/>
@@ -17583,7 +17577,7 @@
       <c r="P726" s="17"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="29"/>
+      <c r="A727" s="27"/>
       <c r="B727" s="17"/>
       <c r="C727" s="17"/>
       <c r="D727" s="17"/>
@@ -17601,7 +17595,7 @@
       <c r="P727" s="17"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="29"/>
+      <c r="A728" s="27"/>
       <c r="B728" s="17"/>
       <c r="C728" s="17"/>
       <c r="D728" s="17"/>
@@ -17619,7 +17613,7 @@
       <c r="P728" s="17"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="29"/>
+      <c r="A729" s="27"/>
       <c r="B729" s="17"/>
       <c r="C729" s="17"/>
       <c r="D729" s="17"/>
@@ -17637,7 +17631,7 @@
       <c r="P729" s="17"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="29"/>
+      <c r="A730" s="27"/>
       <c r="B730" s="17"/>
       <c r="C730" s="17"/>
       <c r="D730" s="17"/>
@@ -17655,7 +17649,7 @@
       <c r="P730" s="17"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="29"/>
+      <c r="A731" s="27"/>
       <c r="B731" s="17"/>
       <c r="C731" s="17"/>
       <c r="D731" s="17"/>
@@ -17673,7 +17667,7 @@
       <c r="P731" s="17"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="29"/>
+      <c r="A732" s="27"/>
       <c r="B732" s="17"/>
       <c r="C732" s="17"/>
       <c r="D732" s="17"/>
@@ -17691,7 +17685,7 @@
       <c r="P732" s="17"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="29"/>
+      <c r="A733" s="27"/>
       <c r="B733" s="17"/>
       <c r="C733" s="17"/>
       <c r="D733" s="17"/>
@@ -17709,7 +17703,7 @@
       <c r="P733" s="17"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="29"/>
+      <c r="A734" s="27"/>
       <c r="B734" s="17"/>
       <c r="C734" s="17"/>
       <c r="D734" s="17"/>
@@ -17727,7 +17721,7 @@
       <c r="P734" s="17"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="29"/>
+      <c r="A735" s="27"/>
       <c r="B735" s="17"/>
       <c r="C735" s="17"/>
       <c r="D735" s="17"/>
@@ -17745,7 +17739,7 @@
       <c r="P735" s="17"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="29"/>
+      <c r="A736" s="27"/>
       <c r="B736" s="17"/>
       <c r="C736" s="17"/>
       <c r="D736" s="17"/>
@@ -17763,7 +17757,7 @@
       <c r="P736" s="17"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="29"/>
+      <c r="A737" s="27"/>
       <c r="B737" s="17"/>
       <c r="C737" s="17"/>
       <c r="D737" s="17"/>
@@ -17781,7 +17775,7 @@
       <c r="P737" s="17"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="29"/>
+      <c r="A738" s="27"/>
       <c r="B738" s="17"/>
       <c r="C738" s="17"/>
       <c r="D738" s="17"/>
@@ -17799,7 +17793,7 @@
       <c r="P738" s="17"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="29"/>
+      <c r="A739" s="27"/>
       <c r="B739" s="17"/>
       <c r="C739" s="17"/>
       <c r="D739" s="17"/>
@@ -17817,7 +17811,7 @@
       <c r="P739" s="17"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="29"/>
+      <c r="A740" s="27"/>
       <c r="B740" s="17"/>
       <c r="C740" s="17"/>
       <c r="D740" s="17"/>
@@ -17835,7 +17829,7 @@
       <c r="P740" s="17"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="29"/>
+      <c r="A741" s="27"/>
       <c r="B741" s="17"/>
       <c r="C741" s="17"/>
       <c r="D741" s="17"/>
@@ -17853,7 +17847,7 @@
       <c r="P741" s="17"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="29"/>
+      <c r="A742" s="27"/>
       <c r="B742" s="17"/>
       <c r="C742" s="17"/>
       <c r="D742" s="17"/>
@@ -17871,7 +17865,7 @@
       <c r="P742" s="17"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="29"/>
+      <c r="A743" s="27"/>
       <c r="B743" s="17"/>
       <c r="C743" s="17"/>
       <c r="D743" s="17"/>
@@ -17889,7 +17883,7 @@
       <c r="P743" s="17"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="29"/>
+      <c r="A744" s="27"/>
       <c r="B744" s="17"/>
       <c r="C744" s="17"/>
       <c r="D744" s="17"/>
@@ -17907,7 +17901,7 @@
       <c r="P744" s="17"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="29"/>
+      <c r="A745" s="27"/>
       <c r="B745" s="17"/>
       <c r="C745" s="17"/>
       <c r="D745" s="17"/>
@@ -17925,7 +17919,7 @@
       <c r="P745" s="17"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="29"/>
+      <c r="A746" s="27"/>
       <c r="B746" s="17"/>
       <c r="C746" s="17"/>
       <c r="D746" s="17"/>
@@ -17943,7 +17937,7 @@
       <c r="P746" s="17"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="29"/>
+      <c r="A747" s="27"/>
       <c r="B747" s="17"/>
       <c r="C747" s="17"/>
       <c r="D747" s="17"/>
@@ -17961,7 +17955,7 @@
       <c r="P747" s="17"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="29"/>
+      <c r="A748" s="27"/>
       <c r="B748" s="17"/>
       <c r="C748" s="17"/>
       <c r="D748" s="17"/>
@@ -17979,7 +17973,7 @@
       <c r="P748" s="17"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="29"/>
+      <c r="A749" s="27"/>
       <c r="B749" s="17"/>
       <c r="C749" s="17"/>
       <c r="D749" s="17"/>
@@ -17997,7 +17991,7 @@
       <c r="P749" s="17"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="29"/>
+      <c r="A750" s="27"/>
       <c r="B750" s="17"/>
       <c r="C750" s="17"/>
       <c r="D750" s="17"/>
@@ -18015,7 +18009,7 @@
       <c r="P750" s="17"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="29"/>
+      <c r="A751" s="27"/>
       <c r="B751" s="17"/>
       <c r="C751" s="17"/>
       <c r="D751" s="17"/>
@@ -18033,7 +18027,7 @@
       <c r="P751" s="17"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="29"/>
+      <c r="A752" s="27"/>
       <c r="B752" s="17"/>
       <c r="C752" s="17"/>
       <c r="D752" s="17"/>
@@ -18051,7 +18045,7 @@
       <c r="P752" s="17"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="29"/>
+      <c r="A753" s="27"/>
       <c r="B753" s="17"/>
       <c r="C753" s="17"/>
       <c r="D753" s="17"/>
@@ -18069,7 +18063,7 @@
       <c r="P753" s="17"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="29"/>
+      <c r="A754" s="27"/>
       <c r="B754" s="17"/>
       <c r="C754" s="17"/>
       <c r="D754" s="17"/>
@@ -18087,7 +18081,7 @@
       <c r="P754" s="17"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="29"/>
+      <c r="A755" s="27"/>
       <c r="B755" s="17"/>
       <c r="C755" s="17"/>
       <c r="D755" s="17"/>
@@ -18105,7 +18099,7 @@
       <c r="P755" s="17"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="29"/>
+      <c r="A756" s="27"/>
       <c r="B756" s="17"/>
       <c r="C756" s="17"/>
       <c r="D756" s="17"/>
@@ -18123,7 +18117,7 @@
       <c r="P756" s="17"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="29"/>
+      <c r="A757" s="27"/>
       <c r="B757" s="17"/>
       <c r="C757" s="17"/>
       <c r="D757" s="17"/>
@@ -18141,7 +18135,7 @@
       <c r="P757" s="17"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="29"/>
+      <c r="A758" s="27"/>
       <c r="B758" s="17"/>
       <c r="C758" s="17"/>
       <c r="D758" s="17"/>
@@ -18159,7 +18153,7 @@
       <c r="P758" s="17"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="29"/>
+      <c r="A759" s="27"/>
       <c r="B759" s="17"/>
       <c r="C759" s="17"/>
       <c r="D759" s="17"/>
@@ -18177,7 +18171,7 @@
       <c r="P759" s="17"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="29"/>
+      <c r="A760" s="27"/>
       <c r="B760" s="17"/>
       <c r="C760" s="17"/>
       <c r="D760" s="17"/>
@@ -18195,7 +18189,7 @@
       <c r="P760" s="17"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="29"/>
+      <c r="A761" s="27"/>
       <c r="B761" s="17"/>
       <c r="C761" s="17"/>
       <c r="D761" s="17"/>
@@ -18213,7 +18207,7 @@
       <c r="P761" s="17"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="29"/>
+      <c r="A762" s="27"/>
       <c r="B762" s="17"/>
       <c r="C762" s="17"/>
       <c r="D762" s="17"/>
@@ -18231,7 +18225,7 @@
       <c r="P762" s="17"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="29"/>
+      <c r="A763" s="27"/>
       <c r="B763" s="17"/>
       <c r="C763" s="17"/>
       <c r="D763" s="17"/>
@@ -18249,7 +18243,7 @@
       <c r="P763" s="17"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="29"/>
+      <c r="A764" s="27"/>
       <c r="B764" s="17"/>
       <c r="C764" s="17"/>
       <c r="D764" s="17"/>
@@ -18267,7 +18261,7 @@
       <c r="P764" s="17"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="29"/>
+      <c r="A765" s="27"/>
       <c r="B765" s="17"/>
       <c r="C765" s="17"/>
       <c r="D765" s="17"/>
@@ -18285,7 +18279,7 @@
       <c r="P765" s="17"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="29"/>
+      <c r="A766" s="27"/>
       <c r="B766" s="17"/>
       <c r="C766" s="17"/>
       <c r="D766" s="17"/>
@@ -18303,7 +18297,7 @@
       <c r="P766" s="17"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="29"/>
+      <c r="A767" s="27"/>
       <c r="B767" s="17"/>
       <c r="C767" s="17"/>
       <c r="D767" s="17"/>
@@ -18321,7 +18315,7 @@
       <c r="P767" s="17"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="29"/>
+      <c r="A768" s="27"/>
       <c r="B768" s="17"/>
       <c r="C768" s="17"/>
       <c r="D768" s="17"/>
@@ -18339,7 +18333,7 @@
       <c r="P768" s="17"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="29"/>
+      <c r="A769" s="27"/>
       <c r="B769" s="17"/>
       <c r="C769" s="17"/>
       <c r="D769" s="17"/>
@@ -18357,7 +18351,7 @@
       <c r="P769" s="17"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="29"/>
+      <c r="A770" s="27"/>
       <c r="B770" s="17"/>
       <c r="C770" s="17"/>
       <c r="D770" s="17"/>
@@ -18375,7 +18369,7 @@
       <c r="P770" s="17"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="29"/>
+      <c r="A771" s="27"/>
       <c r="B771" s="17"/>
       <c r="C771" s="17"/>
       <c r="D771" s="17"/>
@@ -18393,7 +18387,7 @@
       <c r="P771" s="17"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="29"/>
+      <c r="A772" s="27"/>
       <c r="B772" s="17"/>
       <c r="C772" s="17"/>
       <c r="D772" s="17"/>
@@ -18411,7 +18405,7 @@
       <c r="P772" s="17"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="29"/>
+      <c r="A773" s="27"/>
       <c r="B773" s="17"/>
       <c r="C773" s="17"/>
       <c r="D773" s="17"/>
@@ -18429,7 +18423,7 @@
       <c r="P773" s="17"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="29"/>
+      <c r="A774" s="27"/>
       <c r="B774" s="17"/>
       <c r="C774" s="17"/>
       <c r="D774" s="17"/>
@@ -18447,7 +18441,7 @@
       <c r="P774" s="17"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="29"/>
+      <c r="A775" s="27"/>
       <c r="B775" s="17"/>
       <c r="C775" s="17"/>
       <c r="D775" s="17"/>
@@ -18465,7 +18459,7 @@
       <c r="P775" s="17"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="29"/>
+      <c r="A776" s="27"/>
       <c r="B776" s="17"/>
       <c r="C776" s="17"/>
       <c r="D776" s="17"/>
@@ -18483,7 +18477,7 @@
       <c r="P776" s="17"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="29"/>
+      <c r="A777" s="27"/>
       <c r="B777" s="17"/>
       <c r="C777" s="17"/>
       <c r="D777" s="17"/>
@@ -18501,7 +18495,7 @@
       <c r="P777" s="17"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="29"/>
+      <c r="A778" s="27"/>
       <c r="B778" s="17"/>
       <c r="C778" s="17"/>
       <c r="D778" s="17"/>
@@ -18519,7 +18513,7 @@
       <c r="P778" s="17"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="29"/>
+      <c r="A779" s="27"/>
       <c r="B779" s="17"/>
       <c r="C779" s="17"/>
       <c r="D779" s="17"/>
@@ -18537,7 +18531,7 @@
       <c r="P779" s="17"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="29"/>
+      <c r="A780" s="27"/>
       <c r="B780" s="17"/>
       <c r="C780" s="17"/>
       <c r="D780" s="17"/>
@@ -18555,7 +18549,7 @@
       <c r="P780" s="17"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="29"/>
+      <c r="A781" s="27"/>
       <c r="B781" s="17"/>
       <c r="C781" s="17"/>
       <c r="D781" s="17"/>
@@ -18573,7 +18567,7 @@
       <c r="P781" s="17"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="29"/>
+      <c r="A782" s="27"/>
       <c r="B782" s="17"/>
       <c r="C782" s="17"/>
       <c r="D782" s="17"/>
@@ -18591,7 +18585,7 @@
       <c r="P782" s="17"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="29"/>
+      <c r="A783" s="27"/>
       <c r="B783" s="17"/>
       <c r="C783" s="17"/>
       <c r="D783" s="17"/>
@@ -18609,7 +18603,7 @@
       <c r="P783" s="17"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="29"/>
+      <c r="A784" s="27"/>
       <c r="B784" s="17"/>
       <c r="C784" s="17"/>
       <c r="D784" s="17"/>
@@ -18627,7 +18621,7 @@
       <c r="P784" s="17"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="29"/>
+      <c r="A785" s="27"/>
       <c r="B785" s="17"/>
       <c r="C785" s="17"/>
       <c r="D785" s="17"/>
@@ -18645,7 +18639,7 @@
       <c r="P785" s="17"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="29"/>
+      <c r="A786" s="27"/>
       <c r="B786" s="17"/>
       <c r="C786" s="17"/>
       <c r="D786" s="17"/>
@@ -18663,7 +18657,7 @@
       <c r="P786" s="17"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="29"/>
+      <c r="A787" s="27"/>
       <c r="B787" s="17"/>
       <c r="C787" s="17"/>
       <c r="D787" s="17"/>
@@ -18681,7 +18675,7 @@
       <c r="P787" s="17"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="29"/>
+      <c r="A788" s="27"/>
       <c r="B788" s="17"/>
       <c r="C788" s="17"/>
       <c r="D788" s="17"/>
@@ -18699,7 +18693,7 @@
       <c r="P788" s="17"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="29"/>
+      <c r="A789" s="27"/>
       <c r="B789" s="17"/>
       <c r="C789" s="17"/>
       <c r="D789" s="17"/>
@@ -18717,7 +18711,7 @@
       <c r="P789" s="17"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="29"/>
+      <c r="A790" s="27"/>
       <c r="B790" s="17"/>
       <c r="C790" s="17"/>
       <c r="D790" s="17"/>
@@ -18735,7 +18729,7 @@
       <c r="P790" s="17"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="29"/>
+      <c r="A791" s="27"/>
       <c r="B791" s="17"/>
       <c r="C791" s="17"/>
       <c r="D791" s="17"/>
@@ -18753,7 +18747,7 @@
       <c r="P791" s="17"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="29"/>
+      <c r="A792" s="27"/>
       <c r="B792" s="17"/>
       <c r="C792" s="17"/>
       <c r="D792" s="17"/>
@@ -18771,7 +18765,7 @@
       <c r="P792" s="17"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="29"/>
+      <c r="A793" s="27"/>
       <c r="B793" s="17"/>
       <c r="C793" s="17"/>
       <c r="D793" s="17"/>
@@ -18789,7 +18783,7 @@
       <c r="P793" s="17"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="29"/>
+      <c r="A794" s="27"/>
       <c r="B794" s="17"/>
       <c r="C794" s="17"/>
       <c r="D794" s="17"/>
@@ -18807,7 +18801,7 @@
       <c r="P794" s="17"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="29"/>
+      <c r="A795" s="27"/>
       <c r="B795" s="17"/>
       <c r="C795" s="17"/>
       <c r="D795" s="17"/>
@@ -18825,7 +18819,7 @@
       <c r="P795" s="17"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="29"/>
+      <c r="A796" s="27"/>
       <c r="B796" s="17"/>
       <c r="C796" s="17"/>
       <c r="D796" s="17"/>
@@ -18843,7 +18837,7 @@
       <c r="P796" s="17"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="29"/>
+      <c r="A797" s="27"/>
       <c r="B797" s="17"/>
       <c r="C797" s="17"/>
       <c r="D797" s="17"/>
@@ -18861,7 +18855,7 @@
       <c r="P797" s="17"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="29"/>
+      <c r="A798" s="27"/>
       <c r="B798" s="17"/>
       <c r="C798" s="17"/>
       <c r="D798" s="17"/>
@@ -18879,7 +18873,7 @@
       <c r="P798" s="17"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="29"/>
+      <c r="A799" s="27"/>
       <c r="B799" s="17"/>
       <c r="C799" s="17"/>
       <c r="D799" s="17"/>
@@ -18897,7 +18891,7 @@
       <c r="P799" s="17"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="29"/>
+      <c r="A800" s="27"/>
       <c r="B800" s="17"/>
       <c r="C800" s="17"/>
       <c r="D800" s="17"/>
@@ -18915,7 +18909,7 @@
       <c r="P800" s="17"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="29"/>
+      <c r="A801" s="27"/>
       <c r="B801" s="17"/>
       <c r="C801" s="17"/>
       <c r="D801" s="17"/>
@@ -18933,7 +18927,7 @@
       <c r="P801" s="17"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="29"/>
+      <c r="A802" s="27"/>
       <c r="B802" s="17"/>
       <c r="C802" s="17"/>
       <c r="D802" s="17"/>
@@ -18951,7 +18945,7 @@
       <c r="P802" s="17"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="29"/>
+      <c r="A803" s="27"/>
       <c r="B803" s="17"/>
       <c r="C803" s="17"/>
       <c r="D803" s="17"/>
@@ -18969,7 +18963,7 @@
       <c r="P803" s="17"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="29"/>
+      <c r="A804" s="27"/>
       <c r="B804" s="17"/>
       <c r="C804" s="17"/>
       <c r="D804" s="17"/>
@@ -18987,7 +18981,7 @@
       <c r="P804" s="17"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="29"/>
+      <c r="A805" s="27"/>
       <c r="B805" s="17"/>
       <c r="C805" s="17"/>
       <c r="D805" s="17"/>
@@ -19005,7 +18999,7 @@
       <c r="P805" s="17"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="29"/>
+      <c r="A806" s="27"/>
       <c r="B806" s="17"/>
       <c r="C806" s="17"/>
       <c r="D806" s="17"/>
@@ -19023,7 +19017,7 @@
       <c r="P806" s="17"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="29"/>
+      <c r="A807" s="27"/>
       <c r="B807" s="17"/>
       <c r="C807" s="17"/>
       <c r="D807" s="17"/>
@@ -19041,7 +19035,7 @@
       <c r="P807" s="17"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="29"/>
+      <c r="A808" s="27"/>
       <c r="B808" s="17"/>
       <c r="C808" s="17"/>
       <c r="D808" s="17"/>
@@ -19059,7 +19053,7 @@
       <c r="P808" s="17"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="29"/>
+      <c r="A809" s="27"/>
       <c r="B809" s="17"/>
       <c r="C809" s="17"/>
       <c r="D809" s="17"/>
@@ -19077,7 +19071,7 @@
       <c r="P809" s="17"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="29"/>
+      <c r="A810" s="27"/>
       <c r="B810" s="17"/>
       <c r="C810" s="17"/>
       <c r="D810" s="17"/>
@@ -19095,7 +19089,7 @@
       <c r="P810" s="17"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="29"/>
+      <c r="A811" s="27"/>
       <c r="B811" s="17"/>
       <c r="C811" s="17"/>
       <c r="D811" s="17"/>
@@ -19113,7 +19107,7 @@
       <c r="P811" s="17"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="29"/>
+      <c r="A812" s="27"/>
       <c r="B812" s="17"/>
       <c r="C812" s="17"/>
       <c r="D812" s="17"/>
@@ -19131,7 +19125,7 @@
       <c r="P812" s="17"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="29"/>
+      <c r="A813" s="27"/>
       <c r="B813" s="17"/>
       <c r="C813" s="17"/>
       <c r="D813" s="17"/>
@@ -19149,7 +19143,7 @@
       <c r="P813" s="17"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="29"/>
+      <c r="A814" s="27"/>
       <c r="B814" s="17"/>
       <c r="C814" s="17"/>
       <c r="D814" s="17"/>
@@ -19167,7 +19161,7 @@
       <c r="P814" s="17"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="29"/>
+      <c r="A815" s="27"/>
       <c r="B815" s="17"/>
       <c r="C815" s="17"/>
       <c r="D815" s="17"/>
@@ -19185,7 +19179,7 @@
       <c r="P815" s="17"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="29"/>
+      <c r="A816" s="27"/>
       <c r="B816" s="17"/>
       <c r="C816" s="17"/>
       <c r="D816" s="17"/>
@@ -19203,7 +19197,7 @@
       <c r="P816" s="17"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="29"/>
+      <c r="A817" s="27"/>
       <c r="B817" s="17"/>
       <c r="C817" s="17"/>
       <c r="D817" s="17"/>
@@ -19221,7 +19215,7 @@
       <c r="P817" s="17"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="29"/>
+      <c r="A818" s="27"/>
       <c r="B818" s="17"/>
       <c r="C818" s="17"/>
       <c r="D818" s="17"/>
@@ -19239,7 +19233,7 @@
       <c r="P818" s="17"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="29"/>
+      <c r="A819" s="27"/>
       <c r="B819" s="17"/>
       <c r="C819" s="17"/>
       <c r="D819" s="17"/>
@@ -19257,7 +19251,7 @@
       <c r="P819" s="17"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="29"/>
+      <c r="A820" s="27"/>
       <c r="B820" s="17"/>
       <c r="C820" s="17"/>
       <c r="D820" s="17"/>
@@ -19275,7 +19269,7 @@
       <c r="P820" s="17"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="29"/>
+      <c r="A821" s="27"/>
       <c r="B821" s="17"/>
       <c r="C821" s="17"/>
       <c r="D821" s="17"/>
@@ -19293,7 +19287,7 @@
       <c r="P821" s="17"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="29"/>
+      <c r="A822" s="27"/>
       <c r="B822" s="17"/>
       <c r="C822" s="17"/>
       <c r="D822" s="17"/>
@@ -19311,7 +19305,7 @@
       <c r="P822" s="17"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="29"/>
+      <c r="A823" s="27"/>
       <c r="B823" s="17"/>
       <c r="C823" s="17"/>
       <c r="D823" s="17"/>
@@ -19329,7 +19323,7 @@
       <c r="P823" s="17"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="29"/>
+      <c r="A824" s="27"/>
       <c r="B824" s="17"/>
       <c r="C824" s="17"/>
       <c r="D824" s="17"/>
@@ -19347,7 +19341,7 @@
       <c r="P824" s="17"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="29"/>
+      <c r="A825" s="27"/>
       <c r="B825" s="17"/>
       <c r="C825" s="17"/>
       <c r="D825" s="17"/>
@@ -19365,7 +19359,7 @@
       <c r="P825" s="17"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="29"/>
+      <c r="A826" s="27"/>
       <c r="B826" s="17"/>
       <c r="C826" s="17"/>
       <c r="D826" s="17"/>
@@ -19383,7 +19377,7 @@
       <c r="P826" s="17"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="29"/>
+      <c r="A827" s="27"/>
       <c r="B827" s="17"/>
       <c r="C827" s="17"/>
       <c r="D827" s="17"/>
@@ -19401,7 +19395,7 @@
       <c r="P827" s="17"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="29"/>
+      <c r="A828" s="27"/>
       <c r="B828" s="17"/>
       <c r="C828" s="17"/>
       <c r="D828" s="17"/>
@@ -19419,7 +19413,7 @@
       <c r="P828" s="17"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="29"/>
+      <c r="A829" s="27"/>
       <c r="B829" s="17"/>
       <c r="C829" s="17"/>
       <c r="D829" s="17"/>
@@ -19437,7 +19431,7 @@
       <c r="P829" s="17"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="29"/>
+      <c r="A830" s="27"/>
       <c r="B830" s="17"/>
       <c r="C830" s="17"/>
       <c r="D830" s="17"/>
@@ -19455,7 +19449,7 @@
       <c r="P830" s="17"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="29"/>
+      <c r="A831" s="27"/>
       <c r="B831" s="17"/>
       <c r="C831" s="17"/>
       <c r="D831" s="17"/>
@@ -19473,7 +19467,7 @@
       <c r="P831" s="17"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="29"/>
+      <c r="A832" s="27"/>
       <c r="B832" s="17"/>
       <c r="C832" s="17"/>
       <c r="D832" s="17"/>
@@ -19491,7 +19485,7 @@
       <c r="P832" s="17"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="29"/>
+      <c r="A833" s="27"/>
       <c r="B833" s="17"/>
       <c r="C833" s="17"/>
       <c r="D833" s="17"/>
@@ -19509,7 +19503,7 @@
       <c r="P833" s="17"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="29"/>
+      <c r="A834" s="27"/>
       <c r="B834" s="17"/>
       <c r="C834" s="17"/>
       <c r="D834" s="17"/>
@@ -19527,7 +19521,7 @@
       <c r="P834" s="17"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="29"/>
+      <c r="A835" s="27"/>
       <c r="B835" s="17"/>
       <c r="C835" s="17"/>
       <c r="D835" s="17"/>
@@ -19545,7 +19539,7 @@
       <c r="P835" s="17"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="29"/>
+      <c r="A836" s="27"/>
       <c r="B836" s="17"/>
       <c r="C836" s="17"/>
       <c r="D836" s="17"/>
@@ -19563,7 +19557,7 @@
       <c r="P836" s="17"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="29"/>
+      <c r="A837" s="27"/>
       <c r="B837" s="17"/>
       <c r="C837" s="17"/>
       <c r="D837" s="17"/>
@@ -19581,7 +19575,7 @@
       <c r="P837" s="17"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="29"/>
+      <c r="A838" s="27"/>
       <c r="B838" s="17"/>
       <c r="C838" s="17"/>
       <c r="D838" s="17"/>
@@ -19599,7 +19593,7 @@
       <c r="P838" s="17"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="29"/>
+      <c r="A839" s="27"/>
       <c r="B839" s="17"/>
       <c r="C839" s="17"/>
       <c r="D839" s="17"/>
@@ -19617,7 +19611,7 @@
       <c r="P839" s="17"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="29"/>
+      <c r="A840" s="27"/>
       <c r="B840" s="17"/>
       <c r="C840" s="17"/>
       <c r="D840" s="17"/>
@@ -19635,7 +19629,7 @@
       <c r="P840" s="17"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="29"/>
+      <c r="A841" s="27"/>
       <c r="B841" s="17"/>
       <c r="C841" s="17"/>
       <c r="D841" s="17"/>
@@ -19653,7 +19647,7 @@
       <c r="P841" s="17"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="29"/>
+      <c r="A842" s="27"/>
       <c r="B842" s="17"/>
       <c r="C842" s="17"/>
       <c r="D842" s="17"/>
@@ -19671,7 +19665,7 @@
       <c r="P842" s="17"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="29"/>
+      <c r="A843" s="27"/>
       <c r="B843" s="17"/>
       <c r="C843" s="17"/>
       <c r="D843" s="17"/>
@@ -19689,7 +19683,7 @@
       <c r="P843" s="17"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="29"/>
+      <c r="A844" s="27"/>
       <c r="B844" s="17"/>
       <c r="C844" s="17"/>
       <c r="D844" s="17"/>
@@ -19707,7 +19701,7 @@
       <c r="P844" s="17"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="29"/>
+      <c r="A845" s="27"/>
       <c r="B845" s="17"/>
       <c r="C845" s="17"/>
       <c r="D845" s="17"/>
@@ -19725,7 +19719,7 @@
       <c r="P845" s="17"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="29"/>
+      <c r="A846" s="27"/>
       <c r="B846" s="17"/>
       <c r="C846" s="17"/>
       <c r="D846" s="17"/>
@@ -19743,7 +19737,7 @@
       <c r="P846" s="17"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="29"/>
+      <c r="A847" s="27"/>
       <c r="B847" s="17"/>
       <c r="C847" s="17"/>
       <c r="D847" s="17"/>
@@ -19761,7 +19755,7 @@
       <c r="P847" s="17"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="29"/>
+      <c r="A848" s="27"/>
       <c r="B848" s="17"/>
       <c r="C848" s="17"/>
       <c r="D848" s="17"/>
@@ -19779,7 +19773,7 @@
       <c r="P848" s="17"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="29"/>
+      <c r="A849" s="27"/>
       <c r="B849" s="17"/>
       <c r="C849" s="17"/>
       <c r="D849" s="17"/>
@@ -19797,7 +19791,7 @@
       <c r="P849" s="17"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="29"/>
+      <c r="A850" s="27"/>
       <c r="B850" s="17"/>
       <c r="C850" s="17"/>
       <c r="D850" s="17"/>
@@ -19815,7 +19809,7 @@
       <c r="P850" s="17"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="29"/>
+      <c r="A851" s="27"/>
       <c r="B851" s="17"/>
       <c r="C851" s="17"/>
       <c r="D851" s="17"/>
@@ -19833,7 +19827,7 @@
       <c r="P851" s="17"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="29"/>
+      <c r="A852" s="27"/>
       <c r="B852" s="17"/>
       <c r="C852" s="17"/>
       <c r="D852" s="17"/>
@@ -19851,7 +19845,7 @@
       <c r="P852" s="17"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="29"/>
+      <c r="A853" s="27"/>
       <c r="B853" s="17"/>
       <c r="C853" s="17"/>
       <c r="D853" s="17"/>
@@ -19869,7 +19863,7 @@
       <c r="P853" s="17"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="29"/>
+      <c r="A854" s="27"/>
       <c r="B854" s="17"/>
       <c r="C854" s="17"/>
       <c r="D854" s="17"/>
@@ -19887,7 +19881,7 @@
       <c r="P854" s="17"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="29"/>
+      <c r="A855" s="27"/>
       <c r="B855" s="17"/>
       <c r="C855" s="17"/>
       <c r="D855" s="17"/>
@@ -19905,7 +19899,7 @@
       <c r="P855" s="17"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="29"/>
+      <c r="A856" s="27"/>
       <c r="B856" s="17"/>
       <c r="C856" s="17"/>
       <c r="D856" s="17"/>
@@ -19923,7 +19917,7 @@
       <c r="P856" s="17"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="29"/>
+      <c r="A857" s="27"/>
       <c r="B857" s="17"/>
       <c r="C857" s="17"/>
       <c r="D857" s="17"/>
@@ -19941,7 +19935,7 @@
       <c r="P857" s="17"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="29"/>
+      <c r="A858" s="27"/>
       <c r="B858" s="17"/>
       <c r="C858" s="17"/>
       <c r="D858" s="17"/>
@@ -19959,7 +19953,7 @@
       <c r="P858" s="17"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="29"/>
+      <c r="A859" s="27"/>
       <c r="B859" s="17"/>
       <c r="C859" s="17"/>
       <c r="D859" s="17"/>
@@ -19977,7 +19971,7 @@
       <c r="P859" s="17"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="29"/>
+      <c r="A860" s="27"/>
       <c r="B860" s="17"/>
       <c r="C860" s="17"/>
       <c r="D860" s="17"/>
@@ -19995,7 +19989,7 @@
       <c r="P860" s="17"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="29"/>
+      <c r="A861" s="27"/>
       <c r="B861" s="17"/>
       <c r="C861" s="17"/>
       <c r="D861" s="17"/>
@@ -20013,7 +20007,7 @@
       <c r="P861" s="17"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="29"/>
+      <c r="A862" s="27"/>
       <c r="B862" s="17"/>
       <c r="C862" s="17"/>
       <c r="D862" s="17"/>
@@ -20031,7 +20025,7 @@
       <c r="P862" s="17"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="29"/>
+      <c r="A863" s="27"/>
       <c r="B863" s="17"/>
       <c r="C863" s="17"/>
       <c r="D863" s="17"/>
@@ -20049,7 +20043,7 @@
       <c r="P863" s="17"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="29"/>
+      <c r="A864" s="27"/>
       <c r="B864" s="17"/>
       <c r="C864" s="17"/>
       <c r="D864" s="17"/>
@@ -20067,7 +20061,7 @@
       <c r="P864" s="17"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="29"/>
+      <c r="A865" s="27"/>
       <c r="B865" s="17"/>
       <c r="C865" s="17"/>
       <c r="D865" s="17"/>
@@ -20085,7 +20079,7 @@
       <c r="P865" s="17"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="29"/>
+      <c r="A866" s="27"/>
       <c r="B866" s="17"/>
       <c r="C866" s="17"/>
       <c r="D866" s="17"/>
@@ -20103,7 +20097,7 @@
       <c r="P866" s="17"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="29"/>
+      <c r="A867" s="27"/>
       <c r="B867" s="17"/>
       <c r="C867" s="17"/>
       <c r="D867" s="17"/>
@@ -20121,7 +20115,7 @@
       <c r="P867" s="17"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="29"/>
+      <c r="A868" s="27"/>
       <c r="B868" s="17"/>
       <c r="C868" s="17"/>
       <c r="D868" s="17"/>
@@ -20139,7 +20133,7 @@
       <c r="P868" s="17"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="29"/>
+      <c r="A869" s="27"/>
       <c r="B869" s="17"/>
       <c r="C869" s="17"/>
       <c r="D869" s="17"/>
@@ -20157,7 +20151,7 @@
       <c r="P869" s="17"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="29"/>
+      <c r="A870" s="27"/>
       <c r="B870" s="17"/>
       <c r="C870" s="17"/>
       <c r="D870" s="17"/>
@@ -20175,7 +20169,7 @@
       <c r="P870" s="17"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="29"/>
+      <c r="A871" s="27"/>
       <c r="B871" s="17"/>
       <c r="C871" s="17"/>
       <c r="D871" s="17"/>
@@ -20193,7 +20187,7 @@
       <c r="P871" s="17"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="29"/>
+      <c r="A872" s="27"/>
       <c r="B872" s="17"/>
       <c r="C872" s="17"/>
       <c r="D872" s="17"/>
@@ -20211,7 +20205,7 @@
       <c r="P872" s="17"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="29"/>
+      <c r="A873" s="27"/>
       <c r="B873" s="17"/>
       <c r="C873" s="17"/>
       <c r="D873" s="17"/>
@@ -20229,7 +20223,7 @@
       <c r="P873" s="17"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="29"/>
+      <c r="A874" s="27"/>
       <c r="B874" s="17"/>
       <c r="C874" s="17"/>
       <c r="D874" s="17"/>
@@ -20247,7 +20241,7 @@
       <c r="P874" s="17"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="29"/>
+      <c r="A875" s="27"/>
       <c r="B875" s="17"/>
       <c r="C875" s="17"/>
       <c r="D875" s="17"/>
@@ -20265,7 +20259,7 @@
       <c r="P875" s="17"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="29"/>
+      <c r="A876" s="27"/>
       <c r="B876" s="17"/>
       <c r="C876" s="17"/>
       <c r="D876" s="17"/>
@@ -20283,7 +20277,7 @@
       <c r="P876" s="17"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="29"/>
+      <c r="A877" s="27"/>
       <c r="B877" s="17"/>
       <c r="C877" s="17"/>
       <c r="D877" s="17"/>
@@ -20301,7 +20295,7 @@
       <c r="P877" s="17"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="29"/>
+      <c r="A878" s="27"/>
       <c r="B878" s="17"/>
       <c r="C878" s="17"/>
       <c r="D878" s="17"/>
@@ -20319,7 +20313,7 @@
       <c r="P878" s="17"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="29"/>
+      <c r="A879" s="27"/>
       <c r="B879" s="17"/>
       <c r="C879" s="17"/>
       <c r="D879" s="17"/>
@@ -20337,7 +20331,7 @@
       <c r="P879" s="17"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="29"/>
+      <c r="A880" s="27"/>
       <c r="B880" s="17"/>
       <c r="C880" s="17"/>
       <c r="D880" s="17"/>
@@ -20355,7 +20349,7 @@
       <c r="P880" s="17"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="29"/>
+      <c r="A881" s="27"/>
       <c r="B881" s="17"/>
       <c r="C881" s="17"/>
       <c r="D881" s="17"/>
@@ -20373,7 +20367,7 @@
       <c r="P881" s="17"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="29"/>
+      <c r="A882" s="27"/>
       <c r="B882" s="17"/>
       <c r="C882" s="17"/>
       <c r="D882" s="17"/>
@@ -20391,7 +20385,7 @@
       <c r="P882" s="17"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="29"/>
+      <c r="A883" s="27"/>
       <c r="B883" s="17"/>
       <c r="C883" s="17"/>
       <c r="D883" s="17"/>
@@ -20409,7 +20403,7 @@
       <c r="P883" s="17"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="29"/>
+      <c r="A884" s="27"/>
       <c r="B884" s="17"/>
       <c r="C884" s="17"/>
       <c r="D884" s="17"/>
@@ -20427,7 +20421,7 @@
       <c r="P884" s="17"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="29"/>
+      <c r="A885" s="27"/>
       <c r="B885" s="17"/>
       <c r="C885" s="17"/>
       <c r="D885" s="17"/>
@@ -20445,7 +20439,7 @@
       <c r="P885" s="17"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="29"/>
+      <c r="A886" s="27"/>
       <c r="B886" s="17"/>
       <c r="C886" s="17"/>
       <c r="D886" s="17"/>
@@ -20463,7 +20457,7 @@
       <c r="P886" s="17"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="29"/>
+      <c r="A887" s="27"/>
       <c r="B887" s="17"/>
       <c r="C887" s="17"/>
       <c r="D887" s="17"/>
@@ -20481,7 +20475,7 @@
       <c r="P887" s="17"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="29"/>
+      <c r="A888" s="27"/>
       <c r="B888" s="17"/>
       <c r="C888" s="17"/>
       <c r="D888" s="17"/>
@@ -20499,7 +20493,7 @@
       <c r="P888" s="17"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="29"/>
+      <c r="A889" s="27"/>
       <c r="B889" s="17"/>
       <c r="C889" s="17"/>
       <c r="D889" s="17"/>
@@ -20517,7 +20511,7 @@
       <c r="P889" s="17"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="29"/>
+      <c r="A890" s="27"/>
       <c r="B890" s="17"/>
       <c r="C890" s="17"/>
       <c r="D890" s="17"/>
@@ -20535,7 +20529,7 @@
       <c r="P890" s="17"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="29"/>
+      <c r="A891" s="27"/>
       <c r="B891" s="17"/>
       <c r="C891" s="17"/>
       <c r="D891" s="17"/>
@@ -20553,7 +20547,7 @@
       <c r="P891" s="17"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="29"/>
+      <c r="A892" s="27"/>
       <c r="B892" s="17"/>
       <c r="C892" s="17"/>
       <c r="D892" s="17"/>
@@ -20571,7 +20565,7 @@
       <c r="P892" s="17"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="29"/>
+      <c r="A893" s="27"/>
       <c r="B893" s="17"/>
       <c r="C893" s="17"/>
       <c r="D893" s="17"/>
@@ -20589,7 +20583,7 @@
       <c r="P893" s="17"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="29"/>
+      <c r="A894" s="27"/>
       <c r="B894" s="17"/>
       <c r="C894" s="17"/>
       <c r="D894" s="17"/>
@@ -20607,7 +20601,7 @@
       <c r="P894" s="17"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="29"/>
+      <c r="A895" s="27"/>
       <c r="B895" s="17"/>
       <c r="C895" s="17"/>
       <c r="D895" s="17"/>
@@ -20625,7 +20619,7 @@
       <c r="P895" s="17"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="29"/>
+      <c r="A896" s="27"/>
       <c r="B896" s="17"/>
       <c r="C896" s="17"/>
       <c r="D896" s="17"/>
@@ -20643,7 +20637,7 @@
       <c r="P896" s="17"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="29"/>
+      <c r="A897" s="27"/>
       <c r="B897" s="17"/>
       <c r="C897" s="17"/>
       <c r="D897" s="17"/>
@@ -20661,7 +20655,7 @@
       <c r="P897" s="17"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="29"/>
+      <c r="A898" s="27"/>
       <c r="B898" s="17"/>
       <c r="C898" s="17"/>
       <c r="D898" s="17"/>
@@ -20679,7 +20673,7 @@
       <c r="P898" s="17"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="29"/>
+      <c r="A899" s="27"/>
       <c r="B899" s="17"/>
       <c r="C899" s="17"/>
       <c r="D899" s="17"/>
@@ -20697,7 +20691,7 @@
       <c r="P899" s="17"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="29"/>
+      <c r="A900" s="27"/>
       <c r="B900" s="17"/>
       <c r="C900" s="17"/>
       <c r="D900" s="17"/>
@@ -20715,7 +20709,7 @@
       <c r="P900" s="17"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="29"/>
+      <c r="A901" s="27"/>
       <c r="B901" s="17"/>
       <c r="C901" s="17"/>
       <c r="D901" s="17"/>
@@ -20733,7 +20727,7 @@
       <c r="P901" s="17"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="29"/>
+      <c r="A902" s="27"/>
       <c r="B902" s="17"/>
       <c r="C902" s="17"/>
       <c r="D902" s="17"/>
@@ -20751,7 +20745,7 @@
       <c r="P902" s="17"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="29"/>
+      <c r="A903" s="27"/>
       <c r="B903" s="17"/>
       <c r="C903" s="17"/>
       <c r="D903" s="17"/>
@@ -20769,7 +20763,7 @@
       <c r="P903" s="17"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="29"/>
+      <c r="A904" s="27"/>
       <c r="B904" s="17"/>
       <c r="C904" s="17"/>
       <c r="D904" s="17"/>
@@ -20787,7 +20781,7 @@
       <c r="P904" s="17"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="29"/>
+      <c r="A905" s="27"/>
       <c r="B905" s="17"/>
       <c r="C905" s="17"/>
       <c r="D905" s="17"/>
@@ -20805,7 +20799,7 @@
       <c r="P905" s="17"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="29"/>
+      <c r="A906" s="27"/>
       <c r="B906" s="17"/>
       <c r="C906" s="17"/>
       <c r="D906" s="17"/>
@@ -20823,7 +20817,7 @@
       <c r="P906" s="17"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="29"/>
+      <c r="A907" s="27"/>
       <c r="B907" s="17"/>
       <c r="C907" s="17"/>
       <c r="D907" s="17"/>
@@ -20841,7 +20835,7 @@
       <c r="P907" s="17"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="29"/>
+      <c r="A908" s="27"/>
       <c r="B908" s="17"/>
       <c r="C908" s="17"/>
       <c r="D908" s="17"/>
@@ -20859,7 +20853,7 @@
       <c r="P908" s="17"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="29"/>
+      <c r="A909" s="27"/>
       <c r="B909" s="17"/>
       <c r="C909" s="17"/>
       <c r="D909" s="17"/>
@@ -20877,7 +20871,7 @@
       <c r="P909" s="17"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="29"/>
+      <c r="A910" s="27"/>
       <c r="B910" s="17"/>
       <c r="C910" s="17"/>
       <c r="D910" s="17"/>
@@ -20895,7 +20889,7 @@
       <c r="P910" s="17"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="29"/>
+      <c r="A911" s="27"/>
       <c r="B911" s="17"/>
       <c r="C911" s="17"/>
       <c r="D911" s="17"/>
@@ -20913,7 +20907,7 @@
       <c r="P911" s="17"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="29"/>
+      <c r="A912" s="27"/>
       <c r="B912" s="17"/>
       <c r="C912" s="17"/>
       <c r="D912" s="17"/>
@@ -20931,7 +20925,7 @@
       <c r="P912" s="17"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="29"/>
+      <c r="A913" s="27"/>
       <c r="B913" s="17"/>
       <c r="C913" s="17"/>
       <c r="D913" s="17"/>
@@ -20949,7 +20943,7 @@
       <c r="P913" s="17"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="29"/>
+      <c r="A914" s="27"/>
       <c r="B914" s="17"/>
       <c r="C914" s="17"/>
       <c r="D914" s="17"/>
@@ -20967,7 +20961,7 @@
       <c r="P914" s="17"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="29"/>
+      <c r="A915" s="27"/>
       <c r="B915" s="17"/>
       <c r="C915" s="17"/>
       <c r="D915" s="17"/>
@@ -20985,7 +20979,7 @@
       <c r="P915" s="17"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="29"/>
+      <c r="A916" s="27"/>
       <c r="B916" s="17"/>
       <c r="C916" s="17"/>
       <c r="D916" s="17"/>
@@ -21003,7 +20997,7 @@
       <c r="P916" s="17"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="29"/>
+      <c r="A917" s="27"/>
       <c r="B917" s="17"/>
       <c r="C917" s="17"/>
       <c r="D917" s="17"/>
@@ -21021,7 +21015,7 @@
       <c r="P917" s="17"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="29"/>
+      <c r="A918" s="27"/>
       <c r="B918" s="17"/>
       <c r="C918" s="17"/>
       <c r="D918" s="17"/>
@@ -21039,7 +21033,7 @@
       <c r="P918" s="17"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="29"/>
+      <c r="A919" s="27"/>
       <c r="B919" s="17"/>
       <c r="C919" s="17"/>
       <c r="D919" s="17"/>
@@ -21057,7 +21051,7 @@
       <c r="P919" s="17"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="29"/>
+      <c r="A920" s="27"/>
       <c r="B920" s="17"/>
       <c r="C920" s="17"/>
       <c r="D920" s="17"/>
@@ -21075,7 +21069,7 @@
       <c r="P920" s="17"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="29"/>
+      <c r="A921" s="27"/>
       <c r="B921" s="17"/>
       <c r="C921" s="17"/>
       <c r="D921" s="17"/>
@@ -21093,7 +21087,7 @@
       <c r="P921" s="17"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="29"/>
+      <c r="A922" s="27"/>
       <c r="B922" s="17"/>
       <c r="C922" s="17"/>
       <c r="D922" s="17"/>
@@ -21111,7 +21105,7 @@
       <c r="P922" s="17"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="29"/>
+      <c r="A923" s="27"/>
       <c r="B923" s="17"/>
       <c r="C923" s="17"/>
       <c r="D923" s="17"/>
@@ -21129,7 +21123,7 @@
       <c r="P923" s="17"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="29"/>
+      <c r="A924" s="27"/>
       <c r="B924" s="17"/>
       <c r="C924" s="17"/>
       <c r="D924" s="17"/>
@@ -21147,7 +21141,7 @@
       <c r="P924" s="17"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="29"/>
+      <c r="A925" s="27"/>
       <c r="B925" s="17"/>
       <c r="C925" s="17"/>
       <c r="D925" s="17"/>
@@ -21165,7 +21159,7 @@
       <c r="P925" s="17"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="29"/>
+      <c r="A926" s="27"/>
       <c r="B926" s="17"/>
       <c r="C926" s="17"/>
       <c r="D926" s="17"/>
@@ -21183,7 +21177,7 @@
       <c r="P926" s="17"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="29"/>
+      <c r="A927" s="27"/>
       <c r="B927" s="17"/>
       <c r="C927" s="17"/>
       <c r="D927" s="17"/>
@@ -21201,7 +21195,7 @@
       <c r="P927" s="17"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="29"/>
+      <c r="A928" s="27"/>
       <c r="B928" s="17"/>
       <c r="C928" s="17"/>
       <c r="D928" s="17"/>
@@ -21219,7 +21213,7 @@
       <c r="P928" s="17"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="29"/>
+      <c r="A929" s="27"/>
       <c r="B929" s="17"/>
       <c r="C929" s="17"/>
       <c r="D929" s="17"/>
@@ -21237,7 +21231,7 @@
       <c r="P929" s="17"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="29"/>
+      <c r="A930" s="27"/>
       <c r="B930" s="17"/>
       <c r="C930" s="17"/>
       <c r="D930" s="17"/>
@@ -21255,7 +21249,7 @@
       <c r="P930" s="17"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="29"/>
+      <c r="A931" s="27"/>
       <c r="B931" s="17"/>
       <c r="C931" s="17"/>
       <c r="D931" s="17"/>
@@ -21273,7 +21267,7 @@
       <c r="P931" s="17"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="29"/>
+      <c r="A932" s="27"/>
       <c r="B932" s="17"/>
       <c r="C932" s="17"/>
       <c r="D932" s="17"/>
@@ -21291,7 +21285,7 @@
       <c r="P932" s="17"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="29"/>
+      <c r="A933" s="27"/>
       <c r="B933" s="17"/>
       <c r="C933" s="17"/>
       <c r="D933" s="17"/>
@@ -21309,7 +21303,7 @@
       <c r="P933" s="17"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="29"/>
+      <c r="A934" s="27"/>
       <c r="B934" s="17"/>
       <c r="C934" s="17"/>
       <c r="D934" s="17"/>
@@ -21327,7 +21321,7 @@
       <c r="P934" s="17"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="29"/>
+      <c r="A935" s="27"/>
       <c r="B935" s="17"/>
       <c r="C935" s="17"/>
       <c r="D935" s="17"/>
@@ -21345,7 +21339,7 @@
       <c r="P935" s="17"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="29"/>
+      <c r="A936" s="27"/>
       <c r="B936" s="17"/>
       <c r="C936" s="17"/>
       <c r="D936" s="17"/>
@@ -21363,7 +21357,7 @@
       <c r="P936" s="17"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="29"/>
+      <c r="A937" s="27"/>
       <c r="B937" s="17"/>
       <c r="C937" s="17"/>
       <c r="D937" s="17"/>
@@ -21381,7 +21375,7 @@
       <c r="P937" s="17"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="29"/>
+      <c r="A938" s="27"/>
       <c r="B938" s="17"/>
       <c r="C938" s="17"/>
       <c r="D938" s="17"/>
@@ -21399,7 +21393,7 @@
       <c r="P938" s="17"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="29"/>
+      <c r="A939" s="27"/>
       <c r="B939" s="17"/>
       <c r="C939" s="17"/>
       <c r="D939" s="17"/>
@@ -21417,7 +21411,7 @@
       <c r="P939" s="17"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="29"/>
+      <c r="A940" s="27"/>
       <c r="B940" s="17"/>
       <c r="C940" s="17"/>
       <c r="D940" s="17"/>
@@ -21435,7 +21429,7 @@
       <c r="P940" s="17"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="29"/>
+      <c r="A941" s="27"/>
       <c r="B941" s="17"/>
       <c r="C941" s="17"/>
       <c r="D941" s="17"/>
@@ -21453,7 +21447,7 @@
       <c r="P941" s="17"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="29"/>
+      <c r="A942" s="27"/>
       <c r="B942" s="17"/>
       <c r="C942" s="17"/>
       <c r="D942" s="17"/>
@@ -21471,7 +21465,7 @@
       <c r="P942" s="17"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="29"/>
+      <c r="A943" s="27"/>
       <c r="B943" s="17"/>
       <c r="C943" s="17"/>
       <c r="D943" s="17"/>
@@ -21489,7 +21483,7 @@
       <c r="P943" s="17"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="29"/>
+      <c r="A944" s="27"/>
       <c r="B944" s="17"/>
       <c r="C944" s="17"/>
       <c r="D944" s="17"/>
@@ -21507,7 +21501,7 @@
       <c r="P944" s="17"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="29"/>
+      <c r="A945" s="27"/>
       <c r="B945" s="17"/>
       <c r="C945" s="17"/>
       <c r="D945" s="17"/>
@@ -21525,7 +21519,7 @@
       <c r="P945" s="17"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="29"/>
+      <c r="A946" s="27"/>
       <c r="B946" s="17"/>
       <c r="C946" s="17"/>
       <c r="D946" s="17"/>
@@ -21543,7 +21537,7 @@
       <c r="P946" s="17"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="29"/>
+      <c r="A947" s="27"/>
       <c r="B947" s="17"/>
       <c r="C947" s="17"/>
       <c r="D947" s="17"/>
@@ -21561,7 +21555,7 @@
       <c r="P947" s="17"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="29"/>
+      <c r="A948" s="27"/>
       <c r="B948" s="17"/>
       <c r="C948" s="17"/>
       <c r="D948" s="17"/>
@@ -21579,7 +21573,7 @@
       <c r="P948" s="17"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="29"/>
+      <c r="A949" s="27"/>
       <c r="B949" s="17"/>
       <c r="C949" s="17"/>
       <c r="D949" s="17"/>
@@ -21597,7 +21591,7 @@
       <c r="P949" s="17"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="29"/>
+      <c r="A950" s="27"/>
       <c r="B950" s="17"/>
       <c r="C950" s="17"/>
       <c r="D950" s="17"/>
@@ -21615,7 +21609,7 @@
       <c r="P950" s="17"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="29"/>
+      <c r="A951" s="27"/>
       <c r="B951" s="17"/>
       <c r="C951" s="17"/>
       <c r="D951" s="17"/>
@@ -21633,7 +21627,7 @@
       <c r="P951" s="17"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="29"/>
+      <c r="A952" s="27"/>
       <c r="B952" s="17"/>
       <c r="C952" s="17"/>
       <c r="D952" s="17"/>
@@ -21651,7 +21645,7 @@
       <c r="P952" s="17"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="29"/>
+      <c r="A953" s="27"/>
       <c r="B953" s="17"/>
       <c r="C953" s="17"/>
       <c r="D953" s="17"/>
@@ -21669,7 +21663,7 @@
       <c r="P953" s="17"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="29"/>
+      <c r="A954" s="27"/>
       <c r="B954" s="17"/>
       <c r="C954" s="17"/>
       <c r="D954" s="17"/>
@@ -21687,7 +21681,7 @@
       <c r="P954" s="17"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="29"/>
+      <c r="A955" s="27"/>
       <c r="B955" s="17"/>
       <c r="C955" s="17"/>
       <c r="D955" s="17"/>
@@ -21705,7 +21699,7 @@
       <c r="P955" s="17"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="29"/>
+      <c r="A956" s="27"/>
       <c r="B956" s="17"/>
       <c r="C956" s="17"/>
       <c r="D956" s="17"/>
@@ -21723,7 +21717,7 @@
       <c r="P956" s="17"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="29"/>
+      <c r="A957" s="27"/>
       <c r="B957" s="17"/>
       <c r="C957" s="17"/>
       <c r="D957" s="17"/>
@@ -21741,7 +21735,7 @@
       <c r="P957" s="17"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="29"/>
+      <c r="A958" s="27"/>
       <c r="B958" s="17"/>
       <c r="C958" s="17"/>
       <c r="D958" s="17"/>
@@ -21759,7 +21753,7 @@
       <c r="P958" s="17"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="29"/>
+      <c r="A959" s="27"/>
       <c r="B959" s="17"/>
       <c r="C959" s="17"/>
       <c r="D959" s="17"/>
@@ -21777,7 +21771,7 @@
       <c r="P959" s="17"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="29"/>
+      <c r="A960" s="27"/>
       <c r="B960" s="17"/>
       <c r="C960" s="17"/>
       <c r="D960" s="17"/>
@@ -21795,7 +21789,7 @@
       <c r="P960" s="17"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="29"/>
+      <c r="A961" s="27"/>
       <c r="B961" s="17"/>
       <c r="C961" s="17"/>
       <c r="D961" s="17"/>
@@ -21813,7 +21807,7 @@
       <c r="P961" s="17"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="29"/>
+      <c r="A962" s="27"/>
       <c r="B962" s="17"/>
       <c r="C962" s="17"/>
       <c r="D962" s="17"/>
@@ -21831,7 +21825,7 @@
       <c r="P962" s="17"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="29"/>
+      <c r="A963" s="27"/>
       <c r="B963" s="17"/>
       <c r="C963" s="17"/>
       <c r="D963" s="17"/>
@@ -21849,7 +21843,7 @@
       <c r="P963" s="17"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="29"/>
+      <c r="A964" s="27"/>
       <c r="B964" s="17"/>
       <c r="C964" s="17"/>
       <c r="D964" s="17"/>
@@ -21867,7 +21861,7 @@
       <c r="P964" s="17"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="29"/>
+      <c r="A965" s="27"/>
       <c r="B965" s="17"/>
       <c r="C965" s="17"/>
       <c r="D965" s="17"/>
@@ -21885,7 +21879,7 @@
       <c r="P965" s="17"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="29"/>
+      <c r="A966" s="27"/>
       <c r="B966" s="17"/>
       <c r="C966" s="17"/>
       <c r="D966" s="17"/>
@@ -21903,7 +21897,7 @@
       <c r="P966" s="17"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="29"/>
+      <c r="A967" s="27"/>
       <c r="B967" s="17"/>
       <c r="C967" s="17"/>
       <c r="D967" s="17"/>
@@ -21921,7 +21915,7 @@
       <c r="P967" s="17"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="29"/>
+      <c r="A968" s="27"/>
       <c r="B968" s="17"/>
       <c r="C968" s="17"/>
       <c r="D968" s="17"/>
@@ -21939,7 +21933,7 @@
       <c r="P968" s="17"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="29"/>
+      <c r="A969" s="27"/>
       <c r="B969" s="17"/>
       <c r="C969" s="17"/>
       <c r="D969" s="17"/>
@@ -21957,7 +21951,7 @@
       <c r="P969" s="17"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="29"/>
+      <c r="A970" s="27"/>
       <c r="B970" s="17"/>
       <c r="C970" s="17"/>
       <c r="D970" s="17"/>
@@ -21975,7 +21969,7 @@
       <c r="P970" s="17"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="29"/>
+      <c r="A971" s="27"/>
       <c r="B971" s="17"/>
       <c r="C971" s="17"/>
       <c r="D971" s="17"/>
@@ -21993,7 +21987,7 @@
       <c r="P971" s="17"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="29"/>
+      <c r="A972" s="27"/>
       <c r="B972" s="17"/>
       <c r="C972" s="17"/>
       <c r="D972" s="17"/>
@@ -22011,7 +22005,7 @@
       <c r="P972" s="17"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="29"/>
+      <c r="A973" s="27"/>
       <c r="B973" s="17"/>
       <c r="C973" s="17"/>
       <c r="D973" s="17"/>
@@ -22029,7 +22023,7 @@
       <c r="P973" s="17"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="29"/>
+      <c r="A974" s="27"/>
       <c r="B974" s="17"/>
       <c r="C974" s="17"/>
       <c r="D974" s="17"/>
@@ -22047,7 +22041,7 @@
       <c r="P974" s="17"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="29"/>
+      <c r="A975" s="27"/>
       <c r="B975" s="17"/>
       <c r="C975" s="17"/>
       <c r="D975" s="17"/>
@@ -22065,7 +22059,7 @@
       <c r="P975" s="17"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="29"/>
+      <c r="A976" s="27"/>
       <c r="B976" s="17"/>
       <c r="C976" s="17"/>
       <c r="D976" s="17"/>
@@ -22083,7 +22077,7 @@
       <c r="P976" s="17"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="29"/>
+      <c r="A977" s="27"/>
       <c r="B977" s="17"/>
       <c r="C977" s="17"/>
       <c r="D977" s="17"/>
@@ -22101,7 +22095,7 @@
       <c r="P977" s="17"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="29"/>
+      <c r="A978" s="27"/>
       <c r="B978" s="17"/>
       <c r="C978" s="17"/>
       <c r="D978" s="17"/>
@@ -22119,7 +22113,7 @@
       <c r="P978" s="17"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="29"/>
+      <c r="A979" s="27"/>
       <c r="B979" s="17"/>
       <c r="C979" s="17"/>
       <c r="D979" s="17"/>
@@ -22137,7 +22131,7 @@
       <c r="P979" s="17"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="29"/>
+      <c r="A980" s="27"/>
       <c r="B980" s="17"/>
       <c r="C980" s="17"/>
       <c r="D980" s="17"/>
@@ -22155,7 +22149,7 @@
       <c r="P980" s="17"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="29"/>
+      <c r="A981" s="27"/>
       <c r="B981" s="17"/>
       <c r="C981" s="17"/>
       <c r="D981" s="17"/>
@@ -22173,7 +22167,7 @@
       <c r="P981" s="17"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="29"/>
+      <c r="A982" s="27"/>
       <c r="B982" s="17"/>
       <c r="C982" s="17"/>
       <c r="D982" s="17"/>
@@ -22191,7 +22185,7 @@
       <c r="P982" s="17"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="29"/>
+      <c r="A983" s="27"/>
       <c r="B983" s="17"/>
       <c r="C983" s="17"/>
       <c r="D983" s="17"/>
@@ -22209,7 +22203,7 @@
       <c r="P983" s="17"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="29"/>
+      <c r="A984" s="27"/>
       <c r="B984" s="17"/>
       <c r="C984" s="17"/>
       <c r="D984" s="17"/>
@@ -22227,7 +22221,7 @@
       <c r="P984" s="17"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="29"/>
+      <c r="A985" s="27"/>
       <c r="B985" s="17"/>
       <c r="C985" s="17"/>
       <c r="D985" s="17"/>
@@ -22245,7 +22239,7 @@
       <c r="P985" s="17"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="29"/>
+      <c r="A986" s="27"/>
       <c r="B986" s="17"/>
       <c r="C986" s="17"/>
       <c r="D986" s="17"/>
@@ -22263,7 +22257,7 @@
       <c r="P986" s="17"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="29"/>
+      <c r="A987" s="27"/>
       <c r="B987" s="17"/>
       <c r="C987" s="17"/>
       <c r="D987" s="17"/>
@@ -22281,7 +22275,7 @@
       <c r="P987" s="17"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="29"/>
+      <c r="A988" s="27"/>
       <c r="B988" s="17"/>
       <c r="C988" s="17"/>
       <c r="D988" s="17"/>
@@ -22299,7 +22293,7 @@
       <c r="P988" s="17"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="29"/>
+      <c r="A989" s="27"/>
       <c r="B989" s="17"/>
       <c r="C989" s="17"/>
       <c r="D989" s="17"/>
@@ -22317,7 +22311,7 @@
       <c r="P989" s="17"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="29"/>
+      <c r="A990" s="27"/>
       <c r="B990" s="17"/>
       <c r="C990" s="17"/>
       <c r="D990" s="17"/>
@@ -22335,7 +22329,7 @@
       <c r="P990" s="17"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="29"/>
+      <c r="A991" s="27"/>
       <c r="B991" s="17"/>
       <c r="C991" s="17"/>
       <c r="D991" s="17"/>
@@ -22353,7 +22347,7 @@
       <c r="P991" s="17"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="29"/>
+      <c r="A992" s="27"/>
       <c r="B992" s="17"/>
       <c r="C992" s="17"/>
       <c r="D992" s="17"/>
@@ -22371,7 +22365,7 @@
       <c r="P992" s="17"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="29"/>
+      <c r="A993" s="27"/>
       <c r="B993" s="17"/>
       <c r="C993" s="17"/>
       <c r="D993" s="17"/>
@@ -22389,7 +22383,7 @@
       <c r="P993" s="17"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="29"/>
+      <c r="A994" s="27"/>
       <c r="B994" s="17"/>
       <c r="C994" s="17"/>
       <c r="D994" s="17"/>
@@ -22407,7 +22401,7 @@
       <c r="P994" s="17"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="29"/>
+      <c r="A995" s="27"/>
       <c r="B995" s="17"/>
       <c r="C995" s="17"/>
       <c r="D995" s="17"/>
@@ -22425,7 +22419,7 @@
       <c r="P995" s="17"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="29"/>
+      <c r="A996" s="27"/>
       <c r="B996" s="17"/>
       <c r="C996" s="17"/>
       <c r="D996" s="17"/>
@@ -22443,7 +22437,7 @@
       <c r="P996" s="17"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="29"/>
+      <c r="A997" s="27"/>
       <c r="B997" s="17"/>
       <c r="C997" s="17"/>
       <c r="D997" s="17"/>
@@ -22461,7 +22455,7 @@
       <c r="P997" s="17"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="29"/>
+      <c r="A998" s="27"/>
       <c r="B998" s="17"/>
       <c r="C998" s="17"/>
       <c r="D998" s="17"/>
@@ -22479,7 +22473,7 @@
       <c r="P998" s="17"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="29"/>
+      <c r="A999" s="27"/>
       <c r="B999" s="17"/>
       <c r="C999" s="17"/>
       <c r="D999" s="17"/>
@@ -22497,7 +22491,7 @@
       <c r="P999" s="17"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="29"/>
+      <c r="A1000" s="27"/>
       <c r="B1000" s="17"/>
       <c r="C1000" s="17"/>
       <c r="D1000" s="17"/>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hsoASs/jRNTLBGrbLGSl9fs3Txs56zqz1kygX2Tts2o="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RzPnTQEEObj2xhOrpIxfyEWuuTuPMG07VEbUz1H5fX0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="580">
   <si>
     <t>Timestamp</t>
   </si>
@@ -273,141 +273,114 @@
     <t>Hello! My name is Adora Chen, and I initiated during the spring of my first year with the Alpha Nu class. In my free time, I like to draw, cook, play card games with my friends, and visit fun dessert spots. A fun fact about me is that I used to have a music show for UCI's radio station. Ask me about anything at recruitment :)</t>
   </si>
   <si>
-    <t>Ronica</t>
-  </si>
-  <si>
-    <t>Cheng</t>
-  </si>
-  <si>
-    <t>ronica_cheng</t>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Chok</t>
+  </si>
+  <si>
+    <t>vanessa_chok</t>
+  </si>
+  <si>
+    <t>Torrance, CA</t>
+  </si>
+  <si>
+    <t>Product Marketing, Strategy and Analytics, UI/UX Design</t>
+  </si>
+  <si>
+    <t>Design at UCI, UBA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vanessa-chok/</t>
+  </si>
+  <si>
+    <t>vanessachok@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Vanessa Chok, and I initiated the fall quarter of my second year with the Alpha Sigma class. In my free time, I love traveling, thrifting, going to concerts, and skiing. Feel free to ask me about my favorite movies, music, or travel destinations at recruitment!</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chu </t>
+  </si>
+  <si>
+    <t>allison_chu</t>
+  </si>
+  <si>
+    <t>Anaheim Hills, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI/UX design, Product Design, Product Management </t>
+  </si>
+  <si>
+    <t>Product Design @ Darwins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha Phi, MAISS, Kaba Modern </t>
+  </si>
+  <si>
+    <t>Chang-Mcgrath</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/allisonichu/</t>
+  </si>
+  <si>
+    <t>allisonchu@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi hi! My name is Alli, and I initiated spring of my second year with the Alpha Omicron class. In my free time, I love to dance, snowboard, go to the beach, and travel. A fun fact is that I have a deadly phobia of snails! Feel free to ask me about my favorite TV shows to binge watch, and why elephants are the best animals in the world — I can't wait to meet everyone!</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>ryan_chung</t>
+  </si>
+  <si>
+    <t>Eastvale, CA</t>
+  </si>
+  <si>
+    <t>Finance, Wealth Management</t>
+  </si>
+  <si>
+    <t>UBA, ITG, KCM</t>
+  </si>
+  <si>
+    <t>Lough-Yu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ryanmchung/</t>
+  </si>
+  <si>
+    <t>ryanchung@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi my name is Ryan Chung and I initiated with the Alpha Sigma class. I enjoy sports, country music, and playing poker. Ask me about sports, day trading or anything else at recruitment!</t>
+  </si>
+  <si>
+    <t>Thaddeus</t>
+  </si>
+  <si>
+    <t>Dirige</t>
+  </si>
+  <si>
+    <t>thaddeus_dirige</t>
+  </si>
+  <si>
+    <t>Rancho Cucamonga, CA</t>
   </si>
   <si>
     <t>Digital Information Systems</t>
   </si>
   <si>
-    <t>Finance, Consulting, Investment Banking</t>
-  </si>
-  <si>
-    <t>Finance Intern @ Capital One</t>
-  </si>
-  <si>
-    <t>UBA, CA</t>
-  </si>
-  <si>
-    <t>Lough-Yu</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ronica-cheng/</t>
-  </si>
-  <si>
-    <t>ronicacheng@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hey hey! I am Ronica, and I initiated with the Alpha Nu class during the spring quarter of my first year. I like to crochet, snowboard, and play video games in my free time. A fun fact about me is I am an only child :(. Ask me about my dream job of being a farmer and the best types of crops to grow during recruitment!</t>
-  </si>
-  <si>
-    <t>Vanessa</t>
-  </si>
-  <si>
-    <t>Chok</t>
-  </si>
-  <si>
-    <t>vanessa_chok</t>
-  </si>
-  <si>
-    <t>Torrance, CA</t>
-  </si>
-  <si>
-    <t>Product Marketing, Strategy and Analytics, UI/UX Design</t>
-  </si>
-  <si>
-    <t>Design at UCI, UBA</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vanessa-chok/</t>
-  </si>
-  <si>
-    <t>vanessachok@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Vanessa Chok, and I initiated the fall quarter of my second year with the Alpha Sigma class. In my free time, I love traveling, thrifting, going to concerts, and skiing. Feel free to ask me about my favorite movies, music, or travel destinations at recruitment!</t>
-  </si>
-  <si>
-    <t>Allison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chu </t>
-  </si>
-  <si>
-    <t>allison_chu</t>
-  </si>
-  <si>
-    <t>Anaheim Hills, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI/UX design, Product Design, Product Management </t>
-  </si>
-  <si>
-    <t>Product Design @ Darwins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha Phi, MAISS, Kaba Modern </t>
-  </si>
-  <si>
-    <t>Chang-Mcgrath</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/allisonichu/</t>
-  </si>
-  <si>
-    <t>allisonchu@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi hi! My name is Alli, and I initiated spring of my second year with the Alpha Omicron class. In my free time, I love to dance, snowboard, go to the beach, and travel. A fun fact is that I have a deadly phobia of snails! Feel free to ask me about my favorite TV shows to binge watch, and why elephants are the best animals in the world — I can't wait to meet everyone!</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Chung</t>
-  </si>
-  <si>
-    <t>ryan_chung</t>
-  </si>
-  <si>
-    <t>Eastvale, CA</t>
-  </si>
-  <si>
-    <t>Finance, Wealth Management</t>
-  </si>
-  <si>
-    <t>UBA, ITG, KCM</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ryanmchung/</t>
-  </si>
-  <si>
-    <t>ryanchung@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi my name is Ryan Chung and I initiated with the Alpha Sigma class. I enjoy sports, country music, and playing poker. Ask me about sports, day trading or anything else at recruitment!</t>
-  </si>
-  <si>
-    <t>Thaddeus</t>
-  </si>
-  <si>
-    <t>Dirige</t>
-  </si>
-  <si>
-    <t>thaddeus_dirige</t>
-  </si>
-  <si>
-    <t>Rancho Cucamonga, CA</t>
-  </si>
-  <si>
     <t>Consulting, Finance</t>
   </si>
   <si>
@@ -429,736 +402,679 @@
     <t>Hey I’m Thaddeus and I initiated with the Alpha Rhos! I enjoy nature, sneakers, sports, and unique experiences. Ask me about why Lebron recently became my GOAT at recruitment!</t>
   </si>
   <si>
+    <t>Safah</t>
+  </si>
+  <si>
+    <t>Faraz</t>
+  </si>
+  <si>
+    <t>safah_faraz</t>
+  </si>
+  <si>
+    <t>Finance, Accounting</t>
+  </si>
+  <si>
+    <t>Finance Analyst @ PIMCO</t>
+  </si>
+  <si>
+    <t>MUSA</t>
+  </si>
+  <si>
+    <t>Liang-Lin</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/safahfaraz/</t>
+  </si>
+  <si>
+    <t>safahfaraz@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello! My name is Safah and I initiated during the fall quarter of my first year with the Alpha Xi class (ride or xi!!). In my free time I enjoy spending time with my cat, reading, binge watching TV, trying new food and listening to people's music recs. Feel free to ask me about my birthday, how I almost broke my nose and where I've traveled :) Can't wait to meet you! </t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>ayushi_gupta</t>
+  </si>
+  <si>
+    <t>Alpha Pi</t>
+  </si>
+  <si>
+    <t>Ladera Ranch, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatics </t>
+  </si>
+  <si>
+    <t>Finance, Product Management, Data</t>
+  </si>
+  <si>
+    <t>Incoming Finance Intern @ Raytheon Technologies</t>
+  </si>
+  <si>
+    <t>UBA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ayushigupta8/</t>
+  </si>
+  <si>
+    <t>ayushigupta@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey! My name is Ayushi and I initiated fall quarter of my second year with the Alpha Pi class. I'm a big sports gal and I love to hang out with friends, watch movies, play soccer, get food, and have deep philosophical convos. Feel free to ask me about my favorite foods, tv shows, and goals I have for the rest of the year during recruitment!</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Henkel</t>
+  </si>
+  <si>
+    <t>jason_henkel</t>
+  </si>
+  <si>
+    <t>Alpha Mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis, CA </t>
+  </si>
+  <si>
+    <t>Proptech</t>
+  </si>
+  <si>
+    <t>Zhang-Feng</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jasonfhenkel/</t>
+  </si>
+  <si>
+    <t>jasonhenkel@ucidsp.com</t>
+  </si>
+  <si>
+    <t>My name is Jason and I initiated in Fall ‘21 with the Alpha Mu class.</t>
+  </si>
+  <si>
+    <t>Coca</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>coca_ho</t>
+  </si>
+  <si>
+    <t>Consumer Insights Intern @ FOX Entertanment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Tennis </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/coca-ho-a74008269/</t>
+  </si>
+  <si>
+    <t>cocaho@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey guys! My name is Coca. I am a proud Alpha Omicron and I initiated in the spring of my first year. Some hobbies of mine include tennis, golf, poetry, and oil painting. I love parrots, iced honey lattes, and hot pink! Ask me about why I think listening to music is a waste of time. </t>
+  </si>
+  <si>
+    <t>Devon</t>
+  </si>
+  <si>
+    <t>Huang</t>
+  </si>
+  <si>
+    <t>devon_huang</t>
+  </si>
+  <si>
+    <t>Wealth Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incoming Asset and Wealth Management Summer Analyst @ J.P. Morgan. </t>
+  </si>
+  <si>
+    <t>MAISS, SMIF</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/devon-c-huang/</t>
+  </si>
+  <si>
+    <t>devonhuang@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi everyone! My name is Devon and I initiated fall quarter of my sophomore year with the Alpha Pi class! In my free time you will find me lifting, hooping, and snowboarding. A fun fact about me is that I got a black belt in tae kwon do as a kid. Ask me about who my favorite basketball players are at recruitment!</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>forest_huang</t>
+  </si>
+  <si>
+    <t>Basking Ridge, NJ</t>
+  </si>
+  <si>
+    <t>Information &amp; Computer Science</t>
+  </si>
+  <si>
+    <t>Consulting, Product Management</t>
+  </si>
+  <si>
+    <t>Business Analyst Intern @ Capital One</t>
+  </si>
+  <si>
+    <t>180 Degrees Consulting, Product Association, UCI Esports</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/foresthuang/</t>
+  </si>
+  <si>
+    <t>foresthuang@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two Michelin starred restaurants (technically three if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Iyengar</t>
+  </si>
+  <si>
+    <t>ananya_iyengar</t>
+  </si>
+  <si>
+    <t>Sales, Marketing</t>
+  </si>
+  <si>
+    <t>Campus Manager @ Fresh Prints</t>
+  </si>
+  <si>
+    <t>Indian Subcontinental Club</t>
+  </si>
+  <si>
+    <t>Huang-Merchant</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ananyaiyengar3/</t>
+  </si>
+  <si>
+    <t>ananyaiyengar@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Ananya and I initiated in my sophomore fall with the Alpha Sigma class. In my free time, I love to sing, try new sweet treats, and go to the beach. At recruitment, ask me about my favorite shows to binge-watch and why monkeys are my favorite animals. So excited to meet you all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya </t>
+  </si>
+  <si>
+    <t>Jagannathan</t>
+  </si>
+  <si>
+    <t>shreya_jagannathan</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Law, Entrepreneurship, Finance</t>
+  </si>
+  <si>
+    <t>ASUCI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shreyajagan/</t>
+  </si>
+  <si>
+    <t>shreyajagannathan@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey, my name is Shreya! I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love to read, watch horror movies, and make very specific pinterest boards. Feel free to ask me about places I’ve traveled to and lived in!</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Jukita</t>
+  </si>
+  <si>
+    <t>amelia_jukita</t>
+  </si>
+  <si>
+    <t>Jakarta, Indonesia</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Data Analyst @ Nusantara Re</t>
+  </si>
+  <si>
+    <t>180 Degrees Consulting, Product Association, MAISS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amelia-jukita/</t>
+  </si>
+  <si>
+    <t>ameliajukita@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hii! My name is Amelia, and I initiated in the fall quarter of my sophomore year with the Alpha Sigma Class. I enjoy thrifting, playing the piano, and exploring new food combinations. Feel free to ask me about my love for harbor seals!</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Kapadekar</t>
+  </si>
+  <si>
+    <t>riya_kapadekar</t>
+  </si>
+  <si>
+    <t>Informatics</t>
+  </si>
+  <si>
+    <t>Project Management, Product Management</t>
+  </si>
+  <si>
+    <t>Specialty Masters Program Student Assistant @ Paul Merage School of Business</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/riya-kapadekar/</t>
+  </si>
+  <si>
+    <t>riyakapadekar@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Riya and I'm part of the Alpha Sigma class. In my free time, I love going to the beach, making Pinterest boards, and trying new cafes! Ask me about my love for Tru Fru, Lana del Rey, and Grey's Anatomy.</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Kaplan</t>
+  </si>
+  <si>
+    <t>josh_kaplan</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Law, Finance, Consulting</t>
+  </si>
+  <si>
+    <t>Legal Research Intern @ Gamma Law</t>
+  </si>
+  <si>
+    <t>Tribune/Alumni Connections of Sigma Chi, Hillel, Pre Law Society</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/joshua-dkaplan/</t>
+  </si>
+  <si>
+    <t>joshkaplan@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi, my name is Josh Kaplan and I initiated in the Spring of my freshman year with the Alpha Rho class. A fun fact about me is that I am an adrenaline junkie. I love cliff jumping, urban exploring, playing sports, bodybuilding, and camping. Ask me about travel, latin music, and martial arts at recruitment.</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>james_kent</t>
+  </si>
+  <si>
+    <t>Santa Clarita, CA</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Asset &amp; Wealth Management</t>
+  </si>
+  <si>
+    <t>Incoming Audit Intern @ EY</t>
+  </si>
+  <si>
+    <t>SMIF, ITG, UBA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/james-kent2004/</t>
+  </si>
+  <si>
+    <t>jameskent@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is James Kent and I initiated in the Fall of 2023 with the Alpha Pi class. In my free time, I love watching TV, playing video games, golfing, playing pickleball, working out, and listening to music. Ask me about my favorite shows, dinosaurs, or anything else at recruitment!</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>brennan_kim</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>Finance, Strategy, Consulting</t>
+  </si>
+  <si>
+    <t>Operations Intern @ FOX Sports</t>
+  </si>
+  <si>
+    <t>MBA Programs Student Assistant</t>
+  </si>
+  <si>
+    <t>Wang-Zhu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brennankim/</t>
+  </si>
+  <si>
+    <t>brennankim@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Brennan Kim and I initiated with the Alpha Omicron class. In my free time, I enjoy playing basketball and golf, hanging out with friends, and exploring all of the things that Orange County has to offer. Feel free to ask me about my favorite movies or literally anything at recruitment!</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Klarreich</t>
+  </si>
+  <si>
+    <t>jack_klarreich</t>
+  </si>
+  <si>
+    <t>Allendale, NJ</t>
+  </si>
+  <si>
+    <t>Tech Sales, Accounting</t>
+  </si>
+  <si>
+    <t>Incoming Tax Intern @ KPMG</t>
+  </si>
+  <si>
+    <t>Sigma Pi, Sports Business Association</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jack-klarreich/</t>
+  </si>
+  <si>
+    <t>jackklarreich@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! I’m Jack Klarreich, and I joined the Alpha Rho class in the spring of 2024. Outside of class, I’m passionate about skiing, hitting the ARC, and hanging out with friends. Feel free to ask me about my favorite movies, why I think "Glengarry Gary Ross" is the best, or my cold plunge at recruitment!</t>
+  </si>
+  <si>
+    <t>Tirza</t>
+  </si>
+  <si>
+    <t>Kunaidy</t>
+  </si>
+  <si>
+    <t>tirza_kunaidy</t>
+  </si>
+  <si>
+    <t>Sacramento, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Economics </t>
+  </si>
+  <si>
+    <t>Red Bull Student Marketeer, Doordash Campus Event Specialist/Student Ambassador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri Delta </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tirzakunaidy/</t>
+  </si>
+  <si>
+    <t>tirzakunaidy@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! My name is Tirza Kunaidy and I am a part of the Alpha Rho class. In my free time I love hanging out with friends, going to the beach, and trying new matcha spots. Ask me about my favorite places I’ve traveled and anything music related at recruitment! </t>
+  </si>
+  <si>
+    <t>Eshwar</t>
+  </si>
+  <si>
+    <t>Kuppa</t>
+  </si>
+  <si>
+    <t>eshwar_kuppa</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Investing</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/delta-sigma-pi---pi-sigma-chapter/</t>
+  </si>
+  <si>
+    <t>eshwarkuppa@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Eshwar and I initiated during the spring of my freshman year with the Alpha Rho class. In my free time I enjoy playing sports, listening to music, and traveling. Ask me about anything at recruitment!</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Kwan</t>
+  </si>
+  <si>
+    <t>jessica_kwan</t>
+  </si>
+  <si>
+    <t>Milpitas, CA</t>
+  </si>
+  <si>
+    <t>Cognitive Science</t>
+  </si>
+  <si>
+    <t>Economics, Digital Information Systems</t>
+  </si>
+  <si>
+    <t>UBA, Psychology Student Association</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jessicakwan85/</t>
+  </si>
+  <si>
+    <t>jessicakwan@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! My name is Jess and I initiated the Fall quarter of my first year with the Alpha Sigma class. I enjoy playing basketball, going to the beach, getting matcha, and going on late night drives. Ask me about my Aritzia cart, my favorite matcha spots, my super specific playlists, and the 2016 Warriors at recruitment! </t>
+  </si>
+  <si>
+    <t>Haylie</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>haylie_lee</t>
+  </si>
+  <si>
+    <t>Las Vegas, NV</t>
+  </si>
+  <si>
+    <t>Consumer Insights Intern @ FOX Entertainment</t>
+  </si>
+  <si>
+    <t>Wong-Li</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/haylielee/</t>
+  </si>
+  <si>
+    <t>haylielee@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hello! My name is Haylie, and I initiated spring quarter of my second year with the Alpha Omicrons! In my free time, I love watching movies, soccer, and Formula 1, taking pictures on my cameras, and driving around. Ask me about my movie recommendations, favorite soccer players, or the best matcha spots in SoCal at recruitment; I’m excited to meet you all!</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>jacob_lee</t>
+  </si>
+  <si>
+    <t>Brea, CA</t>
+  </si>
+  <si>
+    <t>Consulting, Finance, Wealth Management</t>
+  </si>
+  <si>
+    <t>Incoming MMBSI Summer Analyst @ J.P. Morgan</t>
+  </si>
+  <si>
+    <t>ASUCI, KCM</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jacobjlee2004/</t>
+  </si>
+  <si>
+    <t>jacoblee@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Jacob Lee and I initiated the Spring quarter of my first year with the Alpha Omicron class. In my free time, I love driving around to get food with friends, watching Netflix, being outdoors, as well as playing volleyball and soccer. Feel free to ask me about my favorite shows, food, or anything else at recruitment!</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>juliana_lee</t>
+  </si>
+  <si>
+    <t>San Jose, CA</t>
+  </si>
+  <si>
+    <t>Psychology, Digital Arts</t>
+  </si>
+  <si>
+    <t>Marketing, UI/UX Design</t>
+  </si>
+  <si>
+    <t>Artist Marketing Intern @ RocNation</t>
+  </si>
+  <si>
+    <t>MAISS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/julianalee2003/</t>
+  </si>
+  <si>
+    <t>julianalee@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey! My name is Juliana Lee, and I initiated the spring quarter of my second year with the Alpha Omicron class. In my free time, I love to thrift, listen to music, rave, and upcycle clothes. Feel free to ask me about my favorite music and foods at recruitment, I am so excited to meet you!</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>nathan_lee</t>
+  </si>
+  <si>
+    <t>Davis, CA</t>
+  </si>
+  <si>
+    <t>Product, Marketing, Strategy</t>
+  </si>
+  <si>
+    <t>Incoming Associate Product Manager Intern @ Google</t>
+  </si>
+  <si>
+    <t>Product Association, MUSA, FEMBA Paul Merage, Sigma Chi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nathan-lee1/</t>
+  </si>
+  <si>
+    <t>nathanlee@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! My name is Nathan Lee and I initiated with the Alpha Mu class. I enjoy watching basketball and football and I like thrifting in my free time. My favorite song is Holy Ground by Taylor Swift and you should ask me about my cross country trip at recruitment! </t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>jessica_lin</t>
+  </si>
+  <si>
+    <t>Salt Lake City, UT</t>
+  </si>
+  <si>
+    <t>Business Administration, Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineering </t>
+  </si>
+  <si>
+    <t>Technology Consulting Intern @ EY</t>
+  </si>
+  <si>
+    <t>ITG, UBA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jjessicalin/</t>
+  </si>
+  <si>
+    <t>jessicalin@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey kings and queens! My name is Jessica Lin and I initiated during the spring quarter of my first year with the Alpha Omicron class. A fun fact about me is I love playing poker. In my free time, I love thrifting, gaming, and working out. Ask me about my other hobbies or current favorite movies at recruitment! </t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>julia_lin</t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>Anthropology, Digital Information Systems</t>
+  </si>
+  <si>
+    <t>Marketing, Strategy, Consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance/Business Operations Acquisition Intern @ NASA Jet Propulsion Laboratory </t>
+  </si>
+  <si>
+    <t>MUSA, Campus Representatives, Amazon Prime Student Campus Manager</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/julia-lin-2003/</t>
+  </si>
+  <si>
+    <t>julialin@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Julia and I initiated in the fall of my freshman year with the Alpha Mu class. Some fun facts about me are that I’m a little bit of a shopaholic and that you might see me around campus giving tours since I’m a tour guide for UCI. Ask me about my favorite flavor of Red Bull or anything at recruitment :-)</t>
+  </si>
+  <si>
     <t>Andrew</t>
-  </si>
-  <si>
-    <t>Doan</t>
-  </si>
-  <si>
-    <t>andrew_doan</t>
-  </si>
-  <si>
-    <t>Alpha Mu</t>
-  </si>
-  <si>
-    <t>Westminster, CA</t>
-  </si>
-  <si>
-    <t>Informatics</t>
-  </si>
-  <si>
-    <t>Sociology</t>
-  </si>
-  <si>
-    <t>Product Design, Product Management</t>
-  </si>
-  <si>
-    <t>Product Design Intern @ Anduril</t>
-  </si>
-  <si>
-    <t>Commit the Change, Product Association</t>
-  </si>
-  <si>
-    <t>Zhang-Feng</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/andrew-g-doan/</t>
-  </si>
-  <si>
-    <t>andrewdoan@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hey there! My name is Andrew and I initiated in Fall 2021 with the Alpha Mus. Professionally, I'm super interested in all things product, especially design! Beyond that, I love dance, art, poetry, music festivals, traveling, and good company. Looking forward to meeting you at recruitment :)</t>
-  </si>
-  <si>
-    <t>Safah</t>
-  </si>
-  <si>
-    <t>Faraz</t>
-  </si>
-  <si>
-    <t>safah_faraz</t>
-  </si>
-  <si>
-    <t>Finance, Accounting</t>
-  </si>
-  <si>
-    <t>Finance Analyst @ PIMCO</t>
-  </si>
-  <si>
-    <t>MUSA</t>
-  </si>
-  <si>
-    <t>Liang-Lin</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/safahfaraz/</t>
-  </si>
-  <si>
-    <t>safahfaraz@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello! My name is Safah and I initiated during the fall quarter of my first year with the Alpha Xi class (ride or xi!!). In my free time I enjoy spending time with my cat, reading, binge watching TV, trying new food and listening to people's music recs. Feel free to ask me about my birthday, how I almost broke my nose and where I've traveled :) Can't wait to meet you! </t>
-  </si>
-  <si>
-    <t>Ayushi</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>ayushi_gupta</t>
-  </si>
-  <si>
-    <t>Alpha Pi</t>
-  </si>
-  <si>
-    <t>Ladera Ranch, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatics </t>
-  </si>
-  <si>
-    <t>Finance, Product Management, Data</t>
-  </si>
-  <si>
-    <t>Incoming Finance Intern @ Raytheon Technologies</t>
-  </si>
-  <si>
-    <t>UBA</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ayushigupta8/</t>
-  </si>
-  <si>
-    <t>ayushigupta@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hey! My name is Ayushi and I initiated fall quarter of my second year with the Alpha Pi class. I'm a big sports gal and I love to hang out with friends, watch movies, play soccer, get food, and have deep philosophical convos. Feel free to ask me about my favorite foods, tv shows, and goals I have for the rest of the year during recruitment!</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Henkel</t>
-  </si>
-  <si>
-    <t>jason_henkel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davis, CA </t>
-  </si>
-  <si>
-    <t>Proptech</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jasonfhenkel/</t>
-  </si>
-  <si>
-    <t>jasonhenkel@ucidsp.com</t>
-  </si>
-  <si>
-    <t>My name is Jason and I initiated in Fall ‘21 with the Alpha Mu class.</t>
-  </si>
-  <si>
-    <t>Coca</t>
-  </si>
-  <si>
-    <t>Ho</t>
-  </si>
-  <si>
-    <t>coca_ho</t>
-  </si>
-  <si>
-    <t>Consumer Insights Intern @ FOX Entertanment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club Tennis </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/coca-ho-a74008269/</t>
-  </si>
-  <si>
-    <t>cocaho@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey guys! My name is Coca. I am a proud Alpha Omicron and I initiated in the spring of my first year. Some hobbies of mine include tennis, golf, poetry, and oil painting. I love parrots, iced honey lattes, and hot pink! Ask me about why I think listening to music is a waste of time. </t>
-  </si>
-  <si>
-    <t>Devon</t>
-  </si>
-  <si>
-    <t>Huang</t>
-  </si>
-  <si>
-    <t>devon_huang</t>
-  </si>
-  <si>
-    <t>Wealth Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incoming Asset and Wealth Management Summer Analyst @ J.P. Morgan. </t>
-  </si>
-  <si>
-    <t>MAISS, SMIF</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/devon-c-huang/</t>
-  </si>
-  <si>
-    <t>devonhuang@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi everyone! My name is Devon and I initiated fall quarter of my sophomore year with the Alpha Pi class! In my free time you will find me lifting, hooping, and snowboarding. A fun fact about me is that I got a black belt in tae kwon do as a kid. Ask me about who my favorite basketball players are at recruitment!</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>forest_huang</t>
-  </si>
-  <si>
-    <t>Basking Ridge, NJ</t>
-  </si>
-  <si>
-    <t>Information &amp; Computer Science</t>
-  </si>
-  <si>
-    <t>Consulting, Product Management</t>
-  </si>
-  <si>
-    <t>Business Analyst Intern @ Capital One</t>
-  </si>
-  <si>
-    <t>180 Degrees Consulting, Product Association, UCI Esports</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/foresthuang/</t>
-  </si>
-  <si>
-    <t>foresthuang@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! I’m Forest Huang and I initiated fall of my freshman year as part of the Alpha Mu class. My favorite pastimes include hanging out with friends, trying new foods/restaurants, and playing/watching Esports. A fun fact about me is that I’ve been to two Michelin starred restaurants (technically three if you count takeout). Ask me about video games, stocks, or anything else during recruitment! </t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Huynh</t>
-  </si>
-  <si>
-    <t>diana_huynh</t>
-  </si>
-  <si>
-    <t>Laguna Hills, CA</t>
-  </si>
-  <si>
-    <t>Data Engineering, Product Management, Marketing</t>
-  </si>
-  <si>
-    <t>Technology Business Office Portfolio Management Intern @ CME Group</t>
-  </si>
-  <si>
-    <t>UCI Women's Club Soccer, Sports Business Association</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dianahuynh/</t>
-  </si>
-  <si>
-    <t>dianahuynh@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Diana and I initiated in Fall 2022 as a second year with the Alpha Xi class. In my free time, I love being active outdoors, trying new food spots, thrifting, and traveling! Feel free to ask me about my favorite places I've traveled to or any food recs!</t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>Iyengar</t>
-  </si>
-  <si>
-    <t>ananya_iyengar</t>
-  </si>
-  <si>
-    <t>Sales, Marketing</t>
-  </si>
-  <si>
-    <t>Campus Manager @ Fresh Prints</t>
-  </si>
-  <si>
-    <t>Indian Subcontinental Club</t>
-  </si>
-  <si>
-    <t>Huang-Merchant</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ananyaiyengar3/</t>
-  </si>
-  <si>
-    <t>ananyaiyengar@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Ananya and I initiated in my sophomore fall with the Alpha Sigma class. In my free time, I love to sing, try new sweet treats, and go to the beach. At recruitment, ask me about my favorite shows to binge-watch and why monkeys are my favorite animals. So excited to meet you all!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreya </t>
-  </si>
-  <si>
-    <t>Jagannathan</t>
-  </si>
-  <si>
-    <t>shreya_jagannathan</t>
-  </si>
-  <si>
-    <t>Political Science</t>
-  </si>
-  <si>
-    <t>Law, Entrepreneurship, Finance</t>
-  </si>
-  <si>
-    <t>ASUCI</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shreyajagan/</t>
-  </si>
-  <si>
-    <t>shreyajagannathan@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hey, my name is Shreya! I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love to read, watch horror movies, and make very specific pinterest boards. Feel free to ask me about places I’ve traveled to and lived in!</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Jukita</t>
-  </si>
-  <si>
-    <t>amelia_jukita</t>
-  </si>
-  <si>
-    <t>Jakarta, Indonesia</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Data Analyst @ Nusantara Re</t>
-  </si>
-  <si>
-    <t>180 Degrees Consulting, Product Association, MAISS</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/amelia-jukita/</t>
-  </si>
-  <si>
-    <t>ameliajukita@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hii! My name is Amelia, and I initiated in the fall quarter of my sophomore year with the Alpha Sigma Class. I enjoy thrifting, playing the piano, and exploring new food combinations. Feel free to ask me about my love for harbor seals!</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>Kapadekar</t>
-  </si>
-  <si>
-    <t>riya_kapadekar</t>
-  </si>
-  <si>
-    <t>Project Management, Product Management</t>
-  </si>
-  <si>
-    <t>Specialty Masters Program Student Assistant @ Paul Merage School of Business</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/riya-kapadekar/</t>
-  </si>
-  <si>
-    <t>riyakapadekar@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Riya and I'm part of the Alpha Sigma class. In my free time, I love going to the beach, making Pinterest boards, and trying new cafes! Ask me about my love for Tru Fru, Lana del Rey, and Grey's Anatomy.</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Kaplan</t>
-  </si>
-  <si>
-    <t>josh_kaplan</t>
-  </si>
-  <si>
-    <t>Palo Alto, CA</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Law, Finance, Consulting</t>
-  </si>
-  <si>
-    <t>Legal Research Intern @ Gamma Law</t>
-  </si>
-  <si>
-    <t>Tribune/Alumni Connections of Sigma Chi, Hillel, Pre Law Society</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/joshua-dkaplan/</t>
-  </si>
-  <si>
-    <t>joshkaplan@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi, my name is Josh Kaplan and I initiated in the Spring of my freshman year with the Alpha Rho class. A fun fact about me is that I am an adrenaline junkie. I love cliff jumping, urban exploring, playing sports, bodybuilding, and camping. Ask me about travel, latin music, and martial arts at recruitment.</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>james_kent</t>
-  </si>
-  <si>
-    <t>Santa Clarita, CA</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Asset &amp; Wealth Management</t>
-  </si>
-  <si>
-    <t>Incoming Audit Intern @ EY</t>
-  </si>
-  <si>
-    <t>SMIF, ITG, UBA</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/james-kent2004/</t>
-  </si>
-  <si>
-    <t>jameskent@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is James Kent and I initiated in the Fall of 2023 with the Alpha Pi class. In my free time, I love watching TV, playing video games, golfing, playing pickleball, working out, and listening to music. Ask me about my favorite shows, dinosaurs, or anything else at recruitment!</t>
-  </si>
-  <si>
-    <t>Brennan</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>brennan_kim</t>
-  </si>
-  <si>
-    <t>Seattle, WA</t>
-  </si>
-  <si>
-    <t>Finance, Strategy, Consulting</t>
-  </si>
-  <si>
-    <t>Operations Intern @ FOX Sports</t>
-  </si>
-  <si>
-    <t>MBA Programs Student Assistant</t>
-  </si>
-  <si>
-    <t>Wang-Zhu</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/brennankim/</t>
-  </si>
-  <si>
-    <t>brennankim@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Brennan Kim and I initiated with the Alpha Omicron class. In my free time, I enjoy playing basketball and golf, hanging out with friends, and exploring all of the things that Orange County has to offer. Feel free to ask me about my favorite movies or literally anything at recruitment!</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Klarreich</t>
-  </si>
-  <si>
-    <t>jack_klarreich</t>
-  </si>
-  <si>
-    <t>Allendale, NJ</t>
-  </si>
-  <si>
-    <t>Tech Sales, Accounting</t>
-  </si>
-  <si>
-    <t>Incoming Tax Intern @ KPMG</t>
-  </si>
-  <si>
-    <t>Sigma Pi, Sports Business Association</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jack-klarreich/</t>
-  </si>
-  <si>
-    <t>jackklarreich@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! I’m Jack Klarreich, and I joined the Alpha Rho class in the spring of 2024. Outside of class, I’m passionate about skiing, hitting the ARC, and hanging out with friends. Feel free to ask me about my favorite movies, why I think "Glengarry Gary Ross" is the best, or my cold plunge at recruitment!</t>
-  </si>
-  <si>
-    <t>Tirza</t>
-  </si>
-  <si>
-    <t>Kunaidy</t>
-  </si>
-  <si>
-    <t>tirza_kunaidy</t>
-  </si>
-  <si>
-    <t>Sacramento, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Economics </t>
-  </si>
-  <si>
-    <t>Red Bull Student Marketeer, Doordash Campus Event Specialist/Student Ambassador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tri Delta </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/tirzakunaidy/</t>
-  </si>
-  <si>
-    <t>tirzakunaidy@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! My name is Tirza Kunaidy and I am a part of the Alpha Rho class. In my free time I love hanging out with friends, going to the beach, and trying new matcha spots. Ask me about my favorite places I’ve traveled and anything music related at recruitment! </t>
-  </si>
-  <si>
-    <t>Eshwar</t>
-  </si>
-  <si>
-    <t>Kuppa</t>
-  </si>
-  <si>
-    <t>eshwar_kuppa</t>
-  </si>
-  <si>
-    <t>Entrepreneurship, Investing</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/delta-sigma-pi---pi-sigma-chapter/</t>
-  </si>
-  <si>
-    <t>eshwarkuppa@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Eshwar and I initiated during the spring of my freshman year with the Alpha Rho class. In my free time I enjoy playing sports, listening to music, and traveling. Ask me about anything at recruitment!</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Kwan</t>
-  </si>
-  <si>
-    <t>jessica_kwan</t>
-  </si>
-  <si>
-    <t>Milpitas, CA</t>
-  </si>
-  <si>
-    <t>Psychological Science, Quantitative Economics</t>
-  </si>
-  <si>
-    <t>UBA, Psychology Student Association</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jessicakwan85/</t>
-  </si>
-  <si>
-    <t>jessicakwan@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! My name is Jess and I initiated the Fall quarter of my first year with the Alpha Sigma class. I enjoy playing basketball, going to the beach, getting matcha, and going on late night drives. Ask me about my Aritzia cart, my favorite matcha spots, my super specific playlists, and the 2016 Warriors at recruitment! </t>
-  </si>
-  <si>
-    <t>Haylie</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>haylie_lee</t>
-  </si>
-  <si>
-    <t>Las Vegas, NV</t>
-  </si>
-  <si>
-    <t>Consumer Insights Intern @ FOX Entertainment</t>
-  </si>
-  <si>
-    <t>Wong-Li</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/haylielee/</t>
-  </si>
-  <si>
-    <t>haylielee@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hello! My name is Haylie, and I initiated spring quarter of my second year with the Alpha Omicrons! In my free time, I love watching movies, soccer, and Formula 1, taking pictures on my cameras, and driving around. Ask me about my movie recommendations, favorite soccer players, or the best matcha spots in SoCal at recruitment; I’m excited to meet you all!</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>jacob_lee</t>
-  </si>
-  <si>
-    <t>Brea, CA</t>
-  </si>
-  <si>
-    <t>Consulting, Finance, Wealth Management</t>
-  </si>
-  <si>
-    <t>Incoming MMBSI Summer Analyst @ J.P. Morgan</t>
-  </si>
-  <si>
-    <t>ASUCI, KCM</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jacobjlee2004/</t>
-  </si>
-  <si>
-    <t>jacoblee@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Jacob Lee and I initiated the Spring quarter of my first year with the Alpha Omicron class. In my free time, I love driving around to get food with friends, watching Netflix, being outdoors, as well as playing volleyball and soccer. Feel free to ask me about my favorite shows, food, or anything else at recruitment!</t>
-  </si>
-  <si>
-    <t>Juliana</t>
-  </si>
-  <si>
-    <t>juliana_lee</t>
-  </si>
-  <si>
-    <t>San Jose, CA</t>
-  </si>
-  <si>
-    <t>Psychology, Digital Arts</t>
-  </si>
-  <si>
-    <t>Marketing, UI/UX Design</t>
-  </si>
-  <si>
-    <t>Artist Marketing Intern @ RocNation</t>
-  </si>
-  <si>
-    <t>MAISS</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/julianalee2003/</t>
-  </si>
-  <si>
-    <t>julianalee@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hey! My name is Juliana Lee, and I initiated the spring quarter of my second year with the Alpha Omicron class. In my free time, I love to thrift, listen to music, rave, and upcycle clothes. Feel free to ask me about my favorite music and foods at recruitment, I am so excited to meet you!</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>nathan_lee</t>
-  </si>
-  <si>
-    <t>Davis, CA</t>
-  </si>
-  <si>
-    <t>Product, Marketing, Strategy</t>
-  </si>
-  <si>
-    <t>Incoming Associate Product Manager Intern @ Google</t>
-  </si>
-  <si>
-    <t>Product Association, MUSA, FEMBA Paul Merage, Sigma Chi</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nathan-lee1/</t>
-  </si>
-  <si>
-    <t>nathanlee@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! My name is Nathan Lee and I initiated with the Alpha Mu class. I enjoy watching basketball and football and I like thrifting in my free time. My favorite song is Holy Ground by Taylor Swift and you should ask me about my cross country trip at recruitment! </t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
-    <t>jessica_lin</t>
-  </si>
-  <si>
-    <t>Salt Lake City, UT</t>
-  </si>
-  <si>
-    <t>Business Administration, Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering </t>
-  </si>
-  <si>
-    <t>Technology Consulting Intern @ EY</t>
-  </si>
-  <si>
-    <t>ITG, UBA</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jjessicalin/</t>
-  </si>
-  <si>
-    <t>jessicalin@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey kings and queens! My name is Jessica Lin and I initiated during the spring quarter of my first year with the Alpha Omicron class. A fun fact about me is I love playing poker. In my free time, I love thrifting, gaming, and working out. Ask me about my other hobbies or current favorite movies at recruitment! </t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>julia_lin</t>
-  </si>
-  <si>
-    <t>Portland, OR</t>
-  </si>
-  <si>
-    <t>Anthropology, Digital Information Systems</t>
-  </si>
-  <si>
-    <t>Marketing, Strategy, Consulting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance/Business Operations Acquisition Intern @ NASA Jet Propulsion Laboratory </t>
-  </si>
-  <si>
-    <t>MUSA, Campus Representatives, Amazon Prime Student Campus Manager</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/julia-lin-2003/</t>
-  </si>
-  <si>
-    <t>julialin@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Julia and I initiated in the fall of my freshman year with the Alpha Mu class. Some fun facts about me are that I’m a little bit of a shopaholic and that you might see me around campus giving tours since I’m a tour guide for UCI. Ask me about my favorite flavor of Red Bull or anything at recruitment :-)</t>
   </si>
   <si>
     <t>Ly</t>
@@ -2601,270 +2517,268 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="114.0" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="127.5" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="73.5" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" ht="127.5" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="G8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" ht="90.0" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="B9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="G9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" ht="73.5" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="L9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" ht="114.0" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" ht="90.0" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="K10" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="18" t="s">
+      <c r="L10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="M10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="N10" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" ht="114.0" customHeight="1">
+      <c r="O10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" ht="78.0" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="20" t="s">
         <v>131</v>
       </c>
+      <c r="K11" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="L11" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -2877,30 +2791,30 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="102.0" customHeight="1">
-      <c r="A12" s="4">
-        <v>44397.381944444445</v>
+    <row r="12" ht="90.0" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>143</v>
@@ -2908,23 +2822,23 @@
       <c r="J12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="19" t="s">
         <v>146</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -2937,52 +2851,52 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="78.0" customHeight="1">
+    <row r="13" ht="102.0" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>154</v>
+      <c r="J13" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="L13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2995,54 +2909,54 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="90.0" customHeight="1">
+    <row r="14" ht="135.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3055,52 +2969,54 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="102.0" customHeight="1">
+    <row r="15" ht="96.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -3113,54 +3029,54 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="135.75" customHeight="1">
+    <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -3173,474 +3089,470 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" ht="96.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="109.5" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="K17" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="L17" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="M17" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="N17" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="P17" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="P17" s="5" t="s">
+    </row>
+    <row r="18" ht="109.5" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="C18" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="L18" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="M18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="O18" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="O18" s="5" t="s">
+    </row>
+    <row r="19" ht="96.75" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="C19" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" ht="96.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="D19" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="H19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="K19" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="L19" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="M19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="O19" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="P19" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" ht="109.5" customHeight="1">
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="L20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="O20" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="P20" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="N20" s="18" t="s">
+    </row>
+    <row r="21" ht="122.25" customHeight="1">
+      <c r="A21" s="22">
+        <v>45551.217361111114</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="C21" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="P20" s="21" t="s">
+      <c r="D21" s="23" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="21" ht="109.5" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="E21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" ht="122.25" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="M21" s="19" t="s">
+      <c r="I22" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" ht="96.75" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="5" t="s">
         <v>245</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" ht="96.75" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16" t="s">
+      <c r="E23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="H23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
         <v>251</v>
       </c>
+      <c r="K23" s="19" t="s">
+        <v>252</v>
+      </c>
       <c r="L23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" ht="96.75" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" ht="122.25" customHeight="1">
-      <c r="A24" s="22">
-        <v>45551.217361111114</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="B24" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="K24" s="23" t="s">
+      <c r="F24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="H24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
         <v>262</v>
       </c>
+      <c r="K24" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="M24" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="P24" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="25" ht="122.25" customHeight="1">
+      <c r="O24" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" ht="114.0" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="K25" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="25" t="s">
         <v>273</v>
       </c>
+      <c r="L25" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="M25" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P25" s="16" t="s">
         <v>276</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3653,168 +3565,150 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="96.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+    <row r="26" ht="114.0" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K26" s="19" t="s">
+      <c r="L26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="O26" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="P26" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="N26" s="6" t="s">
+    </row>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="C27" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="D27" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" ht="96.75" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="E27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="L27" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="M27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="O27" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="P27" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" ht="114.0" customHeight="1">
+    </row>
+    <row r="28" ht="87.0" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="J28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="P28" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -3828,147 +3722,171 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="114.0" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="L29" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="M29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="23" t="s">
+      <c r="O29" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="P29" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" ht="17.25" customHeight="1">
+      <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="O29" s="23" t="s">
+      <c r="B30" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="P29" s="23" t="s">
+      <c r="C30" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="E30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="H30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="J30" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="K30" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="L30" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="13" t="s">
+      <c r="M30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N30" s="18" t="s">
+      <c r="O30" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="P30" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="P30" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" ht="87.0" customHeight="1">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" ht="141.0" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="M31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="O31" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="P31" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3981,18 +3899,18 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" ht="114.0" customHeight="1">
+    <row r="32" ht="78.0" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>47</v>
@@ -4001,10 +3919,10 @@
         <v>62</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
@@ -4017,7 +3935,7 @@
         <v>338</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>339</v>
@@ -4039,7 +3957,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="17.25" customHeight="1">
+    <row r="33" ht="90.0" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4047,13 +3965,13 @@
         <v>342</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>343</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>48</v>
@@ -4062,7 +3980,7 @@
         <v>344</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>345</v>
@@ -4070,14 +3988,14 @@
       <c r="J33" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="5" t="s">
         <v>347</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>348</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>349</v>
@@ -4099,112 +4017,98 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="141.0" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="D34" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="E34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="H34" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="23" t="s">
         <v>357</v>
       </c>
+      <c r="K34" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>359</v>
+      </c>
       <c r="M34" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="P34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N34" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" ht="78.0" customHeight="1">
+      <c r="O34" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" ht="90.0" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -4217,45 +4121,43 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="90.0" customHeight="1">
+    <row r="36" ht="102.0" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>374</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>377</v>
+        <v>146</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>378</v>
@@ -4277,156 +4179,164 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="23" t="s">
+    <row r="37" ht="78.0" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="23" t="s">
+      <c r="D37" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" ht="54.0" customHeight="1">
+      <c r="A38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="O37" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" ht="90.0" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="G38" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="H38" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="J38" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N38" s="6" t="s">
+      <c r="K38" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="L38" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="M38" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="N38" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" ht="102.0" customHeight="1">
+      <c r="O38" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" ht="114.0" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>269</v>
+        <v>406</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I39" s="5"/>
+        <v>407</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="J39" s="5" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>169</v>
+        <v>411</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4444,49 +4354,47 @@
         <v>16</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>413</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>415</v>
+        <v>419</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>416</v>
+        <v>16</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4499,317 +4407,303 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" ht="54.0" customHeight="1">
-      <c r="A41" s="26" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="B41" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="L41" s="17" t="s">
+      <c r="G41" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="M41" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="N41" s="17" t="s">
+      <c r="K41" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="O41" s="17" t="s">
+      <c r="L41" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="P41" s="17" t="s">
+      <c r="M41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="42" ht="114.0" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="O41" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="26"/>
+      <c r="B42" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="K42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N42" s="6" t="s">
+      <c r="L42" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="M42" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N42" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="O42" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" ht="78.0" customHeight="1">
+      <c r="P42" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="J43" s="23" t="s">
         <v>448</v>
       </c>
+      <c r="K43" s="14" t="s">
+        <v>449</v>
+      </c>
       <c r="L43" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="E45" s="23" t="s">
+      <c r="G45" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4">
+        <v>45549.45347222222</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="M45" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="N45" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="O45" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="P45" s="23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="19" t="s">
         <v>477</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>478</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>479</v>
@@ -4820,101 +4714,123 @@
       <c r="P46" s="5" t="s">
         <v>481</v>
       </c>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="15" t="s">
+      <c r="D47" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="K47" s="13" t="s">
+      <c r="G47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="M47" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N47" s="18" t="s">
+      <c r="K47" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="O47" s="15" t="s">
+      <c r="L47" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="M47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>489</v>
       </c>
+      <c r="O47" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="J48" s="5" t="s">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -4928,29 +4844,29 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
-        <v>45549.45347222222</v>
+      <c r="A49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>503</v>
+        <v>64</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
@@ -4963,7 +4879,7 @@
         <v>506</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>507</v>
@@ -4999,38 +4915,38 @@
         <v>512</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>49</v>
+        <v>513</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>513</v>
+        <v>77</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="13" t="s">
         <v>514</v>
       </c>
       <c r="K50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="M50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N50" s="6" t="s">
+      <c r="O50" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="P50" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -5048,49 +4964,47 @@
         <v>16</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G51" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K51" s="19" t="s">
+      <c r="L51" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="M51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N51" s="6" t="s">
+      <c r="O51" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="P51" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>528</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -5108,47 +5022,47 @@
         <v>16</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>373</v>
+        <v>36</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="K52" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="K52" s="19" t="s">
+      <c r="L52" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="M52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N52" s="6" t="s">
+      <c r="O52" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="P52" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -5162,436 +5076,316 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="13" t="s">
+        <v>542</v>
+      </c>
       <c r="J53" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="K53" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
+      <c r="B54" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="P54" s="23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="B55" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="D56" s="15" t="s">
+      <c r="G56" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="K56" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="L56" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="M56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="O56" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="P56" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="N56" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="O56" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="P56" s="13" t="s">
-        <v>576</v>
-      </c>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N57" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="O57" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="P57" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="E57" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="M57" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="N57" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="O57" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="P57" s="23" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="A58" s="26"/>
+      <c r="B58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="N58" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="O58" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="P58" s="16" t="s">
-        <v>591</v>
-      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="P59" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>503</v>
-      </c>
+      <c r="A60" s="26"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="17"/>
-      <c r="J60" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="N60" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="P60" s="19" t="s">
-        <v>607</v>
-      </c>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26"/>
       <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -8919,7 +8713,7 @@
       <c r="P245" s="17"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="26"/>
+      <c r="A246" s="27"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
       <c r="D246" s="17"/>
@@ -8937,7 +8731,7 @@
       <c r="P246" s="17"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="26"/>
+      <c r="A247" s="27"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
       <c r="D247" s="17"/>
@@ -8955,7 +8749,7 @@
       <c r="P247" s="17"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="26"/>
+      <c r="A248" s="27"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
       <c r="D248" s="17"/>
@@ -22454,74 +22248,20 @@
       <c r="O997" s="17"/>
       <c r="P997" s="17"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="27"/>
-      <c r="B998" s="17"/>
-      <c r="C998" s="17"/>
-      <c r="D998" s="17"/>
-      <c r="E998" s="17"/>
-      <c r="F998" s="17"/>
-      <c r="G998" s="17"/>
-      <c r="H998" s="17"/>
-      <c r="I998" s="17"/>
-      <c r="J998" s="17"/>
-      <c r="K998" s="17"/>
-      <c r="L998" s="17"/>
-      <c r="M998" s="17"/>
-      <c r="N998" s="17"/>
-      <c r="O998" s="17"/>
-      <c r="P998" s="17"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="27"/>
-      <c r="B999" s="17"/>
-      <c r="C999" s="17"/>
-      <c r="D999" s="17"/>
-      <c r="E999" s="17"/>
-      <c r="F999" s="17"/>
-      <c r="G999" s="17"/>
-      <c r="H999" s="17"/>
-      <c r="I999" s="17"/>
-      <c r="J999" s="17"/>
-      <c r="K999" s="17"/>
-      <c r="L999" s="17"/>
-      <c r="M999" s="17"/>
-      <c r="N999" s="17"/>
-      <c r="O999" s="17"/>
-      <c r="P999" s="17"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="27"/>
-      <c r="B1000" s="17"/>
-      <c r="C1000" s="17"/>
-      <c r="D1000" s="17"/>
-      <c r="E1000" s="17"/>
-      <c r="F1000" s="17"/>
-      <c r="G1000" s="17"/>
-      <c r="H1000" s="17"/>
-      <c r="I1000" s="17"/>
-      <c r="J1000" s="17"/>
-      <c r="K1000" s="17"/>
-      <c r="L1000" s="17"/>
-      <c r="M1000" s="17"/>
-      <c r="N1000" s="17"/>
-      <c r="O1000" s="17"/>
-      <c r="P1000" s="17"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="N3"/>
-    <hyperlink r:id="rId2" ref="N8"/>
-    <hyperlink r:id="rId3" ref="N10"/>
-    <hyperlink r:id="rId4" ref="N20"/>
-    <hyperlink r:id="rId5" ref="N21"/>
-    <hyperlink r:id="rId6" ref="N22"/>
-    <hyperlink r:id="rId7" ref="N23"/>
-    <hyperlink r:id="rId8" ref="N30"/>
-    <hyperlink r:id="rId9" ref="N47"/>
-    <hyperlink r:id="rId10" ref="N56"/>
-    <hyperlink r:id="rId11" ref="N58"/>
-    <hyperlink r:id="rId12" ref="N60"/>
+    <hyperlink r:id="rId2" ref="N7"/>
+    <hyperlink r:id="rId3" ref="N9"/>
+    <hyperlink r:id="rId4" ref="N17"/>
+    <hyperlink r:id="rId5" ref="N18"/>
+    <hyperlink r:id="rId6" ref="N19"/>
+    <hyperlink r:id="rId7" ref="N20"/>
+    <hyperlink r:id="rId8" ref="N27"/>
+    <hyperlink r:id="rId9" ref="N44"/>
+    <hyperlink r:id="rId10" ref="N53"/>
+    <hyperlink r:id="rId11" ref="N55"/>
+    <hyperlink r:id="rId12" ref="N57"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="526">
   <si>
     <t>Timestamp</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hey kings and queens! My name is Jessica Lin and I initiated during the spring quarter of my first year with the Alpha Omicron class. A fun fact about me is I love playing poker. In my free time, I love thrifting, gaming, and working out. Ask me about my other hobbies or current favorite movies at recruitment! </t>
+  </si>
+  <si>
+    <t>Andrew</t>
   </si>
   <si>
     <t>Ly</t>
@@ -3568,14 +3571,14 @@
     </row>
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="5" t="s">
-        <v>247</v>
+      <c r="B29" s="19" t="s">
+        <v>305</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>20</v>
@@ -3584,32 +3587,32 @@
         <v>94</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" ht="90.0" customHeight="1">
@@ -3617,13 +3620,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>47</v>
@@ -3635,29 +3638,29 @@
         <v>288</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -3675,13 +3678,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>118</v>
@@ -3697,10 +3700,10 @@
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>123</v>
@@ -3709,13 +3712,13 @@
         <v>87</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3733,13 +3736,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>47</v>
@@ -3751,31 +3754,31 @@
         <v>232</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>133</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3793,13 +3796,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>130</v>
@@ -3808,34 +3811,34 @@
         <v>94</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M33" s="16" t="s">
         <v>111</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" ht="114.0" customHeight="1">
@@ -3843,13 +3846,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>107</v>
@@ -3858,34 +3861,34 @@
         <v>48</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -3903,13 +3906,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>47</v>
@@ -3925,25 +3928,25 @@
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>87</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -3959,13 +3962,13 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>20</v>
@@ -3974,34 +3977,34 @@
         <v>21</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M36" s="24" t="s">
         <v>215</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4009,13 +4012,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>118</v>
@@ -4024,32 +4027,32 @@
         <v>94</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>64</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4057,13 +4060,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>34</v>
@@ -4079,25 +4082,25 @@
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>64</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4105,13 +4108,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>107</v>
@@ -4120,32 +4123,32 @@
         <v>94</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>261</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4163,13 +4166,13 @@
         <v>45549.45347222222</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>20</v>
@@ -4178,32 +4181,32 @@
         <v>94</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>87</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4221,13 +4224,13 @@
         <v>16</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>118</v>
@@ -4239,29 +4242,29 @@
         <v>49</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -4279,13 +4282,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>47</v>
@@ -4294,7 +4297,7 @@
         <v>94</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>84</v>
@@ -4306,22 +4309,22 @@
         <v>234</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>87</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -4339,13 +4342,13 @@
         <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>20</v>
@@ -4354,32 +4357,32 @@
         <v>21</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -4397,13 +4400,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>118</v>
@@ -4412,32 +4415,32 @@
         <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>261</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>87</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -4455,13 +4458,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>47</v>
@@ -4477,25 +4480,25 @@
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -4513,13 +4516,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>118</v>
@@ -4535,25 +4538,25 @@
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>64</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -4571,13 +4574,13 @@
         <v>16</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>34</v>
@@ -4586,34 +4589,34 @@
         <v>21</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M47" s="14" t="s">
         <v>162</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4621,13 +4624,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>20</v>
@@ -4646,7 +4649,7 @@
         <v>234</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L48" s="24" t="s">
         <v>123</v>
@@ -4655,13 +4658,13 @@
         <v>263</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4669,13 +4672,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>34</v>
@@ -4684,32 +4687,32 @@
         <v>35</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>84</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M49" s="19" t="s">
         <v>64</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P49" s="15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4717,13 +4720,13 @@
         <v>16</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>47</v>
@@ -4738,28 +4741,28 @@
         <v>200</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -4777,13 +4780,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>34</v>
@@ -4795,29 +4798,29 @@
         <v>278</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M51" s="14" t="s">
         <v>133</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -339,274 +339,274 @@
     <t>Palo Alto, CA</t>
   </si>
   <si>
-    <t>Economics, Dance</t>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Management, Digital Information Systems</t>
+  </si>
+  <si>
+    <t>Marketing, UI/UX Design, Public Relations</t>
+  </si>
+  <si>
+    <t>Marketing Intern @ Sciframe IO</t>
+  </si>
+  <si>
+    <t>Business Careers in Entertainment Club, Bare Bones Dance Theater</t>
+  </si>
+  <si>
+    <t>Su-Hung-Green</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/siena-dunn/</t>
+  </si>
+  <si>
+    <t>sienadunn@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Siena, and I initiated my first year spring with the Alpha Tau class. In my free time, I enjoy dancing, going to concerts, golfing, cooking, and going to the beach. At recruitment, ask me about my favorite shows I’ve binged recently or my favorite matcha spots!</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>emily_guo</t>
+  </si>
+  <si>
+    <t>Auckland, New Zealand</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Strategy Intern @ Breez Events and Consulting</t>
+  </si>
+  <si>
+    <t>MAISS, Tennis Club</t>
+  </si>
+  <si>
+    <t>Huang-Merchant</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/emily-guo111/</t>
+  </si>
+  <si>
+    <t>emilyguo@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! I am Emily and initiated in the spring of my first year. In my free time, I love listening to music, making Pinterest boards and art &amp; fashion. Talk to me about countries I’ve travelled to and my love for The Weeknd and Lana Del Rey!</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>ayushi_gupta</t>
+  </si>
+  <si>
+    <t>Alpha Pi</t>
+  </si>
+  <si>
+    <t>Ladera Ranch, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatics </t>
+  </si>
+  <si>
+    <t>Finance, Product Management, Data</t>
+  </si>
+  <si>
+    <t>Finance Intern @ Raytheon Technologies</t>
+  </si>
+  <si>
+    <t>UBA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ayushigupta8/</t>
+  </si>
+  <si>
+    <t>ayushigupta@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey! My name is Ayushi and I initiated fall quarter of my second year with the Alpha Pi class. I'm a big sports gal and I love to hang out with friends, watch movies, play soccer, get food, and have deep philosophical convos. Feel free to ask me about my favorite foods, tv shows, and goals I have for the rest of the year during recruitment!</t>
+  </si>
+  <si>
+    <t>Coca</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>coca_ho</t>
+  </si>
+  <si>
+    <t>Alpha Omicron</t>
+  </si>
+  <si>
+    <t>Finance, Accounting</t>
+  </si>
+  <si>
+    <t>Consumer Insights Intern @ FOX Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Tennis </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/coca-ho-a74008269/</t>
+  </si>
+  <si>
+    <t>cocaho@ucidsp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey guys! My name is Coca. I am a proud Alpha Omicron and I initiated in the spring of my first year. Some hobbies of mine include tennis, golf, poetry, and oil painting. I love parrots, iced honey lattes, and hot pink! Ask me about why I think listening to music is a waste of time. </t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Iyengar</t>
+  </si>
+  <si>
+    <t>ananya_iyengar</t>
+  </si>
+  <si>
+    <t>Miami, FL</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Sales, Marketing</t>
+  </si>
+  <si>
+    <t>Client and Product Support Intern @ Origence</t>
+  </si>
+  <si>
+    <t>Indian Subcontinental Club</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ananyaiyengar3/</t>
+  </si>
+  <si>
+    <t>ananyaiyengar@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Ananya and I initiated in my sophomore fall with the Alpha Sigma class. In my free time, I love to sing, try new sweet treats, and go to the beach. At recruitment, ask me about my favorite shows to binge-watch and why monkeys are my favorite animals. So excited to meet you all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya </t>
+  </si>
+  <si>
+    <t>Jagannathan</t>
+  </si>
+  <si>
+    <t>shreya_jagannathan</t>
+  </si>
+  <si>
+    <t>San Ramon, CA</t>
+  </si>
+  <si>
+    <t>Business Information Management, Political Science</t>
+  </si>
+  <si>
+    <t>Law, Entrepreneurship, Finance</t>
+  </si>
+  <si>
+    <t>External Relations Assistant @ UCI Libraries</t>
+  </si>
+  <si>
+    <t>ASUCI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shreyajagan/</t>
+  </si>
+  <si>
+    <t>shreyajagannathan@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hey, my name is Shreya! I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love to read, watch horror movies, and make very specific pinterest boards. Feel free to ask me about places I’ve traveled to and lived in!</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Jukita</t>
+  </si>
+  <si>
+    <t>amelia_jukita</t>
+  </si>
+  <si>
+    <t>Jakarta, Indonesia</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>Product Management Intern @ Stride</t>
+  </si>
+  <si>
+    <t>180 Degrees Consulting, Product Association, MAISS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amelia-jukita/</t>
+  </si>
+  <si>
+    <t>ameliajukita@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hii! My name is Amelia, and I initiated in the fall quarter of my sophomore year with the Alpha Sigma Class. I enjoy thrifting, playing the piano, and exploring new food combinations. Feel free to ask me about my love for harbor seals!</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Kapadekar</t>
+  </si>
+  <si>
+    <t>riya_kapadekar</t>
+  </si>
+  <si>
+    <t>Informatics</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Project Management, Product Management</t>
+  </si>
+  <si>
+    <t>Specialty Masters Program Student Assistant @ Paul Merage School of Business</t>
+  </si>
+  <si>
+    <t>MAISS, Product Association</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/riya-kapadekar/</t>
+  </si>
+  <si>
+    <t>riyakapadekar@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Riya and I'm part of the Alpha Sigma class. In my free time, I love going to the beach, making Pinterest boards, and trying new cafes! Ask me about my love for Tru Fru, Lana del Rey, and Grey's Anatomy.</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>james_kent</t>
+  </si>
+  <si>
+    <t>Santa Clarita, CA</t>
   </si>
   <si>
     <t>Management</t>
-  </si>
-  <si>
-    <t>Marketing, UI/UX Design, Public Relations</t>
-  </si>
-  <si>
-    <t>Marketing Intern @ Sciframe IO</t>
-  </si>
-  <si>
-    <t>Business Careers in Entertainment Club, Bare Bones Dance Theater</t>
-  </si>
-  <si>
-    <t>Su-Hung-Green</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/siena-dunn/</t>
-  </si>
-  <si>
-    <t>sienadunn@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Siena, and I initiated my first year spring with the Alpha Tau class. In my free time, I enjoy dancing, going to concerts, golfing, cooking, and going to the beach. At recruitment, ask me about my favorite shows I’ve binged recently or my favorite matcha spots!</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Guo</t>
-  </si>
-  <si>
-    <t>emily_guo</t>
-  </si>
-  <si>
-    <t>Auckland, New Zealand</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Strategy Intern @ Breez Events and Consulting</t>
-  </si>
-  <si>
-    <t>MAISS, Tennis Club</t>
-  </si>
-  <si>
-    <t>Huang-Merchant</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/emily-guo111/</t>
-  </si>
-  <si>
-    <t>emilyguo@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! I am Emily and initiated in the spring of my first year. In my free time, I love listening to music, making Pinterest boards and art &amp; fashion. Talk to me about countries I’ve travelled to and my love for The Weeknd and Lana Del Rey!</t>
-  </si>
-  <si>
-    <t>Ayushi</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>ayushi_gupta</t>
-  </si>
-  <si>
-    <t>Alpha Pi</t>
-  </si>
-  <si>
-    <t>Ladera Ranch, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatics </t>
-  </si>
-  <si>
-    <t>Finance, Product Management, Data</t>
-  </si>
-  <si>
-    <t>Finance Intern @ Raytheon Technologies</t>
-  </si>
-  <si>
-    <t>UBA</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ayushigupta8/</t>
-  </si>
-  <si>
-    <t>ayushigupta@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hey! My name is Ayushi and I initiated fall quarter of my second year with the Alpha Pi class. I'm a big sports gal and I love to hang out with friends, watch movies, play soccer, get food, and have deep philosophical convos. Feel free to ask me about my favorite foods, tv shows, and goals I have for the rest of the year during recruitment!</t>
-  </si>
-  <si>
-    <t>Coca</t>
-  </si>
-  <si>
-    <t>Ho</t>
-  </si>
-  <si>
-    <t>coca_ho</t>
-  </si>
-  <si>
-    <t>Alpha Omicron</t>
-  </si>
-  <si>
-    <t>Finance, Accounting</t>
-  </si>
-  <si>
-    <t>Consumer Insights Intern @ FOX Entertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club Tennis </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/coca-ho-a74008269/</t>
-  </si>
-  <si>
-    <t>cocaho@ucidsp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey guys! My name is Coca. I am a proud Alpha Omicron and I initiated in the spring of my first year. Some hobbies of mine include tennis, golf, poetry, and oil painting. I love parrots, iced honey lattes, and hot pink! Ask me about why I think listening to music is a waste of time. </t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>Iyengar</t>
-  </si>
-  <si>
-    <t>ananya_iyengar</t>
-  </si>
-  <si>
-    <t>Miami, FL</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Sales, Marketing</t>
-  </si>
-  <si>
-    <t>Client and Product Support Intern @ Origence</t>
-  </si>
-  <si>
-    <t>Indian Subcontinental Club</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ananyaiyengar3/</t>
-  </si>
-  <si>
-    <t>ananyaiyengar@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Ananya and I initiated in my sophomore fall with the Alpha Sigma class. In my free time, I love to sing, try new sweet treats, and go to the beach. At recruitment, ask me about my favorite shows to binge-watch and why monkeys are my favorite animals. So excited to meet you all!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreya </t>
-  </si>
-  <si>
-    <t>Jagannathan</t>
-  </si>
-  <si>
-    <t>shreya_jagannathan</t>
-  </si>
-  <si>
-    <t>San Ramon, CA</t>
-  </si>
-  <si>
-    <t>Business Information Management, Political Science</t>
-  </si>
-  <si>
-    <t>Law, Entrepreneurship, Finance</t>
-  </si>
-  <si>
-    <t>External Relations Assistant @ UCI Libraries</t>
-  </si>
-  <si>
-    <t>ASUCI</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shreyajagan/</t>
-  </si>
-  <si>
-    <t>shreyajagannathan@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hey, my name is Shreya! I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love to read, watch horror movies, and make very specific pinterest boards. Feel free to ask me about places I’ve traveled to and lived in!</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Jukita</t>
-  </si>
-  <si>
-    <t>amelia_jukita</t>
-  </si>
-  <si>
-    <t>Jakarta, Indonesia</t>
-  </si>
-  <si>
-    <t>Product Management</t>
-  </si>
-  <si>
-    <t>Product Management Intern @ Stride</t>
-  </si>
-  <si>
-    <t>180 Degrees Consulting, Product Association, MAISS</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/amelia-jukita/</t>
-  </si>
-  <si>
-    <t>ameliajukita@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hii! My name is Amelia, and I initiated in the fall quarter of my sophomore year with the Alpha Sigma Class. I enjoy thrifting, playing the piano, and exploring new food combinations. Feel free to ask me about my love for harbor seals!</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>Kapadekar</t>
-  </si>
-  <si>
-    <t>riya_kapadekar</t>
-  </si>
-  <si>
-    <t>Informatics</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>Project Management, Product Management</t>
-  </si>
-  <si>
-    <t>Specialty Masters Program Student Assistant @ Paul Merage School of Business</t>
-  </si>
-  <si>
-    <t>MAISS, Product Association</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/riya-kapadekar/</t>
-  </si>
-  <si>
-    <t>riyakapadekar@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! My name is Riya and I'm part of the Alpha Sigma class. In my free time, I love going to the beach, making Pinterest boards, and trying new cafes! Ask me about my love for Tru Fru, Lana del Rey, and Grey's Anatomy.</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>james_kent</t>
-  </si>
-  <si>
-    <t>Santa Clarita, CA</t>
-  </si>
-  <si>
-    <t>Economics</t>
   </si>
   <si>
     <t>Asset &amp; Wealth Management</t>
@@ -2907,10 +2907,10 @@
         <v>195</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>197</v>
@@ -3343,7 +3343,7 @@
         <v>195</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
@@ -3915,7 +3915,7 @@
         <v>390</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="18" t="s">
@@ -4529,7 +4529,7 @@
         <v>195</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>319</v>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanessachok/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2777C6-2C4F-B04D-9DDB-3175EEF16C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C82ADC-65C5-1F48-ABF0-FCBB4C29865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="505">
   <si>
     <t>Timestamp</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Financial Analyst @ Firmly</t>
   </si>
   <si>
-    <t>Kappa Sigma Fraternity</t>
-  </si>
-  <si>
     <t>Chew-Mark</t>
   </si>
   <si>
@@ -177,48 +174,39 @@
     <t>Alpha Sigma</t>
   </si>
   <si>
+    <t>Product Management, Entertainment Marketing</t>
+  </si>
+  <si>
+    <t>Marketing Intern @ Fujitsu Research</t>
+  </si>
+  <si>
+    <t>Product Association, Fashion and Sneakers, Design @ UCI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/joybae/</t>
+  </si>
+  <si>
+    <t>joybae@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hi! I'm Joy, and I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love journaling, going on photoshoots, and dancing. My favorite things are matcha, the color red, and perfumes. Ask me about my favorite thrift finds during recruitment!</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Chok</t>
+  </si>
+  <si>
+    <t>vanessa_chok</t>
+  </si>
+  <si>
+    <t>Torrance, CA</t>
+  </si>
+  <si>
     <t>Business Information Management</t>
   </si>
   <si>
-    <t>Product Management, Entertainment Marketing</t>
-  </si>
-  <si>
-    <t>Product Management Fellow @ Product Association</t>
-  </si>
-  <si>
-    <t>Product Association; Design at UCI; FS UCI</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/joybae/</t>
-  </si>
-  <si>
-    <t>joybae@ucidsp.com</t>
-  </si>
-  <si>
-    <t>Hi! I'm Joy, and I initiated in the fall quarter of my first year with the Alpha Sigma class. In my free time, I love journaling, going on photoshoots, and dancing. My favorite things are matcha, the color red, and perfumes. Ask me about my favorite thrift finds during recruitment!</t>
-  </si>
-  <si>
-    <t>Vanessa</t>
-  </si>
-  <si>
-    <t>Chok</t>
-  </si>
-  <si>
-    <t>vanessa_chok</t>
-  </si>
-  <si>
-    <t>Torrance, CA</t>
-  </si>
-  <si>
-    <t>Product Marketing, Strategy and Analytics, UI/UX Design</t>
-  </si>
-  <si>
-    <t>Intern @ Torrance Currency Exchange</t>
-  </si>
-  <si>
-    <t>Design at UCI, UBA</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/vanessa-chok/</t>
   </si>
   <si>
@@ -282,10 +270,13 @@
     <t>Business Administration</t>
   </si>
   <si>
-    <t>Finance, Wealth Management</t>
-  </si>
-  <si>
-    <t>UBA, ITG, KCM</t>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Audit Intern @ KPMG</t>
+  </si>
+  <si>
+    <t>SMIF, ITG, UBA, KCM</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/ryanmchung/</t>
@@ -486,13 +477,10 @@
     <t>Miami, FL</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Sales, Marketing</t>
-  </si>
-  <si>
-    <t>Client and Product Support Intern @ Origence</t>
+    <t>Marketing, Product Management</t>
+  </si>
+  <si>
+    <t>Incoming Product Management Intern @ Mastercard</t>
   </si>
   <si>
     <t>Indian Subcontinental Club</t>
@@ -741,7 +729,7 @@
     <t>Data Science, Product Management</t>
   </si>
   <si>
-    <t>Researcher @ Cognitive and Neural Computational Lab</t>
+    <t>Incoming Data Science &amp; Analytics Consulting Intern @ West Monroe</t>
   </si>
   <si>
     <t>Data @ UCI, AI @ UCI</t>
@@ -798,7 +786,7 @@
     <t>Salt Lake City, UT</t>
   </si>
   <si>
-    <t>Business Administration, Computer Science</t>
+    <t>Computer Science, Business Administration</t>
   </si>
   <si>
     <t xml:space="preserve">Software Engineering </t>
@@ -864,9 +852,6 @@
     <t>Finance, Marketing</t>
   </si>
   <si>
-    <t>Audit Intern @ KPMG</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/isaac-o-martinez/</t>
   </si>
   <si>
@@ -1020,7 +1005,7 @@
     <t>Janesville, Wiconsin</t>
   </si>
   <si>
-    <t>Business Administration; Political Science</t>
+    <t>Business Administration, Political Science</t>
   </si>
   <si>
     <t xml:space="preserve">Law, Sales, Marketing </t>
@@ -1078,9 +1063,6 @@
   </si>
   <si>
     <t>collin_na</t>
-  </si>
-  <si>
-    <t>Finance</t>
   </si>
   <si>
     <t>KCM</t>
@@ -1171,10 +1153,10 @@
     <t>San Jose, CA</t>
   </si>
   <si>
-    <t>Marketing, Strategy, Product Marketing Management</t>
-  </si>
-  <si>
-    <t>Project Management &amp; Marketing Intern @ Tesla</t>
+    <t>Product Management, Project Management, Marketing</t>
+  </si>
+  <si>
+    <t>Project Management &amp; Marketing Intern at Tesla, Copilot Campus Ambassador at Microsoft</t>
   </si>
   <si>
     <t>MAISS, ITG</t>
@@ -1201,9 +1183,6 @@
     <t>Danville, CA</t>
   </si>
   <si>
-    <t>Incoming @ KPMG</t>
-  </si>
-  <si>
     <t>180 Degrees Consulting, Sports Business Association</t>
   </si>
   <si>
@@ -1246,6 +1225,33 @@
     <t>Hey!! My name is Sanika Patwardhan and I initiated in the spring quarter of my first year with the Alpha Tau class. In my free time, I love going to the beach and exploring new coffee shops with my friends. I also love drawing/painting and did martial arts for 9 years. Ask me about my Dave’s Hot Chicken obsession during recruitment!!</t>
   </si>
   <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>david_pena</t>
+  </si>
+  <si>
+    <t>Salinas, CA</t>
+  </si>
+  <si>
+    <t>Analyst @ Wells Fargo</t>
+  </si>
+  <si>
+    <t>MBA Program, Antreprenuer Center, FBLA, SBA, MUSA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/davidp3na/</t>
+  </si>
+  <si>
+    <t>davidpena@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Hello! My name is David, and I initiated fall quarter of my freshman year with the Alpha Xi class! In my free time, you will find me hooping at the arc, listening to music or exploring Socal. A fun fact about me is that I am fluent in Spanish. Ask me about my favorite music artists and foods at recruitment, I look forward to meeting you!</t>
+  </si>
+  <si>
     <t>Justin</t>
   </si>
   <si>
@@ -1363,6 +1369,33 @@
     <t xml:space="preserve">Hi! My name is Sanika and I initiated in the spring of my freshman year as a part of the Alpha Rho class. I love reading, comedy, music, puzzles, and magic! Feel free to ask me about my favorite tv shows, movies, and books at recruitment :) </t>
   </si>
   <si>
+    <t>Brendon</t>
+  </si>
+  <si>
+    <t>Sato</t>
+  </si>
+  <si>
+    <t>brendon_sato</t>
+  </si>
+  <si>
+    <t>Honolulu, Hawaii</t>
+  </si>
+  <si>
+    <t>Wealth Management, Equity Research</t>
+  </si>
+  <si>
+    <t>SMIF, ITG</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brendon-sato/</t>
+  </si>
+  <si>
+    <t>brendonsato@ucidsp.com</t>
+  </si>
+  <si>
+    <t>Aloha! My name is Brendon and I initiated during the fall quarter of my freshman year with the Alpha Pi class. In my free time, I enjoy being near the water surfing, fishing, or just cruising. You can also find me playing music. During recruitment, feel free to ask me about my love for music.</t>
+  </si>
+  <si>
     <t>Malak</t>
   </si>
   <si>
@@ -1381,9 +1414,6 @@
     <t>Digital Arts, Spanish</t>
   </si>
   <si>
-    <t>Marketing, Product Management</t>
-  </si>
-  <si>
     <t>Marketing Intern @ United Nations OC</t>
   </si>
   <si>
@@ -1496,6 +1526,21 @@
   </si>
   <si>
     <t>Hii! My name is Tiffany and I initiated in the fall quarter of my freshman year with the Alpha Sigmas. In my free time, I enjoy playing volleyball, going to the beach, and trying new food spots. Feel free to ask me about my favorite artists or hobbies!</t>
+  </si>
+  <si>
+    <t>Project Management, Data Analytics</t>
+  </si>
+  <si>
+    <t>Design @ UCI, KUCI</t>
+  </si>
+  <si>
+    <t>Kappa Sigma</t>
+  </si>
+  <si>
+    <t>Business Information Management, Sociology</t>
+  </si>
+  <si>
+    <t>Multimedia Assistant @ Merage</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +1982,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2100,19 +2145,19 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -2130,16 +2175,16 @@
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>21</v>
@@ -2148,29 +2193,29 @@
         <v>22</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="M4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2178,47 +2223,47 @@
         <v>31</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>50</v>
+        <v>503</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="16" t="s">
-        <v>61</v>
+        <v>500</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>62</v>
+        <v>504</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>63</v>
+        <v>501</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="32">
@@ -2226,13 +2271,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -2241,34 +2286,34 @@
         <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="L6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="N6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="O6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="P6" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -2286,47 +2331,47 @@
         <v>31</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="18" t="s">
+      <c r="P7" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="32">
@@ -2334,49 +2379,49 @@
         <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="N8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="P8" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -2394,13 +2439,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
@@ -2409,34 +2454,34 @@
         <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="L9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="M9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="O9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="P9" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -2454,13 +2499,13 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
@@ -2469,32 +2514,32 @@
         <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="N10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="O10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="P10" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -2512,49 +2557,49 @@
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="K11" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -2572,49 +2617,49 @@
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="P12" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -2632,49 +2677,47 @@
         <v>31</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="O13" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="P13" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="16">
@@ -2682,47 +2725,47 @@
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2730,47 +2773,47 @@
         <v>31</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="P15" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="16">
@@ -2778,49 +2821,49 @@
         <v>31</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="32">
@@ -2828,49 +2871,49 @@
         <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2888,47 +2931,47 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="P18" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2946,13 +2989,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>35</v>
@@ -2961,32 +3004,32 @@
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="P19" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -3004,13 +3047,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>35</v>
@@ -3022,11 +3065,11 @@
         <v>22</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>31</v>
@@ -3035,16 +3078,16 @@
         <v>31</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="32">
@@ -3052,47 +3095,47 @@
         <v>31</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="O21" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="P21" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="32">
@@ -3100,47 +3143,47 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="P22" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>253</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -3158,47 +3201,47 @@
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -3216,47 +3259,47 @@
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="P24" s="16" t="s">
         <v>270</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="32">
@@ -3264,47 +3307,47 @@
         <v>31</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3322,47 +3365,47 @@
         <v>31</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="H26" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>289</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="P26" s="25" t="s">
         <v>290</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="P26" s="25" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3370,13 +3413,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>20</v>
@@ -3388,29 +3431,29 @@
         <v>22</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="P27" s="16" t="s">
         <v>299</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3418,13 +3461,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>20</v>
@@ -3433,32 +3476,32 @@
         <v>21</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>31</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -3466,49 +3509,49 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="O29" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
@@ -3516,13 +3559,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>20</v>
@@ -3531,32 +3574,32 @@
         <v>36</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P30" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -3574,13 +3617,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>20</v>
@@ -3589,32 +3632,32 @@
         <v>21</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3632,47 +3675,47 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3690,13 +3733,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>35</v>
@@ -3705,34 +3748,34 @@
         <v>36</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
@@ -3740,47 +3783,47 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
@@ -3788,47 +3831,47 @@
         <v>31</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="18" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M35" s="15" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
@@ -3836,13 +3879,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -3851,32 +3894,32 @@
         <v>21</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>391</v>
+        <v>31</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -3894,13 +3937,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
@@ -3912,31 +3955,31 @@
         <v>22</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -3950,51 +3993,51 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -4008,51 +4051,51 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4070,49 +4113,47 @@
         <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="O40" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4130,47 +4171,49 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="P41" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -4184,298 +4227,378 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="P42" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="15" t="s">
+      <c r="C43" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="I42" s="18" t="s">
+      <c r="G43" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="H43" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="K43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="M43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="M42" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N42" s="17" t="s">
+      <c r="O43" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="O42" s="15" t="s">
+      <c r="P43" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="P42" s="18" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="N43" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>463</v>
-      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N44" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="O44" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="P44" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16" t="s">
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="C45" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="D45" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="17" t="s">
+      <c r="E45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="K45" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="L45" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="N45" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="P44" s="16" t="s">
+      <c r="O45" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="P45" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="L45" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="P45" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="I46" s="15"/>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="D47" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="L46" s="15" t="s">
+      <c r="E47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="M46" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" s="17" t="s">
+      <c r="L47" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="O46" s="15" t="s">
+      <c r="M47" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N47" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+      <c r="P47" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="A48" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>412</v>
+      </c>
       <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+      <c r="J48" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A49" s="26"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -7821,7 +7944,7 @@
       <c r="P234" s="15"/>
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A235" s="28"/>
+      <c r="A235" s="26"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
       <c r="D235" s="15"/>
@@ -7839,7 +7962,7 @@
       <c r="P235" s="15"/>
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A236" s="28"/>
+      <c r="A236" s="26"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
@@ -21355,6 +21478,42 @@
       <c r="N986" s="15"/>
       <c r="O986" s="15"/>
       <c r="P986" s="15"/>
+    </row>
+    <row r="987" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A987" s="28"/>
+      <c r="B987" s="15"/>
+      <c r="C987" s="15"/>
+      <c r="D987" s="15"/>
+      <c r="E987" s="15"/>
+      <c r="F987" s="15"/>
+      <c r="G987" s="15"/>
+      <c r="H987" s="15"/>
+      <c r="I987" s="15"/>
+      <c r="J987" s="15"/>
+      <c r="K987" s="15"/>
+      <c r="L987" s="15"/>
+      <c r="M987" s="15"/>
+      <c r="N987" s="15"/>
+      <c r="O987" s="15"/>
+      <c r="P987" s="15"/>
+    </row>
+    <row r="988" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A988" s="28"/>
+      <c r="B988" s="15"/>
+      <c r="C988" s="15"/>
+      <c r="D988" s="15"/>
+      <c r="E988" s="15"/>
+      <c r="F988" s="15"/>
+      <c r="G988" s="15"/>
+      <c r="H988" s="15"/>
+      <c r="I988" s="15"/>
+      <c r="J988" s="15"/>
+      <c r="K988" s="15"/>
+      <c r="L988" s="15"/>
+      <c r="M988" s="15"/>
+      <c r="N988" s="15"/>
+      <c r="O988" s="15"/>
+      <c r="P988" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21378,9 +21537,9 @@
     <hyperlink ref="N35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="N36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="N37" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="N44" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N46" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N44" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/src/data/current_data/bios_currentdata.xlsx
+++ b/src/data/current_data/bios_currentdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanessachok/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662E6054-364B-EA4B-BABC-B5081D7EDD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B17E56-C887-B44C-8888-295798AF85F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1495,9 +1495,6 @@
     <t>daisy_penney</t>
   </si>
   <si>
-    <t>Oakland, CA</t>
-  </si>
-  <si>
     <t>UCI Cross Country &amp; Track and Field</t>
   </si>
   <si>
@@ -1603,21 +1600,12 @@
     <t>https://www.linkedin.com/in/thea-le-291007lnt/</t>
   </si>
   <si>
-    <t>Investment Intern @ SGI Capital</t>
-  </si>
-  <si>
-    <t>Investment Banking, Consulting, Finance</t>
-  </si>
-  <si>
     <t>Quantitative Economics</t>
   </si>
   <si>
     <t>Hi my name is Atharv and I initiated in the fall of my third year with the Alpha Upsilons. Ask me anything at recruitment!</t>
   </si>
   <si>
-    <t>Hi my name is Thea and I initiated in the fall of my first year with the Alpha Upsilons. Ask me anything at recruitment!</t>
-  </si>
-  <si>
     <t>Thea</t>
   </si>
   <si>
@@ -1655,6 +1643,18 @@
   </si>
   <si>
     <t>Le</t>
+  </si>
+  <si>
+    <t>Investment Banking, Finance</t>
+  </si>
+  <si>
+    <t>Investment Analyst Intern @ SGI Capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, my name is Thea. I initiated in the fall quarter of my first year with the Alpha Upsilon class. In my free time, I enjoy playing pickleball, going to the beach, and shopping. Ask me about the show Friends and my love for dad jokes at recruitment! </t>
+  </si>
+  <si>
+    <t>Moraga, CA</t>
   </si>
 </sst>
 </file>
@@ -2117,8 +2117,8 @@
   </sheetPr>
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2384,7 +2384,7 @@
         <v>62</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>27</v>
@@ -4611,32 +4611,32 @@
         <v>21</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M47" s="15" t="s">
         <v>112</v>
       </c>
       <c r="N47" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="O47" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="O47" s="30" t="s">
-        <v>492</v>
-      </c>
       <c r="P47" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
@@ -4644,13 +4644,13 @@
         <v>31</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>494</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>495</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>459</v>
@@ -4659,7 +4659,7 @@
         <v>36</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>38</v>
@@ -4668,25 +4668,25 @@
         <v>186</v>
       </c>
       <c r="J48" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="L48" s="31" t="s">
         <v>500</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="L48" s="31" t="s">
-        <v>501</v>
       </c>
       <c r="M48" s="15" t="s">
         <v>123</v>
       </c>
       <c r="N48" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="O48" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="O48" s="29" t="s">
+      <c r="P48" s="31" t="s">
         <v>498</v>
-      </c>
-      <c r="P48" s="31" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
@@ -4694,13 +4694,13 @@
         <v>31</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>507</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>459</v>
@@ -4709,32 +4709,32 @@
         <v>460</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>83</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="K49" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="K49" s="15" t="s">
+      <c r="L49" s="15" t="s">
         <v>510</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>511</v>
       </c>
       <c r="M49" s="15" t="s">
         <v>75</v>
       </c>
       <c r="N49" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="O49" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="O49" s="30" t="s">
+      <c r="P49" s="15" t="s">
         <v>513</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
@@ -4742,13 +4742,13 @@
         <v>31</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>516</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>517</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>459</v>
@@ -4757,17 +4757,17 @@
         <v>36</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>479</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="K50" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>520</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>31</v>
@@ -4776,13 +4776,13 @@
         <v>75</v>
       </c>
       <c r="N50" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O50" s="29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
@@ -4790,13 +4790,13 @@
         <v>31</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>459</v>
@@ -4805,17 +4805,17 @@
         <v>460</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="L51" s="15" t="s">
         <v>472</v>
@@ -4824,13 +4824,13 @@
         <v>75</v>
       </c>
       <c r="N51" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O51" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1">
@@ -4841,10 +4841,10 @@
         <v>347</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>459</v>
@@ -4853,17 +4853,17 @@
         <v>460</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>83</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L52" s="15" t="s">
         <v>463</v>
@@ -4872,13 +4872,13 @@
         <v>123</v>
       </c>
       <c r="N52" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="O52" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="P52" s="15" t="s">
         <v>536</v>
-      </c>
-      <c r="O52" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1">
